--- a/data/monitoring_phenology/percent_chlorocontent.xlsx
+++ b/data/monitoring_phenology/percent_chlorocontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17FDCD-B60E-F24D-8FAB-F92FEAAACF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECC50C-CB04-9145-BED1-63E137312DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="709">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3448,10 +3448,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A477" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="Z466" sqref="Z466"/>
+      <selection pane="topRight" activeCell="U531" sqref="U531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5996,10 +5996,18 @@
       <c r="V32">
         <v>10</v>
       </c>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="W32" s="5">
+        <v>14</v>
+      </c>
+      <c r="X32" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>10</v>
+      </c>
       <c r="AA32" s="5"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
@@ -6057,10 +6065,18 @@
       <c r="V33">
         <v>20</v>
       </c>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="W33" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="X33" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>20</v>
+      </c>
       <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -6118,10 +6134,18 @@
       <c r="V34">
         <v>50</v>
       </c>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="W34" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="X34" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>50</v>
+      </c>
       <c r="AA34" s="5"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
@@ -6179,10 +6203,18 @@
       <c r="V35">
         <v>50</v>
       </c>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="W35" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="X35" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>40</v>
+      </c>
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -6240,10 +6272,18 @@
       <c r="V36">
         <v>20</v>
       </c>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="W36" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="X36" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>5</v>
+      </c>
       <c r="AA36" s="5"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -6301,10 +6341,18 @@
       <c r="V37">
         <v>40</v>
       </c>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="W37" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="X37" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>20</v>
+      </c>
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -6362,10 +6410,18 @@
       <c r="V38">
         <v>40</v>
       </c>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="W38" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="X38" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>30</v>
+      </c>
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -6384,6 +6440,9 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
+      <c r="F39" t="s">
+        <v>702</v>
+      </c>
       <c r="G39">
         <v>9.6</v>
       </c>
@@ -6423,10 +6482,18 @@
       <c r="V39">
         <v>10</v>
       </c>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="W39" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -6487,10 +6554,18 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0</v>
+      </c>
       <c r="AA40" s="5"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -6551,10 +6626,18 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>0</v>
+      </c>
       <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -6612,10 +6695,18 @@
       <c r="V42">
         <v>10</v>
       </c>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="W42" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X42" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>0</v>
+      </c>
       <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -6673,10 +6764,18 @@
       <c r="V43">
         <v>5</v>
       </c>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="W43" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="X43" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>5</v>
+      </c>
       <c r="AA43" s="5"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -6737,10 +6836,18 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="W44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>0</v>
+      </c>
       <c r="AA44" s="5"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -6798,10 +6905,18 @@
       <c r="V45">
         <v>10</v>
       </c>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="W45" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="X45" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>5</v>
+      </c>
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
@@ -6859,10 +6974,18 @@
       <c r="V46">
         <v>20</v>
       </c>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
+      <c r="W46" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="X46" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>10</v>
+      </c>
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
@@ -8090,6 +8213,9 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
+      <c r="F62" t="s">
+        <v>702</v>
+      </c>
       <c r="G62">
         <v>4.9000000000000004</v>
       </c>
@@ -8129,10 +8255,18 @@
       <c r="V62">
         <v>5</v>
       </c>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
+      <c r="W62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
       <c r="AA62" s="5"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
@@ -8190,10 +8324,18 @@
       <c r="V63">
         <v>5</v>
       </c>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
+      <c r="W63" s="5">
+        <v>3</v>
+      </c>
+      <c r="X63" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>5</v>
+      </c>
       <c r="AA63" s="5"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
@@ -8212,6 +8354,9 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
+      <c r="F64" t="s">
+        <v>703</v>
+      </c>
       <c r="G64">
         <v>5.8</v>
       </c>
@@ -8251,10 +8396,18 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
+      <c r="W64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
       <c r="AA64" s="5"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
@@ -8273,6 +8426,9 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
+      <c r="F65" t="s">
+        <v>703</v>
+      </c>
       <c r="G65">
         <v>8.6999999999999993</v>
       </c>
@@ -8312,10 +8468,18 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
+      <c r="W65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
       <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
@@ -8373,10 +8537,18 @@
       <c r="V66">
         <v>50</v>
       </c>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
+      <c r="W66" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="X66" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>50</v>
+      </c>
       <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
@@ -8437,10 +8609,18 @@
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
+      <c r="W67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
       <c r="AA67" s="5"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
@@ -8459,6 +8639,9 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
+      <c r="F68" t="s">
+        <v>703</v>
+      </c>
       <c r="G68">
         <v>4.0999999999999996</v>
       </c>
@@ -8498,10 +8681,18 @@
       <c r="V68">
         <v>10</v>
       </c>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
+      <c r="W68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
       <c r="AA68" s="5"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
@@ -8559,10 +8750,18 @@
       <c r="V69">
         <v>10</v>
       </c>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
+      <c r="W69" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="X69" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>5</v>
+      </c>
       <c r="AA69" s="5"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
@@ -8581,6 +8780,9 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
+      <c r="F70" t="s">
+        <v>702</v>
+      </c>
       <c r="G70">
         <v>7.8</v>
       </c>
@@ -8620,10 +8822,18 @@
       <c r="V70">
         <v>10</v>
       </c>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
+      <c r="W70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
       <c r="AA70" s="5"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
@@ -8684,10 +8894,18 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
+      <c r="W71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
       <c r="AA71" s="5"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
@@ -8748,10 +8966,18 @@
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
+      <c r="W72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
       <c r="AA72" s="5"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
@@ -8812,10 +9038,18 @@
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
+      <c r="W73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
       <c r="AA73" s="5"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
@@ -8876,10 +9110,18 @@
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
+      <c r="W74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
       <c r="AA74" s="5"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
@@ -8940,10 +9182,18 @@
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
+      <c r="W75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0</v>
+      </c>
       <c r="AA75" s="5"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
@@ -9001,10 +9251,18 @@
       <c r="V76">
         <v>10</v>
       </c>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
+      <c r="W76" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="X76" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>10</v>
+      </c>
       <c r="AA76" s="5"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
@@ -9062,10 +9320,18 @@
       <c r="V77">
         <v>10</v>
       </c>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
+      <c r="W77" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="X77" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>5</v>
+      </c>
       <c r="AA77" s="5"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
@@ -9084,6 +9350,9 @@
       <c r="E78" t="s">
         <v>9</v>
       </c>
+      <c r="F78" t="s">
+        <v>703</v>
+      </c>
       <c r="G78">
         <v>6.2</v>
       </c>
@@ -9123,10 +9392,18 @@
       <c r="V78">
         <v>0</v>
       </c>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
+      <c r="W78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0</v>
+      </c>
       <c r="AA78" s="5"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
@@ -9187,10 +9464,18 @@
       <c r="V79">
         <v>10</v>
       </c>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
+      <c r="W79" s="5">
+        <v>1</v>
+      </c>
+      <c r="X79" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>5</v>
+      </c>
       <c r="AA79" s="5"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
@@ -9251,10 +9536,18 @@
       <c r="V80">
         <v>20</v>
       </c>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
+      <c r="W80" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="X80" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>10</v>
+      </c>
       <c r="AA80" s="5"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -9315,10 +9608,18 @@
       <c r="V81">
         <v>10</v>
       </c>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
+      <c r="W81" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="X81" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>10</v>
+      </c>
       <c r="AA81" s="5"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -9376,10 +9677,18 @@
       <c r="V82">
         <v>20</v>
       </c>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
+      <c r="W82" s="5">
+        <v>11.7</v>
+      </c>
+      <c r="X82" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>20</v>
+      </c>
       <c r="AA82" s="5"/>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -9398,6 +9707,9 @@
       <c r="E83" t="s">
         <v>9</v>
       </c>
+      <c r="F83" t="s">
+        <v>703</v>
+      </c>
       <c r="G83">
         <v>7.3</v>
       </c>
@@ -9437,10 +9749,18 @@
       <c r="V83">
         <v>5</v>
       </c>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
+      <c r="W83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
       <c r="AA83" s="5"/>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -9459,6 +9779,9 @@
       <c r="E84" t="s">
         <v>9</v>
       </c>
+      <c r="F84" t="s">
+        <v>703</v>
+      </c>
       <c r="G84">
         <v>5.7</v>
       </c>
@@ -9498,10 +9821,18 @@
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
+      <c r="W84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
       <c r="AA84" s="5"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -9562,10 +9893,18 @@
       <c r="V85">
         <v>0</v>
       </c>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
+      <c r="W85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
       <c r="AA85" s="5"/>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -9623,10 +9962,18 @@
       <c r="V86">
         <v>10</v>
       </c>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
+      <c r="W86" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="X86" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>5</v>
+      </c>
       <c r="AA86" s="5"/>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -9687,10 +10034,18 @@
       <c r="V87">
         <v>0</v>
       </c>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
+      <c r="W87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>0</v>
+      </c>
       <c r="AA87" s="5"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -9748,10 +10103,18 @@
       <c r="V88">
         <v>10</v>
       </c>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
+      <c r="W88" s="5">
+        <v>6</v>
+      </c>
+      <c r="X88" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>5</v>
+      </c>
       <c r="AA88" s="5"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -9809,10 +10172,18 @@
       <c r="V89">
         <v>10</v>
       </c>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
+      <c r="W89" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="X89" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>5</v>
+      </c>
       <c r="AA89" s="5"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
@@ -9873,10 +10244,18 @@
       <c r="V90">
         <v>5</v>
       </c>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
+      <c r="W90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
       <c r="AA90" s="5"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -9934,10 +10313,18 @@
       <c r="V91">
         <v>20</v>
       </c>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
+      <c r="W91" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="X91" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>20</v>
+      </c>
       <c r="AA91" s="5"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
@@ -12353,10 +12740,18 @@
       <c r="V122">
         <v>60</v>
       </c>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
+      <c r="W122" s="5">
+        <v>22</v>
+      </c>
+      <c r="X122" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z122" s="5">
+        <v>50</v>
+      </c>
       <c r="AA122" s="5"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
@@ -12423,10 +12818,18 @@
       <c r="V123">
         <v>70</v>
       </c>
-      <c r="W123" s="5"/>
-      <c r="X123" s="5"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
+      <c r="W123" s="5">
+        <v>29.3</v>
+      </c>
+      <c r="X123" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Y123" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="Z123" s="5">
+        <v>70</v>
+      </c>
       <c r="AA123" s="5"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
@@ -12493,10 +12896,18 @@
       <c r="V124">
         <v>70</v>
       </c>
-      <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
+      <c r="W124" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="X124" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z124" s="5">
+        <v>60</v>
+      </c>
       <c r="AA124" s="5"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
@@ -12563,10 +12974,18 @@
       <c r="V125">
         <v>70</v>
       </c>
-      <c r="W125" s="5"/>
-      <c r="X125" s="5"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
+      <c r="W125" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="X125" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="Y125" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="Z125" s="5">
+        <v>70</v>
+      </c>
       <c r="AA125" s="5"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
@@ -12633,10 +13052,18 @@
       <c r="V126">
         <v>70</v>
       </c>
-      <c r="W126" s="5"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
+      <c r="W126" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="X126" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y126" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="Z126" s="5">
+        <v>60</v>
+      </c>
       <c r="AA126" s="5"/>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
@@ -12703,10 +13130,18 @@
       <c r="V127">
         <v>60</v>
       </c>
-      <c r="W127" s="5"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
+      <c r="W127" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="X127" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="Y127" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="Z127" s="5">
+        <v>60</v>
+      </c>
       <c r="AA127" s="5"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
@@ -12764,10 +13199,18 @@
       <c r="V128">
         <v>70</v>
       </c>
-      <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
+      <c r="W128" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="X128" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="Y128" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z128" s="5">
+        <v>70</v>
+      </c>
       <c r="AA128" s="5"/>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
@@ -12825,10 +13268,18 @@
       <c r="V129">
         <v>40</v>
       </c>
-      <c r="W129" s="5"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
+      <c r="W129" s="5">
+        <v>15</v>
+      </c>
+      <c r="X129" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y129" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="Z129" s="5">
+        <v>40</v>
+      </c>
       <c r="AA129" s="5"/>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
@@ -12886,10 +13337,18 @@
       <c r="V130">
         <v>20</v>
       </c>
-      <c r="W130" s="5"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
+      <c r="W130" s="5">
+        <v>15</v>
+      </c>
+      <c r="X130" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="Y130" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="Z130" s="5">
+        <v>10</v>
+      </c>
       <c r="AA130" s="5"/>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.2">
@@ -12947,10 +13406,18 @@
       <c r="V131">
         <v>30</v>
       </c>
-      <c r="W131" s="5"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
+      <c r="W131" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="X131" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y131" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="Z131" s="5">
+        <v>20</v>
+      </c>
       <c r="AA131" s="5"/>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.2">
@@ -13008,10 +13475,18 @@
       <c r="V132">
         <v>60</v>
       </c>
-      <c r="W132" s="5"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
+      <c r="W132" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="X132" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="Y132" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="Z132" s="5">
+        <v>50</v>
+      </c>
       <c r="AA132" s="5"/>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.2">
@@ -13069,10 +13544,18 @@
       <c r="V133">
         <v>70</v>
       </c>
-      <c r="W133" s="5"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
+      <c r="W133" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="X133" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="Y133" s="5">
+        <v>30</v>
+      </c>
+      <c r="Z133" s="5">
+        <v>60</v>
+      </c>
       <c r="AA133" s="5"/>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
@@ -13130,10 +13613,18 @@
       <c r="V134">
         <v>60</v>
       </c>
-      <c r="W134" s="5"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
+      <c r="W134" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="X134" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="Y134" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="Z134" s="5">
+        <v>40</v>
+      </c>
       <c r="AA134" s="5"/>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
@@ -13191,10 +13682,18 @@
       <c r="V135">
         <v>70</v>
       </c>
-      <c r="W135" s="5"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
+      <c r="W135" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="X135" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Y135" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="Z135" s="5">
+        <v>50</v>
+      </c>
       <c r="AA135" s="5"/>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.2">
@@ -13252,10 +13751,18 @@
       <c r="V136">
         <v>50</v>
       </c>
-      <c r="W136" s="5"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
+      <c r="W136" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="X136" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="Y136" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Z136" s="5">
+        <v>40</v>
+      </c>
       <c r="AA136" s="5"/>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.2">
@@ -14501,10 +15008,18 @@
       <c r="V152">
         <v>50</v>
       </c>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
+      <c r="W152" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="X152" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="Y152" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="Z152" s="5">
+        <v>50</v>
+      </c>
       <c r="AA152" s="5"/>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
@@ -14571,10 +15086,18 @@
       <c r="V153">
         <v>60</v>
       </c>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
+      <c r="W153" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="X153" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="Y153" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="Z153" s="5">
+        <v>50</v>
+      </c>
       <c r="AA153" s="5"/>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
@@ -14641,10 +15164,18 @@
       <c r="V154">
         <v>50</v>
       </c>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
-      <c r="Z154" s="5"/>
+      <c r="W154" s="5">
+        <v>32</v>
+      </c>
+      <c r="X154" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y154" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z154" s="5">
+        <v>30</v>
+      </c>
       <c r="AA154" s="5"/>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
@@ -14711,10 +15242,18 @@
       <c r="V155">
         <v>70</v>
       </c>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
-      <c r="Z155" s="5"/>
+      <c r="W155" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="X155" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y155" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="Z155" s="5">
+        <v>50</v>
+      </c>
       <c r="AA155" s="5"/>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
@@ -14781,10 +15320,18 @@
       <c r="V156">
         <v>20</v>
       </c>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
-      <c r="Z156" s="5"/>
+      <c r="W156" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="X156" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="Y156" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Z156" s="5">
+        <v>20</v>
+      </c>
       <c r="AA156" s="5"/>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.2">
@@ -14851,10 +15398,18 @@
       <c r="V157">
         <v>40</v>
       </c>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
-      <c r="Z157" s="5"/>
+      <c r="W157" s="5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="X157" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Y157" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z157" s="5">
+        <v>30</v>
+      </c>
       <c r="AA157" s="5"/>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
@@ -14921,10 +15476,18 @@
       <c r="V158">
         <v>60</v>
       </c>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
-      <c r="Y158" s="5"/>
-      <c r="Z158" s="5"/>
+      <c r="W158" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="X158" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Y158" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Z158" s="5">
+        <v>60</v>
+      </c>
       <c r="AA158" s="5"/>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
@@ -14991,10 +15554,18 @@
       <c r="V159">
         <v>30</v>
       </c>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
-      <c r="Z159" s="5"/>
+      <c r="W159" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="X159" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="Y159" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z159" s="5">
+        <v>30</v>
+      </c>
       <c r="AA159" s="5"/>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
@@ -15061,10 +15632,18 @@
       <c r="V160">
         <v>50</v>
       </c>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
+      <c r="W160" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="X160" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="Y160" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="Z160" s="5">
+        <v>50</v>
+      </c>
       <c r="AA160" s="5"/>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
@@ -15131,10 +15710,18 @@
       <c r="V161">
         <v>40</v>
       </c>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
+      <c r="W161" s="5">
+        <v>12</v>
+      </c>
+      <c r="X161" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="Y161" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="Z161" s="5">
+        <v>30</v>
+      </c>
       <c r="AA161" s="5"/>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
@@ -15201,10 +15788,18 @@
       <c r="V162">
         <v>60</v>
       </c>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
-      <c r="Z162" s="5"/>
+      <c r="W162" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X162" s="5">
+        <v>19.3</v>
+      </c>
+      <c r="Y162" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="Z162" s="5">
+        <v>60</v>
+      </c>
       <c r="AA162" s="5"/>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
@@ -15271,10 +15866,18 @@
       <c r="V163">
         <v>50</v>
       </c>
-      <c r="W163" s="5"/>
-      <c r="X163" s="5"/>
-      <c r="Y163" s="5"/>
-      <c r="Z163" s="5"/>
+      <c r="W163" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="X163" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Y163" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z163" s="5">
+        <v>50</v>
+      </c>
       <c r="AA163" s="5"/>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
@@ -15341,10 +15944,18 @@
       <c r="V164">
         <v>60</v>
       </c>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
+      <c r="W164" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="X164" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="Y164" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="Z164" s="5">
+        <v>60</v>
+      </c>
       <c r="AA164" s="5"/>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
@@ -15411,10 +16022,18 @@
       <c r="V165">
         <v>50</v>
       </c>
-      <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
+      <c r="W165" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X165" s="5">
+        <v>22</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="Z165" s="5">
+        <v>50</v>
+      </c>
       <c r="AA165" s="5"/>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
@@ -15481,10 +16100,18 @@
       <c r="V166">
         <v>70</v>
       </c>
-      <c r="W166" s="5"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
-      <c r="Z166" s="5"/>
+      <c r="W166" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="X166" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="Y166" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="Z166" s="5">
+        <v>70</v>
+      </c>
       <c r="AA166" s="5"/>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
@@ -15551,10 +16178,18 @@
       <c r="V167">
         <v>70</v>
       </c>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
+      <c r="W167" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="X167" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y167" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="Z167" s="5">
+        <v>60</v>
+      </c>
       <c r="AA167" s="5"/>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
@@ -15621,10 +16256,18 @@
       <c r="V168">
         <v>80</v>
       </c>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
+      <c r="W168" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="X168" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="Y168" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="Z168" s="5">
+        <v>60</v>
+      </c>
       <c r="AA168" s="5"/>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
@@ -15691,10 +16334,18 @@
       <c r="V169">
         <v>30</v>
       </c>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
-      <c r="Z169" s="5"/>
+      <c r="W169" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="X169" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="Y169" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z169" s="5">
+        <v>30</v>
+      </c>
       <c r="AA169" s="5"/>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
@@ -15761,10 +16412,18 @@
       <c r="V170">
         <v>70</v>
       </c>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
-      <c r="Z170" s="5"/>
+      <c r="W170" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="X170" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="Y170" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="Z170" s="5">
+        <v>60</v>
+      </c>
       <c r="AA170" s="5"/>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
@@ -15831,10 +16490,18 @@
       <c r="V171">
         <v>90</v>
       </c>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
-      <c r="Z171" s="5"/>
+      <c r="W171" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="X171" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="Y171" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z171" s="5">
+        <v>80</v>
+      </c>
       <c r="AA171" s="5"/>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
@@ -15901,10 +16568,18 @@
       <c r="V172">
         <v>70</v>
       </c>
-      <c r="W172" s="5"/>
-      <c r="X172" s="5"/>
-      <c r="Y172" s="5"/>
-      <c r="Z172" s="5"/>
+      <c r="W172" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="X172" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="Y172" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="Z172" s="5">
+        <v>70</v>
+      </c>
       <c r="AA172" s="5"/>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
@@ -15971,10 +16646,18 @@
       <c r="V173">
         <v>50</v>
       </c>
-      <c r="W173" s="5"/>
-      <c r="X173" s="5"/>
-      <c r="Y173" s="5"/>
-      <c r="Z173" s="5"/>
+      <c r="W173" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="X173" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="Y173" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z173" s="5">
+        <v>40</v>
+      </c>
       <c r="AA173" s="5"/>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
@@ -16041,10 +16724,18 @@
       <c r="V174">
         <v>40</v>
       </c>
-      <c r="W174" s="5"/>
-      <c r="X174" s="5"/>
-      <c r="Y174" s="5"/>
-      <c r="Z174" s="5"/>
+      <c r="W174" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="X174" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="Y174" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Z174" s="5">
+        <v>40</v>
+      </c>
       <c r="AA174" s="5"/>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
@@ -16114,10 +16805,18 @@
       <c r="V175">
         <v>60</v>
       </c>
-      <c r="W175" s="5"/>
-      <c r="X175" s="5"/>
-      <c r="Y175" s="5"/>
-      <c r="Z175" s="5"/>
+      <c r="W175" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="X175" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Y175" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="Z175" s="5">
+        <v>50</v>
+      </c>
       <c r="AA175" s="5"/>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
@@ -16184,10 +16883,18 @@
       <c r="V176">
         <v>60</v>
       </c>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
+      <c r="W176" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="X176" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="Y176" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="Z176" s="5">
+        <v>50</v>
+      </c>
       <c r="AA176" s="5"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
@@ -16254,10 +16961,18 @@
       <c r="V177">
         <v>60</v>
       </c>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
+      <c r="W177" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="X177" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y177" s="5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Z177" s="5">
+        <v>60</v>
+      </c>
       <c r="AA177" s="5"/>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
@@ -16324,10 +17039,18 @@
       <c r="V178">
         <v>40</v>
       </c>
-      <c r="W178" s="5"/>
-      <c r="X178" s="5"/>
-      <c r="Y178" s="5"/>
-      <c r="Z178" s="5"/>
+      <c r="W178" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="X178" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="Y178" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="Z178" s="5">
+        <v>40</v>
+      </c>
       <c r="AA178" s="5"/>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
@@ -16394,10 +17117,18 @@
       <c r="V179">
         <v>50</v>
       </c>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
-      <c r="Z179" s="5"/>
+      <c r="W179" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="X179" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y179" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="Z179" s="5">
+        <v>40</v>
+      </c>
       <c r="AA179" s="5"/>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
@@ -16464,10 +17195,18 @@
       <c r="V180">
         <v>60</v>
       </c>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
-      <c r="Z180" s="5"/>
+      <c r="W180" s="5">
+        <v>30</v>
+      </c>
+      <c r="X180" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="Y180" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="Z180" s="5">
+        <v>50</v>
+      </c>
       <c r="AA180" s="5"/>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
@@ -16534,10 +17273,18 @@
       <c r="V181">
         <v>10</v>
       </c>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
-      <c r="Z181" s="5"/>
+      <c r="W181" s="5">
+        <v>30</v>
+      </c>
+      <c r="X181" s="5">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Y181" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="Z181" s="5">
+        <v>10</v>
+      </c>
       <c r="AA181" s="5"/>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
@@ -20932,10 +21679,18 @@
       <c r="V302">
         <v>60</v>
       </c>
-      <c r="W302" s="5"/>
-      <c r="X302" s="5"/>
-      <c r="Y302" s="5"/>
-      <c r="Z302" s="5"/>
+      <c r="W302" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="X302" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="Y302" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="Z302" s="5">
+        <v>60</v>
+      </c>
       <c r="AA302" s="5"/>
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
@@ -20993,10 +21748,18 @@
       <c r="V303">
         <v>70</v>
       </c>
-      <c r="W303" s="5"/>
-      <c r="X303" s="5"/>
-      <c r="Y303" s="5"/>
-      <c r="Z303" s="5"/>
+      <c r="W303" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="X303" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="Y303" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="Z303" s="5">
+        <v>60</v>
+      </c>
       <c r="AA303" s="5"/>
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
@@ -21054,10 +21817,18 @@
       <c r="V304">
         <v>80</v>
       </c>
-      <c r="W304" s="5"/>
-      <c r="X304" s="5"/>
-      <c r="Y304" s="5"/>
-      <c r="Z304" s="5"/>
+      <c r="W304" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="X304" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="Y304" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="Z304" s="5">
+        <v>70</v>
+      </c>
       <c r="AA304" s="5"/>
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
@@ -21115,10 +21886,18 @@
       <c r="V305">
         <v>70</v>
       </c>
-      <c r="W305" s="5"/>
-      <c r="X305" s="5"/>
-      <c r="Y305" s="5"/>
-      <c r="Z305" s="5"/>
+      <c r="W305" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="X305" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="Y305" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="Z305" s="5">
+        <v>70</v>
+      </c>
       <c r="AA305" s="5"/>
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
@@ -21176,10 +21955,18 @@
       <c r="V306">
         <v>80</v>
       </c>
-      <c r="W306" s="5"/>
-      <c r="X306" s="5"/>
-      <c r="Y306" s="5"/>
-      <c r="Z306" s="5"/>
+      <c r="W306" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="X306" s="5">
+        <v>21</v>
+      </c>
+      <c r="Y306" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z306" s="5">
+        <v>80</v>
+      </c>
       <c r="AA306" s="5"/>
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
@@ -21237,10 +22024,18 @@
       <c r="V307">
         <v>60</v>
       </c>
-      <c r="W307" s="5"/>
-      <c r="X307" s="5"/>
-      <c r="Y307" s="5"/>
-      <c r="Z307" s="5"/>
+      <c r="W307" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="X307" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="Y307" s="5">
+        <v>29.9</v>
+      </c>
+      <c r="Z307" s="5">
+        <v>60</v>
+      </c>
       <c r="AA307" s="5"/>
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
@@ -21298,10 +22093,18 @@
       <c r="V308">
         <v>70</v>
       </c>
-      <c r="W308" s="5"/>
-      <c r="X308" s="5"/>
-      <c r="Y308" s="5"/>
-      <c r="Z308" s="5"/>
+      <c r="W308" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="X308" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="Y308" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="Z308" s="5">
+        <v>60</v>
+      </c>
       <c r="AA308" s="5"/>
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
@@ -21359,10 +22162,18 @@
       <c r="V309">
         <v>70</v>
       </c>
-      <c r="W309" s="5"/>
-      <c r="X309" s="5"/>
-      <c r="Y309" s="5"/>
-      <c r="Z309" s="5"/>
+      <c r="W309" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="X309" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="Y309" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="Z309" s="5">
+        <v>60</v>
+      </c>
       <c r="AA309" s="5"/>
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
@@ -21420,10 +22231,18 @@
       <c r="V310">
         <v>80</v>
       </c>
-      <c r="W310" s="5"/>
-      <c r="X310" s="5"/>
-      <c r="Y310" s="5"/>
-      <c r="Z310" s="5"/>
+      <c r="W310" s="5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="X310" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="Y310" s="5">
+        <v>26</v>
+      </c>
+      <c r="Z310" s="5">
+        <v>70</v>
+      </c>
       <c r="AA310" s="5"/>
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
@@ -21481,10 +22300,18 @@
       <c r="V311">
         <v>70</v>
       </c>
-      <c r="W311" s="5"/>
-      <c r="X311" s="5"/>
-      <c r="Y311" s="5"/>
-      <c r="Z311" s="5"/>
+      <c r="W311" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="X311" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y311" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="Z311" s="5">
+        <v>60</v>
+      </c>
       <c r="AA311" s="5"/>
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
@@ -21542,10 +22369,18 @@
       <c r="V312">
         <v>60</v>
       </c>
-      <c r="W312" s="5"/>
-      <c r="X312" s="5"/>
-      <c r="Y312" s="5"/>
-      <c r="Z312" s="5"/>
+      <c r="W312" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="X312" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="Y312" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="Z312" s="5">
+        <v>50</v>
+      </c>
       <c r="AA312" s="5"/>
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
@@ -21603,10 +22438,18 @@
       <c r="V313">
         <v>60</v>
       </c>
-      <c r="W313" s="5"/>
-      <c r="X313" s="5"/>
-      <c r="Y313" s="5"/>
-      <c r="Z313" s="5"/>
+      <c r="W313" s="5">
+        <v>21</v>
+      </c>
+      <c r="X313" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="Y313" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="Z313" s="5">
+        <v>60</v>
+      </c>
       <c r="AA313" s="5"/>
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
@@ -21664,10 +22507,18 @@
       <c r="V314">
         <v>50</v>
       </c>
-      <c r="W314" s="5"/>
-      <c r="X314" s="5"/>
-      <c r="Y314" s="5"/>
-      <c r="Z314" s="5"/>
+      <c r="W314" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="X314" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="Y314" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="Z314" s="5">
+        <v>40</v>
+      </c>
       <c r="AA314" s="5"/>
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
@@ -21725,10 +22576,18 @@
       <c r="V315">
         <v>70</v>
       </c>
-      <c r="W315" s="5"/>
-      <c r="X315" s="5"/>
-      <c r="Y315" s="5"/>
-      <c r="Z315" s="5"/>
+      <c r="W315" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="X315" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y315" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="Z315" s="5">
+        <v>70</v>
+      </c>
       <c r="AA315" s="5"/>
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
@@ -21786,10 +22645,18 @@
       <c r="V316">
         <v>70</v>
       </c>
-      <c r="W316" s="5"/>
-      <c r="X316" s="5"/>
-      <c r="Y316" s="5"/>
-      <c r="Z316" s="5"/>
+      <c r="W316" s="5">
+        <v>28</v>
+      </c>
+      <c r="X316" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="Y316" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z316" s="5">
+        <v>70</v>
+      </c>
       <c r="AA316" s="5"/>
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
@@ -23020,10 +23887,18 @@
       <c r="V332">
         <v>70</v>
       </c>
-      <c r="W332" s="5"/>
-      <c r="X332" s="5"/>
-      <c r="Y332" s="5"/>
-      <c r="Z332" s="5"/>
+      <c r="W332" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="X332" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="Y332" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="Z332" s="5">
+        <v>70</v>
+      </c>
       <c r="AA332" s="5"/>
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
@@ -23081,10 +23956,18 @@
       <c r="V333">
         <v>80</v>
       </c>
-      <c r="W333" s="5"/>
-      <c r="X333" s="5"/>
-      <c r="Y333" s="5"/>
-      <c r="Z333" s="5"/>
+      <c r="W333" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="X333" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y333" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="Z333" s="5">
+        <v>70</v>
+      </c>
       <c r="AA333" s="5"/>
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
@@ -23142,10 +24025,18 @@
       <c r="V334">
         <v>70</v>
       </c>
-      <c r="W334" s="5"/>
-      <c r="X334" s="5"/>
-      <c r="Y334" s="5"/>
-      <c r="Z334" s="5"/>
+      <c r="W334" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="X334" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Y334" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="Z334" s="5">
+        <v>70</v>
+      </c>
       <c r="AA334" s="5"/>
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
@@ -23203,10 +24094,18 @@
       <c r="V335">
         <v>70</v>
       </c>
-      <c r="W335" s="5"/>
-      <c r="X335" s="5"/>
-      <c r="Y335" s="5"/>
-      <c r="Z335" s="5"/>
+      <c r="W335" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="X335" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="Y335" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="Z335" s="5">
+        <v>70</v>
+      </c>
       <c r="AA335" s="5"/>
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
@@ -23264,10 +24163,18 @@
       <c r="V336">
         <v>70</v>
       </c>
-      <c r="W336" s="5"/>
-      <c r="X336" s="5"/>
-      <c r="Y336" s="5"/>
-      <c r="Z336" s="5"/>
+      <c r="W336" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="X336" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y336" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Z336" s="5">
+        <v>60</v>
+      </c>
       <c r="AA336" s="5"/>
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
@@ -23325,10 +24232,18 @@
       <c r="V337">
         <v>70</v>
       </c>
-      <c r="W337" s="5"/>
-      <c r="X337" s="5"/>
-      <c r="Y337" s="5"/>
-      <c r="Z337" s="5"/>
+      <c r="W337" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="X337" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="Y337" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="Z337" s="5">
+        <v>70</v>
+      </c>
       <c r="AA337" s="5"/>
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
@@ -23386,10 +24301,18 @@
       <c r="V338">
         <v>70</v>
       </c>
-      <c r="W338" s="5"/>
-      <c r="X338" s="5"/>
-      <c r="Y338" s="5"/>
-      <c r="Z338" s="5"/>
+      <c r="W338" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="X338" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="Y338" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z338" s="5">
+        <v>70</v>
+      </c>
       <c r="AA338" s="5"/>
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
@@ -23447,10 +24370,18 @@
       <c r="V339">
         <v>60</v>
       </c>
-      <c r="W339" s="5"/>
-      <c r="X339" s="5"/>
-      <c r="Y339" s="5"/>
-      <c r="Z339" s="5"/>
+      <c r="W339" s="5">
+        <v>33</v>
+      </c>
+      <c r="X339" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="Y339" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="Z339" s="5">
+        <v>60</v>
+      </c>
       <c r="AA339" s="5"/>
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
@@ -23508,10 +24439,18 @@
       <c r="V340">
         <v>50</v>
       </c>
-      <c r="W340" s="5"/>
-      <c r="X340" s="5"/>
-      <c r="Y340" s="5"/>
-      <c r="Z340" s="5"/>
+      <c r="W340" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="X340" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="Y340" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="Z340" s="5">
+        <v>40</v>
+      </c>
       <c r="AA340" s="5"/>
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
@@ -23569,10 +24508,18 @@
       <c r="V341">
         <v>60</v>
       </c>
-      <c r="W341" s="5"/>
-      <c r="X341" s="5"/>
-      <c r="Y341" s="5"/>
-      <c r="Z341" s="5"/>
+      <c r="W341" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="X341" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="Y341" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="Z341" s="5">
+        <v>60</v>
+      </c>
       <c r="AA341" s="5"/>
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
@@ -23630,10 +24577,18 @@
       <c r="V342">
         <v>70</v>
       </c>
-      <c r="W342" s="5"/>
-      <c r="X342" s="5"/>
-      <c r="Y342" s="5"/>
-      <c r="Z342" s="5"/>
+      <c r="W342" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="X342" s="5">
+        <v>28.3</v>
+      </c>
+      <c r="Y342" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="Z342" s="5">
+        <v>70</v>
+      </c>
       <c r="AA342" s="5"/>
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
@@ -23694,10 +24649,18 @@
       <c r="V343">
         <v>5</v>
       </c>
-      <c r="W343" s="5"/>
-      <c r="X343" s="5"/>
-      <c r="Y343" s="5"/>
-      <c r="Z343" s="5"/>
+      <c r="W343" s="5">
+        <v>28</v>
+      </c>
+      <c r="X343" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="Y343" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z343" s="5">
+        <v>5</v>
+      </c>
       <c r="AA343" s="5"/>
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
@@ -23755,10 +24718,18 @@
       <c r="V344">
         <v>50</v>
       </c>
-      <c r="W344" s="5"/>
-      <c r="X344" s="5"/>
-      <c r="Y344" s="5"/>
-      <c r="Z344" s="5"/>
+      <c r="W344" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="X344" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="Y344" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="Z344" s="5">
+        <v>50</v>
+      </c>
       <c r="AA344" s="5"/>
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
@@ -23816,10 +24787,18 @@
       <c r="V345">
         <v>60</v>
       </c>
-      <c r="W345" s="5"/>
-      <c r="X345" s="5"/>
-      <c r="Y345" s="5"/>
-      <c r="Z345" s="5"/>
+      <c r="W345" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="X345" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="Y345" s="5">
+        <v>27</v>
+      </c>
+      <c r="Z345" s="5">
+        <v>60</v>
+      </c>
       <c r="AA345" s="5"/>
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
@@ -23877,10 +24856,18 @@
       <c r="V346">
         <v>60</v>
       </c>
-      <c r="W346" s="5"/>
-      <c r="X346" s="5"/>
-      <c r="Y346" s="5"/>
-      <c r="Z346" s="5"/>
+      <c r="W346" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="X346" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="Y346" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="Z346" s="5">
+        <v>60</v>
+      </c>
       <c r="AA346" s="5"/>
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
@@ -23938,10 +24925,18 @@
       <c r="V347">
         <v>70</v>
       </c>
-      <c r="W347" s="5"/>
-      <c r="X347" s="5"/>
-      <c r="Y347" s="5"/>
-      <c r="Z347" s="5"/>
+      <c r="W347" s="5">
+        <v>25</v>
+      </c>
+      <c r="X347" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="Y347" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="Z347" s="5">
+        <v>70</v>
+      </c>
       <c r="AA347" s="5"/>
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
@@ -23999,10 +24994,18 @@
       <c r="V348">
         <v>80</v>
       </c>
-      <c r="W348" s="5"/>
-      <c r="X348" s="5"/>
-      <c r="Y348" s="5"/>
-      <c r="Z348" s="5"/>
+      <c r="W348" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="X348" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="Y348" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="Z348" s="5">
+        <v>70</v>
+      </c>
       <c r="AA348" s="5"/>
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
@@ -24060,10 +25063,18 @@
       <c r="V349">
         <v>60</v>
       </c>
-      <c r="W349" s="5"/>
-      <c r="X349" s="5"/>
-      <c r="Y349" s="5"/>
-      <c r="Z349" s="5"/>
+      <c r="W349" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="X349" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="Y349" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z349" s="5">
+        <v>50</v>
+      </c>
       <c r="AA349" s="5"/>
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
@@ -24121,10 +25132,18 @@
       <c r="V350">
         <v>50</v>
       </c>
-      <c r="W350" s="5"/>
-      <c r="X350" s="5"/>
-      <c r="Y350" s="5"/>
-      <c r="Z350" s="5"/>
+      <c r="W350" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="X350" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="Y350" s="5">
+        <v>33.4</v>
+      </c>
+      <c r="Z350" s="5">
+        <v>50</v>
+      </c>
       <c r="AA350" s="5"/>
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
@@ -24182,10 +25201,18 @@
       <c r="V351">
         <v>50</v>
       </c>
-      <c r="W351" s="5"/>
-      <c r="X351" s="5"/>
-      <c r="Y351" s="5"/>
-      <c r="Z351" s="5"/>
+      <c r="W351" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="X351" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="Y351" s="5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z351" s="5">
+        <v>50</v>
+      </c>
       <c r="AA351" s="5"/>
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
@@ -24243,10 +25270,18 @@
       <c r="V352">
         <v>70</v>
       </c>
-      <c r="W352" s="5"/>
-      <c r="X352" s="5"/>
-      <c r="Y352" s="5"/>
-      <c r="Z352" s="5"/>
+      <c r="W352" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="X352" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="Y352" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="Z352" s="5">
+        <v>70</v>
+      </c>
       <c r="AA352" s="5"/>
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
@@ -24304,10 +25339,18 @@
       <c r="V353">
         <v>70</v>
       </c>
-      <c r="W353" s="5"/>
-      <c r="X353" s="5"/>
-      <c r="Y353" s="5"/>
-      <c r="Z353" s="5"/>
+      <c r="W353" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="X353" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="Y353" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="Z353" s="5">
+        <v>70</v>
+      </c>
       <c r="AA353" s="5"/>
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
@@ -24365,10 +25408,18 @@
       <c r="V354">
         <v>80</v>
       </c>
-      <c r="W354" s="5"/>
-      <c r="X354" s="5"/>
-      <c r="Y354" s="5"/>
-      <c r="Z354" s="5"/>
+      <c r="W354" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="X354" s="5">
+        <v>33.9</v>
+      </c>
+      <c r="Y354" s="5">
+        <v>27.8</v>
+      </c>
+      <c r="Z354" s="5">
+        <v>80</v>
+      </c>
       <c r="AA354" s="5"/>
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
@@ -24426,10 +25477,18 @@
       <c r="V355" t="s">
         <v>660</v>
       </c>
-      <c r="W355" s="5"/>
-      <c r="X355" s="5"/>
-      <c r="Y355" s="5"/>
-      <c r="Z355" s="5"/>
+      <c r="W355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z355" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="AA355" s="5"/>
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
@@ -24487,10 +25546,18 @@
       <c r="V356">
         <v>60</v>
       </c>
-      <c r="W356" s="5"/>
-      <c r="X356" s="5"/>
-      <c r="Y356" s="5"/>
-      <c r="Z356" s="5"/>
+      <c r="W356" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="X356" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="Y356" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="Z356" s="5">
+        <v>60</v>
+      </c>
       <c r="AA356" s="5"/>
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
@@ -24548,10 +25615,18 @@
       <c r="V357">
         <v>70</v>
       </c>
-      <c r="W357" s="5"/>
-      <c r="X357" s="5"/>
-      <c r="Y357" s="5"/>
-      <c r="Z357" s="5"/>
+      <c r="W357" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="X357" s="5">
+        <v>31.4</v>
+      </c>
+      <c r="Y357" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Z357" s="5">
+        <v>70</v>
+      </c>
       <c r="AA357" s="5"/>
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
@@ -24609,10 +25684,18 @@
       <c r="V358">
         <v>70</v>
       </c>
-      <c r="W358" s="5"/>
-      <c r="X358" s="5"/>
-      <c r="Y358" s="5"/>
-      <c r="Z358" s="5"/>
+      <c r="W358" s="5">
+        <v>39.1</v>
+      </c>
+      <c r="X358" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Y358" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="Z358" s="5">
+        <v>70</v>
+      </c>
       <c r="AA358" s="5"/>
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
@@ -24670,10 +25753,18 @@
       <c r="V359">
         <v>70</v>
       </c>
-      <c r="W359" s="5"/>
-      <c r="X359" s="5"/>
-      <c r="Y359" s="5"/>
-      <c r="Z359" s="5"/>
+      <c r="W359" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="X359" s="5">
+        <v>31</v>
+      </c>
+      <c r="Y359" s="5">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Z359" s="5">
+        <v>70</v>
+      </c>
       <c r="AA359" s="5"/>
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
@@ -24731,10 +25822,18 @@
       <c r="V360">
         <v>70</v>
       </c>
-      <c r="W360" s="5"/>
-      <c r="X360" s="5"/>
-      <c r="Y360" s="5"/>
-      <c r="Z360" s="5"/>
+      <c r="W360" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="X360" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="Y360" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="Z360" s="5">
+        <v>50</v>
+      </c>
       <c r="AA360" s="5"/>
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
@@ -24792,10 +25891,18 @@
       <c r="V361">
         <v>60</v>
       </c>
-      <c r="W361" s="5"/>
-      <c r="X361" s="5"/>
-      <c r="Y361" s="5"/>
-      <c r="Z361" s="5"/>
+      <c r="W361" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="X361" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="Y361" s="5">
+        <v>28.1</v>
+      </c>
+      <c r="Z361" s="5">
+        <v>60</v>
+      </c>
       <c r="AA361" s="5"/>
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
@@ -27226,10 +28333,18 @@
       <c r="V392">
         <v>30</v>
       </c>
-      <c r="W392" s="5"/>
-      <c r="X392" s="5"/>
-      <c r="Y392" s="5"/>
-      <c r="Z392" s="5"/>
+      <c r="W392" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="X392" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="Y392" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z392" s="5">
+        <v>20</v>
+      </c>
       <c r="AA392" s="5"/>
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
@@ -27287,10 +28402,18 @@
       <c r="V393">
         <v>20</v>
       </c>
-      <c r="W393" s="5"/>
-      <c r="X393" s="5"/>
-      <c r="Y393" s="5"/>
-      <c r="Z393" s="5"/>
+      <c r="W393" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="X393" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="Y393" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="Z393" s="5">
+        <v>10</v>
+      </c>
       <c r="AA393" s="5"/>
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
@@ -27348,10 +28471,18 @@
       <c r="V394">
         <v>60</v>
       </c>
-      <c r="W394" s="5"/>
-      <c r="X394" s="5"/>
-      <c r="Y394" s="5"/>
-      <c r="Z394" s="5"/>
+      <c r="W394" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="X394" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="Y394" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="Z394" s="5">
+        <v>40</v>
+      </c>
       <c r="AA394" s="5"/>
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
@@ -27409,10 +28540,18 @@
       <c r="V395">
         <v>40</v>
       </c>
-      <c r="W395" s="5"/>
-      <c r="X395" s="5"/>
-      <c r="Y395" s="5"/>
-      <c r="Z395" s="5"/>
+      <c r="W395" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X395" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="Y395" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="Z395" s="5">
+        <v>40</v>
+      </c>
       <c r="AA395" s="5"/>
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
@@ -27470,10 +28609,18 @@
       <c r="V396">
         <v>50</v>
       </c>
-      <c r="W396" s="5"/>
-      <c r="X396" s="5"/>
-      <c r="Y396" s="5"/>
-      <c r="Z396" s="5"/>
+      <c r="W396" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="X396" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="Y396" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="Z396" s="5">
+        <v>30</v>
+      </c>
       <c r="AA396" s="5"/>
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
@@ -27534,10 +28681,18 @@
       <c r="V397" t="s">
         <v>660</v>
       </c>
-      <c r="W397" s="5"/>
-      <c r="X397" s="5"/>
-      <c r="Y397" s="5"/>
-      <c r="Z397" s="5"/>
+      <c r="W397" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X397" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y397" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z397" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="AA397" s="5"/>
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
@@ -27595,10 +28750,18 @@
       <c r="V398">
         <v>30</v>
       </c>
-      <c r="W398" s="5"/>
-      <c r="X398" s="5"/>
-      <c r="Y398" s="5"/>
-      <c r="Z398" s="5"/>
+      <c r="W398" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X398" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y398" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="Z398" s="5">
+        <v>20</v>
+      </c>
       <c r="AA398" s="5"/>
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
@@ -27656,10 +28819,18 @@
       <c r="V399">
         <v>5</v>
       </c>
-      <c r="W399" s="5"/>
-      <c r="X399" s="5"/>
-      <c r="Y399" s="5"/>
-      <c r="Z399" s="5"/>
+      <c r="W399" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X399" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y399" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z399" s="5">
+        <v>5</v>
+      </c>
       <c r="AA399" s="5"/>
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
@@ -27717,10 +28888,18 @@
       <c r="V400">
         <v>0</v>
       </c>
-      <c r="W400" s="5"/>
-      <c r="X400" s="5"/>
-      <c r="Y400" s="5"/>
-      <c r="Z400" s="5"/>
+      <c r="W400" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X400" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y400" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z400" s="1">
+        <v>0</v>
+      </c>
       <c r="AA400" s="5"/>
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
@@ -27781,10 +28960,18 @@
       <c r="V401">
         <v>0</v>
       </c>
-      <c r="W401" s="5"/>
-      <c r="X401" s="5"/>
-      <c r="Y401" s="5"/>
-      <c r="Z401" s="5"/>
+      <c r="W401" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X401" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y401" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z401" s="1">
+        <v>0</v>
+      </c>
       <c r="AA401" s="5"/>
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
@@ -27803,6 +28990,9 @@
       <c r="E402" t="s">
         <v>382</v>
       </c>
+      <c r="F402" t="s">
+        <v>703</v>
+      </c>
       <c r="G402">
         <v>7.3</v>
       </c>
@@ -27842,10 +29032,18 @@
       <c r="V402">
         <v>5</v>
       </c>
-      <c r="W402" s="5"/>
-      <c r="X402" s="5"/>
-      <c r="Y402" s="5"/>
-      <c r="Z402" s="5"/>
+      <c r="W402" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X402" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y402" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z402" s="1">
+        <v>0</v>
+      </c>
       <c r="AA402" s="5"/>
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
@@ -27864,6 +29062,9 @@
       <c r="E403" t="s">
         <v>382</v>
       </c>
+      <c r="F403" t="s">
+        <v>703</v>
+      </c>
       <c r="G403">
         <v>4</v>
       </c>
@@ -27903,10 +29104,18 @@
       <c r="V403">
         <v>5</v>
       </c>
-      <c r="W403" s="5"/>
-      <c r="X403" s="5"/>
-      <c r="Y403" s="5"/>
-      <c r="Z403" s="5"/>
+      <c r="W403" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X403" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y403" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z403" s="1">
+        <v>0</v>
+      </c>
       <c r="AA403" s="5"/>
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
@@ -27967,10 +29176,18 @@
       <c r="V404">
         <v>50</v>
       </c>
-      <c r="W404" s="5"/>
-      <c r="X404" s="5"/>
-      <c r="Y404" s="5"/>
-      <c r="Z404" s="5"/>
+      <c r="W404" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="X404" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y404" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Z404" s="5">
+        <v>30</v>
+      </c>
       <c r="AA404" s="5"/>
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
@@ -28028,10 +29245,18 @@
       <c r="V405">
         <v>0</v>
       </c>
-      <c r="W405" s="5"/>
-      <c r="X405" s="5"/>
-      <c r="Y405" s="5"/>
-      <c r="Z405" s="5"/>
+      <c r="W405" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X405" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y405" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z405" s="1">
+        <v>0</v>
+      </c>
       <c r="AA405" s="5"/>
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
@@ -28092,10 +29317,18 @@
       <c r="V406">
         <v>0</v>
       </c>
-      <c r="W406" s="5"/>
-      <c r="X406" s="5"/>
-      <c r="Y406" s="5"/>
-      <c r="Z406" s="5"/>
+      <c r="W406" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X406" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y406" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z406" s="1">
+        <v>0</v>
+      </c>
       <c r="AA406" s="5"/>
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
@@ -29353,10 +30586,18 @@
       <c r="V422">
         <v>20</v>
       </c>
-      <c r="W422" s="5"/>
-      <c r="X422" s="5"/>
-      <c r="Y422" s="5"/>
-      <c r="Z422" s="5"/>
+      <c r="W422" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="X422" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="Y422" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="Z422" s="5">
+        <v>5</v>
+      </c>
       <c r="AA422" s="5"/>
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
@@ -29417,10 +30658,18 @@
       <c r="V423" t="s">
         <v>660</v>
       </c>
-      <c r="W423" s="5"/>
-      <c r="X423" s="5"/>
-      <c r="Y423" s="5"/>
-      <c r="Z423" s="5"/>
+      <c r="W423" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y423" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z423" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="AA423" s="5"/>
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
@@ -29478,10 +30727,18 @@
       <c r="V424">
         <v>30</v>
       </c>
-      <c r="W424" s="5"/>
-      <c r="X424" s="5"/>
-      <c r="Y424" s="5"/>
-      <c r="Z424" s="5"/>
+      <c r="W424" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="X424" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="Y424" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="Z424" s="5">
+        <v>10</v>
+      </c>
       <c r="AA424" s="5"/>
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
@@ -29539,10 +30796,18 @@
       <c r="V425">
         <v>10</v>
       </c>
-      <c r="W425" s="5"/>
-      <c r="X425" s="5"/>
-      <c r="Y425" s="5"/>
-      <c r="Z425" s="5"/>
+      <c r="W425" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="X425" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y425" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="Z425" s="5">
+        <v>5</v>
+      </c>
       <c r="AA425" s="5"/>
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
@@ -29600,10 +30865,18 @@
       <c r="V426">
         <v>20</v>
       </c>
-      <c r="W426" s="5"/>
-      <c r="X426" s="5"/>
-      <c r="Y426" s="5"/>
-      <c r="Z426" s="5"/>
+      <c r="W426" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="X426" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="Y426" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z426" s="5">
+        <v>5</v>
+      </c>
       <c r="AA426" s="5"/>
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
@@ -29661,10 +30934,18 @@
       <c r="V427">
         <v>40</v>
       </c>
-      <c r="W427" s="5"/>
-      <c r="X427" s="5"/>
-      <c r="Y427" s="5"/>
-      <c r="Z427" s="5"/>
+      <c r="W427" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="X427" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y427" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z427" s="5">
+        <v>10</v>
+      </c>
       <c r="AA427" s="5"/>
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
@@ -29722,10 +31003,18 @@
       <c r="V428">
         <v>30</v>
       </c>
-      <c r="W428" s="5"/>
-      <c r="X428" s="5"/>
-      <c r="Y428" s="5"/>
-      <c r="Z428" s="5"/>
+      <c r="W428" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="X428" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="Y428" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="Z428" s="5">
+        <v>5</v>
+      </c>
       <c r="AA428" s="5"/>
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
@@ -29783,10 +31072,18 @@
       <c r="V429">
         <v>30</v>
       </c>
-      <c r="W429" s="5"/>
-      <c r="X429" s="5"/>
-      <c r="Y429" s="5"/>
-      <c r="Z429" s="5"/>
+      <c r="W429" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="X429" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Y429" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="Z429" s="5">
+        <v>10</v>
+      </c>
       <c r="AA429" s="5"/>
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
@@ -29844,10 +31141,18 @@
       <c r="V430">
         <v>20</v>
       </c>
-      <c r="W430" s="5"/>
-      <c r="X430" s="5"/>
-      <c r="Y430" s="5"/>
-      <c r="Z430" s="5"/>
+      <c r="W430" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="X430" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="Y430" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z430" s="5">
+        <v>5</v>
+      </c>
       <c r="AA430" s="5"/>
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
@@ -29908,10 +31213,18 @@
       <c r="V431" t="s">
         <v>660</v>
       </c>
-      <c r="W431" s="5"/>
-      <c r="X431" s="5"/>
-      <c r="Y431" s="5"/>
-      <c r="Z431" s="5"/>
+      <c r="W431" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>660</v>
+      </c>
       <c r="AA431" s="5"/>
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
@@ -29972,10 +31285,18 @@
       <c r="V432">
         <v>0</v>
       </c>
-      <c r="W432" s="5"/>
-      <c r="X432" s="5"/>
-      <c r="Y432" s="5"/>
-      <c r="Z432" s="5"/>
+      <c r="W432" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y432" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z432" s="1">
+        <v>0</v>
+      </c>
       <c r="AA432" s="5"/>
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
@@ -30036,10 +31357,18 @@
       <c r="V433">
         <v>0</v>
       </c>
-      <c r="W433" s="5"/>
-      <c r="X433" s="5"/>
-      <c r="Y433" s="5"/>
-      <c r="Z433" s="5"/>
+      <c r="W433" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z433" s="1">
+        <v>0</v>
+      </c>
       <c r="AA433" s="5"/>
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
@@ -30097,10 +31426,18 @@
       <c r="V434">
         <v>0</v>
       </c>
-      <c r="W434" s="5"/>
-      <c r="X434" s="5"/>
-      <c r="Y434" s="5"/>
-      <c r="Z434" s="5"/>
+      <c r="W434" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z434" s="1">
+        <v>0</v>
+      </c>
       <c r="AA434" s="5"/>
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
@@ -30161,10 +31498,18 @@
       <c r="V435">
         <v>0</v>
       </c>
-      <c r="W435" s="5"/>
-      <c r="X435" s="5"/>
-      <c r="Y435" s="5"/>
-      <c r="Z435" s="5"/>
+      <c r="W435" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z435" s="1">
+        <v>0</v>
+      </c>
       <c r="AA435" s="5"/>
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
@@ -30225,10 +31570,18 @@
       <c r="V436">
         <v>0</v>
       </c>
-      <c r="W436" s="5"/>
-      <c r="X436" s="5"/>
-      <c r="Y436" s="5"/>
-      <c r="Z436" s="5"/>
+      <c r="W436" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y436" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z436" s="1">
+        <v>0</v>
+      </c>
       <c r="AA436" s="5"/>
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
@@ -30286,10 +31639,18 @@
       <c r="V437">
         <v>30</v>
       </c>
-      <c r="W437" s="5"/>
-      <c r="X437" s="5"/>
-      <c r="Y437" s="5"/>
-      <c r="Z437" s="5"/>
+      <c r="W437" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="X437" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="Y437" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z437" s="5">
+        <v>20</v>
+      </c>
       <c r="AA437" s="5"/>
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
@@ -30347,10 +31708,18 @@
       <c r="V438">
         <v>30</v>
       </c>
-      <c r="W438" s="5"/>
-      <c r="X438" s="5"/>
-      <c r="Y438" s="5"/>
-      <c r="Z438" s="5"/>
+      <c r="W438" s="5">
+        <v>8</v>
+      </c>
+      <c r="X438" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="Y438" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="Z438" s="5">
+        <v>10</v>
+      </c>
       <c r="AA438" s="5"/>
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
@@ -30408,10 +31777,18 @@
       <c r="V439">
         <v>30</v>
       </c>
-      <c r="W439" s="5"/>
-      <c r="X439" s="5"/>
-      <c r="Y439" s="5"/>
-      <c r="Z439" s="5"/>
+      <c r="W439" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="X439" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y439" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="Z439" s="5">
+        <v>10</v>
+      </c>
       <c r="AA439" s="5"/>
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
@@ -30469,10 +31846,18 @@
       <c r="V440">
         <v>60</v>
       </c>
-      <c r="W440" s="5"/>
-      <c r="X440" s="5"/>
-      <c r="Y440" s="5"/>
-      <c r="Z440" s="5"/>
+      <c r="W440" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X440" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="Y440" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z440" s="5">
+        <v>50</v>
+      </c>
       <c r="AA440" s="5"/>
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
@@ -30530,10 +31915,18 @@
       <c r="V441">
         <v>50</v>
       </c>
-      <c r="W441" s="5"/>
-      <c r="X441" s="5"/>
-      <c r="Y441" s="5"/>
-      <c r="Z441" s="5"/>
+      <c r="W441" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X441" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="Y441" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z441" s="5">
+        <v>40</v>
+      </c>
       <c r="AA441" s="5"/>
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
@@ -30591,10 +31984,18 @@
       <c r="V442">
         <v>50</v>
       </c>
-      <c r="W442" s="5"/>
-      <c r="X442" s="5"/>
-      <c r="Y442" s="5"/>
-      <c r="Z442" s="5"/>
+      <c r="W442" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="X442" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="Y442" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="Z442" s="5">
+        <v>20</v>
+      </c>
       <c r="AA442" s="5"/>
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
@@ -30652,10 +32053,18 @@
       <c r="V443">
         <v>60</v>
       </c>
-      <c r="W443" s="5"/>
-      <c r="X443" s="5"/>
-      <c r="Y443" s="5"/>
-      <c r="Z443" s="5"/>
+      <c r="W443" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="X443" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="Y443" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z443" s="5">
+        <v>30</v>
+      </c>
       <c r="AA443" s="5"/>
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
@@ -30713,10 +32122,18 @@
       <c r="V444" t="s">
         <v>660</v>
       </c>
-      <c r="W444" s="5"/>
-      <c r="X444" s="5"/>
-      <c r="Y444" s="5"/>
-      <c r="Z444" s="5"/>
+      <c r="W444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z444" s="1">
+        <v>0</v>
+      </c>
       <c r="AA444" s="5"/>
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
@@ -30774,10 +32191,18 @@
       <c r="V445">
         <v>0</v>
       </c>
-      <c r="W445" s="5"/>
-      <c r="X445" s="5"/>
-      <c r="Y445" s="5"/>
-      <c r="Z445" s="5"/>
+      <c r="W445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z445" s="1">
+        <v>0</v>
+      </c>
       <c r="AA445" s="5"/>
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
@@ -30838,10 +32263,18 @@
       <c r="V446">
         <v>0</v>
       </c>
-      <c r="W446" s="5"/>
-      <c r="X446" s="5"/>
-      <c r="Y446" s="5"/>
-      <c r="Z446" s="5"/>
+      <c r="W446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z446" s="1">
+        <v>0</v>
+      </c>
       <c r="AA446" s="5"/>
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
@@ -30860,6 +32293,9 @@
       <c r="E447" t="s">
         <v>382</v>
       </c>
+      <c r="F447" t="s">
+        <v>703</v>
+      </c>
       <c r="G447">
         <v>5.0999999999999996</v>
       </c>
@@ -30899,10 +32335,18 @@
       <c r="V447">
         <v>5</v>
       </c>
-      <c r="W447" s="5"/>
-      <c r="X447" s="5"/>
-      <c r="Y447" s="5"/>
-      <c r="Z447" s="5"/>
+      <c r="W447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z447" s="1">
+        <v>0</v>
+      </c>
       <c r="AA447" s="5"/>
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
@@ -30960,10 +32404,18 @@
       <c r="V448">
         <v>5</v>
       </c>
-      <c r="W448" s="5"/>
-      <c r="X448" s="5"/>
-      <c r="Y448" s="5"/>
-      <c r="Z448" s="5"/>
+      <c r="W448" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X448" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="Y448" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="Z448" s="5">
+        <v>5</v>
+      </c>
       <c r="AA448" s="5"/>
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
@@ -31021,10 +32473,18 @@
       <c r="V449">
         <v>20</v>
       </c>
-      <c r="W449" s="5"/>
-      <c r="X449" s="5"/>
-      <c r="Y449" s="5"/>
-      <c r="Z449" s="5"/>
+      <c r="W449" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="X449" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="Y449" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="Z449" s="5">
+        <v>10</v>
+      </c>
       <c r="AA449" s="5"/>
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
@@ -31085,10 +32545,18 @@
       <c r="V450">
         <v>0</v>
       </c>
-      <c r="W450" s="5"/>
-      <c r="X450" s="5"/>
-      <c r="Y450" s="5"/>
-      <c r="Z450" s="5"/>
+      <c r="W450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z450" s="1">
+        <v>0</v>
+      </c>
       <c r="AA450" s="5"/>
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
@@ -31149,10 +32617,18 @@
       <c r="V451">
         <v>0</v>
       </c>
-      <c r="W451" s="5"/>
-      <c r="X451" s="5"/>
-      <c r="Y451" s="5"/>
-      <c r="Z451" s="5"/>
+      <c r="W451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="X451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z451" s="1">
+        <v>0</v>
+      </c>
       <c r="AA451" s="5"/>
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
@@ -33560,10 +35036,18 @@
       <c r="V482">
         <v>60</v>
       </c>
-      <c r="W482" s="5"/>
-      <c r="X482" s="5"/>
-      <c r="Y482" s="5"/>
-      <c r="Z482" s="5"/>
+      <c r="W482" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="X482" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="Y482" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z482" s="5">
+        <v>50</v>
+      </c>
       <c r="AA482" s="5"/>
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
@@ -33582,6 +35066,9 @@
       <c r="E483" t="s">
         <v>474</v>
       </c>
+      <c r="F483" t="s">
+        <v>702</v>
+      </c>
       <c r="G483">
         <v>3</v>
       </c>
@@ -33621,10 +35108,18 @@
       <c r="V483">
         <v>20</v>
       </c>
-      <c r="W483" s="5"/>
-      <c r="X483" s="5"/>
-      <c r="Y483" s="5"/>
-      <c r="Z483" s="5"/>
+      <c r="W483" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X483" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y483" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z483" s="5">
+        <v>0</v>
+      </c>
       <c r="AA483" s="5"/>
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
@@ -33682,10 +35177,18 @@
       <c r="V484">
         <v>10</v>
       </c>
-      <c r="W484" s="5"/>
-      <c r="X484" s="5"/>
-      <c r="Y484" s="5"/>
-      <c r="Z484" s="5"/>
+      <c r="W484" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X484" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="Y484" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="Z484" s="5">
+        <v>5</v>
+      </c>
       <c r="AA484" s="5"/>
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
@@ -33743,10 +35246,18 @@
       <c r="V485">
         <v>50</v>
       </c>
-      <c r="W485" s="5"/>
-      <c r="X485" s="5"/>
-      <c r="Y485" s="5"/>
-      <c r="Z485" s="5"/>
+      <c r="W485" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X485" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y485" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="Z485" s="5">
+        <v>20</v>
+      </c>
       <c r="AA485" s="5"/>
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
@@ -33804,10 +35315,18 @@
       <c r="V486">
         <v>60</v>
       </c>
-      <c r="W486" s="5"/>
-      <c r="X486" s="5"/>
-      <c r="Y486" s="5"/>
-      <c r="Z486" s="5"/>
+      <c r="W486" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="X486" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="Y486" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z486" s="5">
+        <v>40</v>
+      </c>
       <c r="AA486" s="5"/>
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
@@ -33826,6 +35345,9 @@
       <c r="E487" t="s">
         <v>474</v>
       </c>
+      <c r="F487" t="s">
+        <v>702</v>
+      </c>
       <c r="G487">
         <v>9.9</v>
       </c>
@@ -33865,10 +35387,18 @@
       <c r="V487">
         <v>20</v>
       </c>
-      <c r="W487" s="5"/>
-      <c r="X487" s="5"/>
-      <c r="Y487" s="5"/>
-      <c r="Z487" s="5"/>
+      <c r="W487" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X487" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y487" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z487" s="5">
+        <v>0</v>
+      </c>
       <c r="AA487" s="5"/>
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
@@ -33926,10 +35456,18 @@
       <c r="V488">
         <v>70</v>
       </c>
-      <c r="W488" s="5"/>
-      <c r="X488" s="5"/>
-      <c r="Y488" s="5"/>
-      <c r="Z488" s="5"/>
+      <c r="W488" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="X488" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="Y488" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="Z488" s="5">
+        <v>60</v>
+      </c>
       <c r="AA488" s="5"/>
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
@@ -33987,10 +35525,18 @@
       <c r="V489">
         <v>30</v>
       </c>
-      <c r="W489" s="5"/>
-      <c r="X489" s="5"/>
-      <c r="Y489" s="5"/>
-      <c r="Z489" s="5"/>
+      <c r="W489" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="X489" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="Y489" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="Z489" s="5">
+        <v>5</v>
+      </c>
       <c r="AA489" s="5"/>
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
@@ -34048,10 +35594,18 @@
       <c r="V490">
         <v>30</v>
       </c>
-      <c r="W490" s="5"/>
-      <c r="X490" s="5"/>
-      <c r="Y490" s="5"/>
-      <c r="Z490" s="5"/>
+      <c r="W490" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="X490" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Y490" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="Z490" s="5">
+        <v>30</v>
+      </c>
       <c r="AA490" s="5"/>
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
@@ -34109,10 +35663,18 @@
       <c r="V491">
         <v>70</v>
       </c>
-      <c r="W491" s="5"/>
-      <c r="X491" s="5"/>
-      <c r="Y491" s="5"/>
-      <c r="Z491" s="5"/>
+      <c r="W491" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="X491" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="Y491" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="Z491" s="5">
+        <v>40</v>
+      </c>
       <c r="AA491" s="5"/>
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
@@ -34131,6 +35693,9 @@
       <c r="E492" t="s">
         <v>474</v>
       </c>
+      <c r="F492" t="s">
+        <v>703</v>
+      </c>
       <c r="G492">
         <v>4.4000000000000004</v>
       </c>
@@ -34170,10 +35735,18 @@
       <c r="V492">
         <v>5</v>
       </c>
-      <c r="W492" s="5"/>
-      <c r="X492" s="5"/>
-      <c r="Y492" s="5"/>
-      <c r="Z492" s="5"/>
+      <c r="W492" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X492" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y492" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z492" s="5">
+        <v>0</v>
+      </c>
       <c r="AA492" s="5"/>
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
@@ -34231,10 +35804,18 @@
       <c r="V493">
         <v>50</v>
       </c>
-      <c r="W493" s="5"/>
-      <c r="X493" s="5"/>
-      <c r="Y493" s="5"/>
-      <c r="Z493" s="5"/>
+      <c r="W493" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="X493" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="Y493" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="Z493" s="5">
+        <v>10</v>
+      </c>
       <c r="AA493" s="5"/>
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
@@ -34253,6 +35834,9 @@
       <c r="E494" t="s">
         <v>474</v>
       </c>
+      <c r="F494" t="s">
+        <v>702</v>
+      </c>
       <c r="G494">
         <v>13.9</v>
       </c>
@@ -34292,10 +35876,18 @@
       <c r="V494">
         <v>20</v>
       </c>
-      <c r="W494" s="5"/>
-      <c r="X494" s="5"/>
-      <c r="Y494" s="5"/>
-      <c r="Z494" s="5"/>
+      <c r="W494" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X494" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y494" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z494" s="5">
+        <v>0</v>
+      </c>
       <c r="AA494" s="5"/>
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
@@ -34356,10 +35948,18 @@
       <c r="V495" t="s">
         <v>660</v>
       </c>
-      <c r="W495" s="5"/>
-      <c r="X495" s="5"/>
-      <c r="Y495" s="5"/>
-      <c r="Z495" s="5"/>
+      <c r="W495" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X495" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y495" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z495" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="AA495" s="5"/>
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
@@ -34378,6 +35978,9 @@
       <c r="E496" t="s">
         <v>474</v>
       </c>
+      <c r="F496" t="s">
+        <v>703</v>
+      </c>
       <c r="G496">
         <v>7.6</v>
       </c>
@@ -34417,10 +36020,18 @@
       <c r="V496">
         <v>10</v>
       </c>
-      <c r="W496" s="5"/>
-      <c r="X496" s="5"/>
-      <c r="Y496" s="5"/>
-      <c r="Z496" s="5"/>
+      <c r="W496" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X496" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y496" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z496" s="5">
+        <v>0</v>
+      </c>
       <c r="AA496" s="5"/>
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
@@ -35666,10 +37277,18 @@
       <c r="V512">
         <v>0</v>
       </c>
-      <c r="W512" s="5"/>
-      <c r="X512" s="5"/>
-      <c r="Y512" s="5"/>
-      <c r="Z512" s="5"/>
+      <c r="W512" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X512" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y512" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z512" s="5">
+        <v>0</v>
+      </c>
       <c r="AA512" s="5"/>
     </row>
     <row r="513" spans="1:27" x14ac:dyDescent="0.2">
@@ -35727,10 +37346,18 @@
       <c r="V513">
         <v>40</v>
       </c>
-      <c r="W513" s="5"/>
-      <c r="X513" s="5"/>
-      <c r="Y513" s="5"/>
-      <c r="Z513" s="5"/>
+      <c r="W513" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="X513" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="Y513" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="Z513" s="5">
+        <v>40</v>
+      </c>
       <c r="AA513" s="5"/>
     </row>
     <row r="514" spans="1:27" x14ac:dyDescent="0.2">
@@ -35749,6 +37376,9 @@
       <c r="E514" t="s">
         <v>474</v>
       </c>
+      <c r="F514" t="s">
+        <v>702</v>
+      </c>
       <c r="G514">
         <v>5.2</v>
       </c>
@@ -35788,10 +37418,18 @@
       <c r="V514">
         <v>10</v>
       </c>
-      <c r="W514" s="5"/>
-      <c r="X514" s="5"/>
-      <c r="Y514" s="5"/>
-      <c r="Z514" s="5"/>
+      <c r="W514" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X514" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y514" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z514" s="5">
+        <v>0</v>
+      </c>
       <c r="AA514" s="5"/>
     </row>
     <row r="515" spans="1:27" x14ac:dyDescent="0.2">
@@ -35810,6 +37448,9 @@
       <c r="E515" t="s">
         <v>474</v>
       </c>
+      <c r="F515" t="s">
+        <v>702</v>
+      </c>
       <c r="G515">
         <v>3.9</v>
       </c>
@@ -35849,10 +37490,18 @@
       <c r="V515">
         <v>20</v>
       </c>
-      <c r="W515" s="5"/>
-      <c r="X515" s="5"/>
-      <c r="Y515" s="5"/>
-      <c r="Z515" s="5"/>
+      <c r="W515" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X515" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y515" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z515" s="5">
+        <v>0</v>
+      </c>
       <c r="AA515" s="5"/>
     </row>
     <row r="516" spans="1:27" x14ac:dyDescent="0.2">
@@ -35871,6 +37520,9 @@
       <c r="E516" t="s">
         <v>474</v>
       </c>
+      <c r="F516" t="s">
+        <v>702</v>
+      </c>
       <c r="G516">
         <v>3.2</v>
       </c>
@@ -35910,10 +37562,18 @@
       <c r="V516">
         <v>40</v>
       </c>
-      <c r="W516" s="5"/>
-      <c r="X516" s="5"/>
-      <c r="Y516" s="5"/>
-      <c r="Z516" s="5"/>
+      <c r="W516" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X516" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y516" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z516" s="5">
+        <v>0</v>
+      </c>
       <c r="AA516" s="5"/>
     </row>
     <row r="517" spans="1:27" x14ac:dyDescent="0.2">
@@ -35962,10 +37622,18 @@
       <c r="V517" t="s">
         <v>660</v>
       </c>
-      <c r="W517" s="5"/>
-      <c r="X517" s="5"/>
-      <c r="Y517" s="5"/>
-      <c r="Z517" s="5"/>
+      <c r="W517" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X517" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y517" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z517" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="AA517" s="5"/>
     </row>
     <row r="518" spans="1:27" x14ac:dyDescent="0.2">
@@ -36023,10 +37691,18 @@
       <c r="V518">
         <v>60</v>
       </c>
-      <c r="W518" s="5"/>
-      <c r="X518" s="5"/>
-      <c r="Y518" s="5"/>
-      <c r="Z518" s="5"/>
+      <c r="W518" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="X518" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="Y518" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="Z518" s="5">
+        <v>60</v>
+      </c>
       <c r="AA518" s="5"/>
     </row>
     <row r="519" spans="1:27" x14ac:dyDescent="0.2">
@@ -36084,10 +37760,18 @@
       <c r="V519">
         <v>40</v>
       </c>
-      <c r="W519" s="5"/>
-      <c r="X519" s="5"/>
-      <c r="Y519" s="5"/>
-      <c r="Z519" s="5"/>
+      <c r="W519" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X519" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="Y519" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="Z519" s="5">
+        <v>20</v>
+      </c>
       <c r="AA519" s="5"/>
     </row>
     <row r="520" spans="1:27" x14ac:dyDescent="0.2">
@@ -36145,10 +37829,18 @@
       <c r="V520">
         <v>50</v>
       </c>
-      <c r="W520" s="5"/>
-      <c r="X520" s="5"/>
-      <c r="Y520" s="5"/>
-      <c r="Z520" s="5"/>
+      <c r="W520" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="X520" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="Y520" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="Z520" s="5">
+        <v>50</v>
+      </c>
       <c r="AA520" s="5"/>
     </row>
     <row r="521" spans="1:27" x14ac:dyDescent="0.2">
@@ -36206,10 +37898,18 @@
       <c r="V521">
         <v>20</v>
       </c>
-      <c r="W521" s="5"/>
-      <c r="X521" s="5"/>
-      <c r="Y521" s="5"/>
-      <c r="Z521" s="5"/>
+      <c r="W521" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="X521" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y521" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="Z521" s="5">
+        <v>5</v>
+      </c>
       <c r="AA521" s="5"/>
     </row>
     <row r="522" spans="1:27" x14ac:dyDescent="0.2">
@@ -36267,10 +37967,18 @@
       <c r="V522">
         <v>20</v>
       </c>
-      <c r="W522" s="5"/>
-      <c r="X522" s="5"/>
-      <c r="Y522" s="5"/>
-      <c r="Z522" s="5"/>
+      <c r="W522" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="X522" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Y522" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="Z522" s="5">
+        <v>10</v>
+      </c>
       <c r="AA522" s="5"/>
     </row>
     <row r="523" spans="1:27" x14ac:dyDescent="0.2">
@@ -36328,10 +38036,18 @@
       <c r="V523">
         <v>60</v>
       </c>
-      <c r="W523" s="5"/>
-      <c r="X523" s="5"/>
-      <c r="Y523" s="5"/>
-      <c r="Z523" s="5"/>
+      <c r="W523" s="5">
+        <v>18</v>
+      </c>
+      <c r="X523" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="Y523" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z523" s="5">
+        <v>40</v>
+      </c>
       <c r="AA523" s="5"/>
     </row>
     <row r="524" spans="1:27" x14ac:dyDescent="0.2">
@@ -36389,10 +38105,18 @@
       <c r="V524">
         <v>70</v>
       </c>
-      <c r="W524" s="5"/>
-      <c r="X524" s="5"/>
-      <c r="Y524" s="5"/>
-      <c r="Z524" s="5"/>
+      <c r="W524" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="X524" s="5">
+        <v>11.7</v>
+      </c>
+      <c r="Y524" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Z524" s="5">
+        <v>70</v>
+      </c>
       <c r="AA524" s="5"/>
     </row>
     <row r="525" spans="1:27" x14ac:dyDescent="0.2">
@@ -36450,10 +38174,18 @@
       <c r="V525">
         <v>60</v>
       </c>
-      <c r="W525" s="5"/>
-      <c r="X525" s="5"/>
-      <c r="Y525" s="5"/>
-      <c r="Z525" s="5"/>
+      <c r="W525" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="X525" s="5">
+        <v>24.7</v>
+      </c>
+      <c r="Y525" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z525" s="5">
+        <v>50</v>
+      </c>
       <c r="AA525" s="5"/>
     </row>
     <row r="526" spans="1:27" x14ac:dyDescent="0.2">
@@ -36472,6 +38204,9 @@
       <c r="E526" t="s">
         <v>474</v>
       </c>
+      <c r="F526" t="s">
+        <v>703</v>
+      </c>
       <c r="G526">
         <v>8.4</v>
       </c>
@@ -36511,10 +38246,18 @@
       <c r="V526">
         <v>5</v>
       </c>
-      <c r="W526" s="5"/>
-      <c r="X526" s="5"/>
-      <c r="Y526" s="5"/>
-      <c r="Z526" s="5"/>
+      <c r="W526" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X526" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y526" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z526" s="5">
+        <v>0</v>
+      </c>
       <c r="AA526" s="5"/>
     </row>
     <row r="527" spans="1:27" x14ac:dyDescent="0.2">
@@ -36572,10 +38315,18 @@
       <c r="V527">
         <v>60</v>
       </c>
-      <c r="W527" s="5"/>
-      <c r="X527" s="5"/>
-      <c r="Y527" s="5"/>
-      <c r="Z527" s="5"/>
+      <c r="W527" s="5">
+        <v>9</v>
+      </c>
+      <c r="X527" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="Y527" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="Z527" s="5">
+        <v>60</v>
+      </c>
       <c r="AA527" s="5"/>
     </row>
     <row r="528" spans="1:27" x14ac:dyDescent="0.2">
@@ -36633,10 +38384,18 @@
       <c r="V528">
         <v>60</v>
       </c>
-      <c r="W528" s="5"/>
-      <c r="X528" s="5"/>
-      <c r="Y528" s="5"/>
-      <c r="Z528" s="5"/>
+      <c r="W528" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="X528" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Y528" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="Z528" s="5">
+        <v>30</v>
+      </c>
       <c r="AA528" s="5"/>
     </row>
     <row r="529" spans="1:27" x14ac:dyDescent="0.2">
@@ -36694,10 +38453,18 @@
       <c r="V529">
         <v>70</v>
       </c>
-      <c r="W529" s="5"/>
-      <c r="X529" s="5"/>
-      <c r="Y529" s="5"/>
-      <c r="Z529" s="5"/>
+      <c r="W529" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="X529" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y529" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z529" s="5">
+        <v>40</v>
+      </c>
       <c r="AA529" s="5"/>
     </row>
     <row r="530" spans="1:27" x14ac:dyDescent="0.2">
@@ -36755,10 +38522,18 @@
       <c r="V530">
         <v>50</v>
       </c>
-      <c r="W530" s="5"/>
-      <c r="X530" s="5"/>
-      <c r="Y530" s="5"/>
-      <c r="Z530" s="5"/>
+      <c r="W530" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="X530" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Y530" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z530" s="5">
+        <v>5</v>
+      </c>
       <c r="AA530" s="5"/>
     </row>
     <row r="531" spans="1:27" x14ac:dyDescent="0.2">
@@ -36777,6 +38552,9 @@
       <c r="E531" t="s">
         <v>474</v>
       </c>
+      <c r="F531" t="s">
+        <v>703</v>
+      </c>
       <c r="G531">
         <v>3.7</v>
       </c>
@@ -36816,10 +38594,18 @@
       <c r="V531">
         <v>10</v>
       </c>
-      <c r="W531" s="5"/>
-      <c r="X531" s="5"/>
-      <c r="Y531" s="5"/>
-      <c r="Z531" s="5"/>
+      <c r="W531" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X531" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y531" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z531" s="5">
+        <v>0</v>
+      </c>
       <c r="AA531" s="5"/>
     </row>
     <row r="532" spans="1:27" x14ac:dyDescent="0.2">
@@ -36877,10 +38663,18 @@
       <c r="V532">
         <v>90</v>
       </c>
-      <c r="W532" s="5"/>
-      <c r="X532" s="5"/>
-      <c r="Y532" s="5"/>
-      <c r="Z532" s="5"/>
+      <c r="W532" s="5">
+        <v>33</v>
+      </c>
+      <c r="X532" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="Y532" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="Z532" s="5">
+        <v>60</v>
+      </c>
       <c r="AA532" s="5"/>
     </row>
     <row r="533" spans="1:27" x14ac:dyDescent="0.2">
@@ -36938,10 +38732,18 @@
       <c r="V533">
         <v>30</v>
       </c>
-      <c r="W533" s="5"/>
-      <c r="X533" s="5"/>
-      <c r="Y533" s="5"/>
-      <c r="Z533" s="5"/>
+      <c r="W533" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X533" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="Y533" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="Z533" s="5">
+        <v>5</v>
+      </c>
       <c r="AA533" s="5"/>
     </row>
     <row r="534" spans="1:27" x14ac:dyDescent="0.2">
@@ -36960,6 +38762,9 @@
       <c r="E534" t="s">
         <v>474</v>
       </c>
+      <c r="F534" t="s">
+        <v>703</v>
+      </c>
       <c r="G534">
         <v>3</v>
       </c>
@@ -36999,10 +38804,18 @@
       <c r="V534">
         <v>20</v>
       </c>
-      <c r="W534" s="5"/>
-      <c r="X534" s="5"/>
-      <c r="Y534" s="5"/>
-      <c r="Z534" s="5"/>
+      <c r="W534" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X534" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y534" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z534" s="5">
+        <v>0</v>
+      </c>
       <c r="AA534" s="5"/>
     </row>
     <row r="535" spans="1:27" x14ac:dyDescent="0.2">
@@ -37060,10 +38873,18 @@
       <c r="V535">
         <v>50</v>
       </c>
-      <c r="W535" s="5"/>
-      <c r="X535" s="5"/>
-      <c r="Y535" s="5"/>
-      <c r="Z535" s="5"/>
+      <c r="W535" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X535" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="Y535" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="Z535" s="5">
+        <v>10</v>
+      </c>
       <c r="AA535" s="5"/>
     </row>
     <row r="536" spans="1:27" x14ac:dyDescent="0.2">
@@ -37082,6 +38903,9 @@
       <c r="E536" t="s">
         <v>474</v>
       </c>
+      <c r="F536" t="s">
+        <v>703</v>
+      </c>
       <c r="G536">
         <v>3.1</v>
       </c>
@@ -37121,10 +38945,18 @@
       <c r="V536">
         <v>5</v>
       </c>
-      <c r="W536" s="5"/>
-      <c r="X536" s="5"/>
-      <c r="Y536" s="5"/>
-      <c r="Z536" s="5"/>
+      <c r="W536" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X536" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y536" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z536" s="5">
+        <v>0</v>
+      </c>
       <c r="AA536" s="5"/>
     </row>
     <row r="537" spans="1:27" x14ac:dyDescent="0.2">
@@ -37143,6 +38975,9 @@
       <c r="E537" t="s">
         <v>474</v>
       </c>
+      <c r="F537" t="s">
+        <v>703</v>
+      </c>
       <c r="G537">
         <v>5</v>
       </c>
@@ -37182,10 +39017,18 @@
       <c r="V537">
         <v>10</v>
       </c>
-      <c r="W537" s="5"/>
-      <c r="X537" s="5"/>
-      <c r="Y537" s="5"/>
-      <c r="Z537" s="5"/>
+      <c r="W537" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="X537" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y537" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z537" s="5">
+        <v>0</v>
+      </c>
       <c r="AA537" s="5"/>
     </row>
     <row r="538" spans="1:27" x14ac:dyDescent="0.2">
@@ -37243,10 +39086,18 @@
       <c r="V538">
         <v>60</v>
       </c>
-      <c r="W538" s="5"/>
-      <c r="X538" s="5"/>
-      <c r="Y538" s="5"/>
-      <c r="Z538" s="5"/>
+      <c r="W538" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X538" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="Y538" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="Z538" s="5">
+        <v>60</v>
+      </c>
       <c r="AA538" s="5"/>
     </row>
     <row r="539" spans="1:27" x14ac:dyDescent="0.2">
@@ -37304,10 +39155,18 @@
       <c r="V539">
         <v>50</v>
       </c>
-      <c r="W539" s="5"/>
-      <c r="X539" s="5"/>
-      <c r="Y539" s="5"/>
-      <c r="Z539" s="5"/>
+      <c r="W539" s="5">
+        <v>12</v>
+      </c>
+      <c r="X539" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="Y539" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="Z539" s="5">
+        <v>30</v>
+      </c>
       <c r="AA539" s="5"/>
     </row>
     <row r="540" spans="1:27" x14ac:dyDescent="0.2">
@@ -37365,10 +39224,18 @@
       <c r="V540">
         <v>60</v>
       </c>
-      <c r="W540" s="5"/>
-      <c r="X540" s="5"/>
-      <c r="Y540" s="5"/>
-      <c r="Z540" s="5"/>
+      <c r="W540" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="X540" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="Y540" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z540" s="5">
+        <v>30</v>
+      </c>
       <c r="AA540" s="5"/>
     </row>
     <row r="541" spans="1:27" x14ac:dyDescent="0.2">
@@ -37426,10 +39293,18 @@
       <c r="V541">
         <v>30</v>
       </c>
-      <c r="W541" s="5"/>
-      <c r="X541" s="5"/>
-      <c r="Y541" s="5"/>
-      <c r="Z541" s="5"/>
+      <c r="W541" s="5">
+        <v>3</v>
+      </c>
+      <c r="X541" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="Y541" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="Z541" s="5">
+        <v>20</v>
+      </c>
       <c r="AA541" s="5"/>
     </row>
     <row r="542" spans="1:27" x14ac:dyDescent="0.2">

--- a/data/monitoring_phenology/percent_chlorocontent.xlsx
+++ b/data/monitoring_phenology/percent_chlorocontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECC50C-CB04-9145-BED1-63E137312DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300EB559-6843-5A43-A327-D9C92C1D856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3448,10 +3448,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="U531" sqref="U531"/>
+      <selection pane="topRight" activeCell="Z334" sqref="Z334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/monitoring_phenology/percent_chlorocontent.xlsx
+++ b/data/monitoring_phenology/percent_chlorocontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210A807-D767-E24E-A0C6-88410099A6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9076261-7DC5-C142-98BA-26ECD0759CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="724">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2097,9 +2097,6 @@
   </si>
   <si>
     <t>doy262: last leaves fell</t>
-  </si>
-  <si>
-    <t>doy262: only one leaf left , no chl</t>
   </si>
   <si>
     <t>269_1</t>
@@ -2188,6 +2185,9 @@
     <t>doy276: no green leaves; doy283: last leaves fell</t>
   </si>
   <si>
+    <t>doy262: no green leaves; doy 283: last leaves fell</t>
+  </si>
+  <si>
     <t>doy262: no green leaves; doy 276: last leaves fell</t>
   </si>
   <si>
@@ -2206,7 +2206,10 @@
     <t>doy255: doy248 measurement percent wrong; doy283: no green leaves</t>
   </si>
   <si>
-    <t>doy28</t>
+    <t>doy262: no green leaves; doy283: last leaves fell</t>
+  </si>
+  <si>
+    <t>doy262: only one leaf left , no chl; doy283: last leaves fell</t>
   </si>
 </sst>
 </file>
@@ -3524,10 +3527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="AC472" sqref="AC472"/>
+      <selection pane="topRight" activeCell="AC282" sqref="AC282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3595,40 +3598,40 @@
         <v>680</v>
       </c>
       <c r="S1" t="s">
+        <v>687</v>
+      </c>
+      <c r="T1" t="s">
         <v>688</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>689</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="W1" t="s">
+        <v>695</v>
+      </c>
+      <c r="X1" t="s">
         <v>696</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>697</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="AA1" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -3648,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G2">
         <v>9.9</v>
@@ -3740,7 +3743,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G3">
         <v>8.5</v>
@@ -3832,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G4">
         <v>11.7</v>
@@ -3924,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G5">
         <v>7.7</v>
@@ -4016,7 +4019,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -4200,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G8">
         <v>4.4000000000000004</v>
@@ -4292,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G9">
         <v>4.5</v>
@@ -4384,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G10">
         <v>10.4</v>
@@ -4476,7 +4479,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G11">
         <v>4.9000000000000004</v>
@@ -4568,7 +4571,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G12">
         <v>12.9</v>
@@ -4749,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G14">
         <v>6.8</v>
@@ -4933,7 +4936,7 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G16">
         <v>8.1</v>
@@ -5025,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G17">
         <v>18.100000000000001</v>
@@ -5204,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G19">
         <v>13.2</v>
@@ -5296,7 +5299,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -5388,7 +5391,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G21">
         <v>7.8</v>
@@ -5480,7 +5483,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G22">
         <v>9.6</v>
@@ -5572,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G23">
         <v>5.8</v>
@@ -5664,7 +5667,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G24">
         <v>5.3</v>
@@ -5756,7 +5759,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G25">
         <v>8.5</v>
@@ -5848,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G26">
         <v>6.2</v>
@@ -5940,7 +5943,7 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G27">
         <v>7.9</v>
@@ -6032,7 +6035,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G28">
         <v>4.2</v>
@@ -6124,7 +6127,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G29">
         <v>6.4</v>
@@ -6216,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -6308,7 +6311,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G31">
         <v>7.8</v>
@@ -6450,10 +6453,18 @@
       <c r="Z32">
         <v>10</v>
       </c>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
+      <c r="AA32" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -6522,10 +6533,18 @@
       <c r="Z33">
         <v>20</v>
       </c>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
+      <c r="AA33" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -6594,10 +6613,18 @@
       <c r="Z34">
         <v>50</v>
       </c>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
+      <c r="AA34" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -6666,10 +6693,18 @@
       <c r="Z35">
         <v>40</v>
       </c>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
+      <c r="AA35" s="5">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -6687,6 +6722,9 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
+      <c r="F36" t="s">
+        <v>710</v>
+      </c>
       <c r="G36">
         <v>8.5</v>
       </c>
@@ -6738,10 +6776,18 @@
       <c r="Z36">
         <v>5</v>
       </c>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
+      <c r="AA36" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -6810,10 +6856,18 @@
       <c r="Z37">
         <v>20</v>
       </c>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
+      <c r="AA37" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -6882,10 +6936,18 @@
       <c r="Z38">
         <v>30</v>
       </c>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
+      <c r="AA38" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -6904,7 +6966,7 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G39">
         <v>9.6</v>
@@ -6957,10 +7019,18 @@
       <c r="Z39">
         <v>0</v>
       </c>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
+      <c r="AA39" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -7032,10 +7102,18 @@
       <c r="Z40">
         <v>0</v>
       </c>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
+      <c r="AA40" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -7107,10 +7185,18 @@
       <c r="Z41">
         <v>0</v>
       </c>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
+      <c r="AA41" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -7128,6 +7214,9 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
+      <c r="F42" t="s">
+        <v>710</v>
+      </c>
       <c r="G42">
         <v>9.1</v>
       </c>
@@ -7179,10 +7268,18 @@
       <c r="Z42">
         <v>0</v>
       </c>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
+      <c r="AA42" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -7200,6 +7297,9 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
+      <c r="F43" t="s">
+        <v>708</v>
+      </c>
       <c r="G43">
         <v>7.3</v>
       </c>
@@ -7251,10 +7351,18 @@
       <c r="Z43">
         <v>5</v>
       </c>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
+      <c r="AA43" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -7317,7 +7425,7 @@
       <c r="W44" t="s">
         <v>660</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44" s="3" t="s">
         <v>660</v>
       </c>
       <c r="Y44" t="s">
@@ -7326,10 +7434,18 @@
       <c r="Z44">
         <v>0</v>
       </c>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
+      <c r="AA44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -7347,6 +7463,9 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
+      <c r="F45" t="s">
+        <v>708</v>
+      </c>
       <c r="G45">
         <v>5.5</v>
       </c>
@@ -7398,10 +7517,18 @@
       <c r="Z45">
         <v>5</v>
       </c>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
+      <c r="AA45" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -7419,6 +7546,9 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
+      <c r="F46" t="s">
+        <v>708</v>
+      </c>
       <c r="G46">
         <v>11.1</v>
       </c>
@@ -7470,10 +7600,18 @@
       <c r="Z46">
         <v>10</v>
       </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
+      <c r="AA46" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -7492,7 +7630,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G47">
         <v>6.4</v>
@@ -7584,7 +7722,7 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G48">
         <v>5.4</v>
@@ -7676,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G49">
         <v>11.6</v>
@@ -7768,7 +7906,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G50">
         <v>11</v>
@@ -7860,7 +7998,7 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G51">
         <v>4.2</v>
@@ -7991,13 +8129,13 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -8083,13 +8221,13 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -8136,7 +8274,7 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G54">
         <v>6.8</v>
@@ -8267,13 +8405,13 @@
         <v>5</v>
       </c>
       <c r="S55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -8320,7 +8458,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G56">
         <v>3.5</v>
@@ -8359,13 +8497,13 @@
         <v>5</v>
       </c>
       <c r="S56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V56" t="s">
         <v>660</v>
@@ -8412,7 +8550,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G57">
         <v>5.3</v>
@@ -8504,7 +8642,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G58">
         <v>3.3</v>
@@ -8596,7 +8734,7 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G59">
         <v>9.1999999999999993</v>
@@ -8688,7 +8826,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G60">
         <v>6.4</v>
@@ -8780,7 +8918,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G61">
         <v>5.3</v>
@@ -8872,7 +9010,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G62">
         <v>4.9000000000000004</v>
@@ -8925,10 +9063,18 @@
       <c r="Z62" s="1">
         <v>0</v>
       </c>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
+      <c r="AA62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -8946,6 +9092,9 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
+      <c r="F63" t="s">
+        <v>708</v>
+      </c>
       <c r="G63">
         <v>7.4</v>
       </c>
@@ -8997,10 +9146,18 @@
       <c r="Z63">
         <v>5</v>
       </c>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
+      <c r="AA63" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB63" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC63" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -9019,7 +9176,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G64">
         <v>5.8</v>
@@ -9072,10 +9229,18 @@
       <c r="Z64" s="1">
         <v>0</v>
       </c>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
+      <c r="AA64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -9094,7 +9259,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G65">
         <v>8.6999999999999993</v>
@@ -9147,10 +9312,18 @@
       <c r="Z65" s="1">
         <v>0</v>
       </c>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
+      <c r="AA65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -9219,10 +9392,18 @@
       <c r="Z66">
         <v>50</v>
       </c>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
+      <c r="AA66" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AB66" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="AD66" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -9294,10 +9475,18 @@
       <c r="Z67" s="1">
         <v>0</v>
       </c>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
+      <c r="AA67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -9316,7 +9505,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G68">
         <v>4.0999999999999996</v>
@@ -9369,10 +9558,18 @@
       <c r="Z68" s="1">
         <v>0</v>
       </c>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
+      <c r="AA68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -9390,6 +9587,9 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
+      <c r="F69" t="s">
+        <v>710</v>
+      </c>
       <c r="G69">
         <v>4.3</v>
       </c>
@@ -9441,10 +9641,18 @@
       <c r="Z69">
         <v>5</v>
       </c>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
+      <c r="AA69" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -9463,7 +9671,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G70">
         <v>7.8</v>
@@ -9516,10 +9724,18 @@
       <c r="Z70" s="1">
         <v>0</v>
       </c>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
+      <c r="AA70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -9538,7 +9754,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="G71">
         <v>5.2</v>
@@ -9591,10 +9807,18 @@
       <c r="Z71" s="1">
         <v>0</v>
       </c>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
+      <c r="AA71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -9666,10 +9890,18 @@
       <c r="Z72" s="1">
         <v>0</v>
       </c>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
+      <c r="AA72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -9688,7 +9920,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>681</v>
+        <v>722</v>
       </c>
       <c r="G73">
         <v>8.1</v>
@@ -9741,10 +9973,18 @@
       <c r="Z73" s="1">
         <v>0</v>
       </c>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
+      <c r="AA73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -9816,10 +10056,18 @@
       <c r="Z74" s="1">
         <v>0</v>
       </c>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-      <c r="AD74" s="5"/>
+      <c r="AA74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -9891,10 +10139,18 @@
       <c r="Z75" s="1">
         <v>0</v>
       </c>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
+      <c r="AA75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -9963,10 +10219,18 @@
       <c r="Z76">
         <v>10</v>
       </c>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
+      <c r="AA76" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="AB76" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="AC76" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD76" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -9984,6 +10248,9 @@
       <c r="E77" t="s">
         <v>9</v>
       </c>
+      <c r="F77" t="s">
+        <v>708</v>
+      </c>
       <c r="G77">
         <v>7.2</v>
       </c>
@@ -10035,10 +10302,18 @@
       <c r="Z77">
         <v>5</v>
       </c>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
+      <c r="AA77" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="AB77" s="5">
+        <v>8</v>
+      </c>
+      <c r="AC77" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD77" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -10057,7 +10332,7 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G78">
         <v>6.2</v>
@@ -10110,10 +10385,18 @@
       <c r="Z78" s="1">
         <v>0</v>
       </c>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
+      <c r="AA78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -10185,10 +10468,18 @@
       <c r="Z79">
         <v>5</v>
       </c>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
+      <c r="AA79" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -10260,10 +10551,18 @@
       <c r="Z80">
         <v>10</v>
       </c>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
+      <c r="AA80" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="AB80" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="AC80" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AD80" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -10335,10 +10634,18 @@
       <c r="Z81">
         <v>10</v>
       </c>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
+      <c r="AA81" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB81" s="5">
+        <v>18</v>
+      </c>
+      <c r="AC81" s="5">
+        <v>11</v>
+      </c>
+      <c r="AD81" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -10407,10 +10714,18 @@
       <c r="Z82">
         <v>20</v>
       </c>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
+      <c r="AA82" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="AB82" s="5">
+        <v>15</v>
+      </c>
+      <c r="AC82" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AD82" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -10429,7 +10744,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G83">
         <v>7.3</v>
@@ -10482,10 +10797,18 @@
       <c r="Z83" s="1">
         <v>0</v>
       </c>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
+      <c r="AA83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -10504,7 +10827,7 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G84">
         <v>5.7</v>
@@ -10557,10 +10880,18 @@
       <c r="Z84" s="1">
         <v>0</v>
       </c>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
+      <c r="AA84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -10579,7 +10910,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>681</v>
+        <v>722</v>
       </c>
       <c r="G85">
         <v>9.1999999999999993</v>
@@ -10632,10 +10963,18 @@
       <c r="Z85" s="1">
         <v>0</v>
       </c>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
+      <c r="AA85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -10653,6 +10992,9 @@
       <c r="E86" t="s">
         <v>9</v>
       </c>
+      <c r="F86" t="s">
+        <v>708</v>
+      </c>
       <c r="G86">
         <v>8.8000000000000007</v>
       </c>
@@ -10704,10 +11046,18 @@
       <c r="Z86">
         <v>5</v>
       </c>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="5"/>
+      <c r="AA86" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="AB86" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC86" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="AD86" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -10779,10 +11129,18 @@
       <c r="Z87" s="1">
         <v>0</v>
       </c>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-      <c r="AD87" s="5"/>
+      <c r="AA87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -10800,6 +11158,9 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
+      <c r="F88" t="s">
+        <v>708</v>
+      </c>
       <c r="G88">
         <v>13.7</v>
       </c>
@@ -10851,10 +11212,18 @@
       <c r="Z88">
         <v>5</v>
       </c>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
+      <c r="AA88" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AB88" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AC88" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="AD88" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -10872,6 +11241,9 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
+      <c r="F89" t="s">
+        <v>708</v>
+      </c>
       <c r="G89">
         <v>8.9</v>
       </c>
@@ -10923,10 +11295,18 @@
       <c r="Z89">
         <v>5</v>
       </c>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
+      <c r="AA89" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -10945,7 +11325,7 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="G90">
         <v>5.2</v>
@@ -10998,10 +11378,18 @@
       <c r="Z90" s="1">
         <v>0</v>
       </c>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
+      <c r="AA90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -11070,10 +11458,18 @@
       <c r="Z91">
         <v>20</v>
       </c>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5"/>
+      <c r="AA91" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="AB91" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AC91" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="AD91" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -11804,7 +12200,7 @@
         <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G100">
         <v>4.2</v>
@@ -12967,7 +13363,7 @@
         <v>106</v>
       </c>
       <c r="F113" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G113">
         <v>4.4000000000000004</v>
@@ -13599,7 +13995,7 @@
         <v>106</v>
       </c>
       <c r="F120" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G120">
         <v>12.8</v>
@@ -13839,10 +14235,18 @@
       <c r="Z122">
         <v>50</v>
       </c>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="5"/>
+      <c r="AA122" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="AB122" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="AC122" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="AD122" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -13920,10 +14324,18 @@
       <c r="Z123">
         <v>70</v>
       </c>
-      <c r="AA123" s="5"/>
-      <c r="AB123" s="5"/>
-      <c r="AC123" s="5"/>
-      <c r="AD123" s="5"/>
+      <c r="AA123" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="AB123" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="AC123" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD123" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -14001,10 +14413,18 @@
       <c r="Z124">
         <v>60</v>
       </c>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="5"/>
-      <c r="AC124" s="5"/>
-      <c r="AD124" s="5"/>
+      <c r="AA124" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="AB124" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="AC124" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="AD124" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -14082,10 +14502,18 @@
       <c r="Z125">
         <v>70</v>
       </c>
-      <c r="AA125" s="5"/>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5"/>
-      <c r="AD125" s="5"/>
+      <c r="AA125" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="AB125" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="AC125" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="AD125" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -14163,10 +14591,18 @@
       <c r="Z126">
         <v>60</v>
       </c>
-      <c r="AA126" s="5"/>
-      <c r="AB126" s="5"/>
-      <c r="AC126" s="5"/>
-      <c r="AD126" s="5"/>
+      <c r="AA126" s="5">
+        <v>18</v>
+      </c>
+      <c r="AB126" s="5">
+        <v>16</v>
+      </c>
+      <c r="AC126" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="AD126" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -14244,10 +14680,18 @@
       <c r="Z127">
         <v>60</v>
       </c>
-      <c r="AA127" s="5"/>
-      <c r="AB127" s="5"/>
-      <c r="AC127" s="5"/>
-      <c r="AD127" s="5"/>
+      <c r="AA127" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AB127" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC127" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="AD127" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -14316,10 +14760,18 @@
       <c r="Z128">
         <v>70</v>
       </c>
-      <c r="AA128" s="5"/>
-      <c r="AB128" s="5"/>
-      <c r="AC128" s="5"/>
-      <c r="AD128" s="5"/>
+      <c r="AA128" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB128" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AC128" s="5">
+        <v>19</v>
+      </c>
+      <c r="AD128" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -14388,10 +14840,18 @@
       <c r="Z129">
         <v>40</v>
       </c>
-      <c r="AA129" s="5"/>
-      <c r="AB129" s="5"/>
-      <c r="AC129" s="5"/>
-      <c r="AD129" s="5"/>
+      <c r="AA129" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="AB129" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="AC129" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="AD129" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -14460,10 +14920,18 @@
       <c r="Z130">
         <v>10</v>
       </c>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-      <c r="AD130" s="5"/>
+      <c r="AA130" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="AB130" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="AC130" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="AD130" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -14532,10 +15000,18 @@
       <c r="Z131">
         <v>20</v>
       </c>
-      <c r="AA131" s="5"/>
-      <c r="AB131" s="5"/>
-      <c r="AC131" s="5"/>
-      <c r="AD131" s="5"/>
+      <c r="AA131" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="AB131" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AC131" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="AD131" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -14604,10 +15080,18 @@
       <c r="Z132">
         <v>50</v>
       </c>
-      <c r="AA132" s="5"/>
-      <c r="AB132" s="5"/>
-      <c r="AC132" s="5"/>
-      <c r="AD132" s="5"/>
+      <c r="AA132" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="AB132" s="5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AC132" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AD132" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -14676,10 +15160,18 @@
       <c r="Z133">
         <v>60</v>
       </c>
-      <c r="AA133" s="5"/>
-      <c r="AB133" s="5"/>
-      <c r="AC133" s="5"/>
-      <c r="AD133" s="5"/>
+      <c r="AA133" s="5">
+        <v>27.8</v>
+      </c>
+      <c r="AB133" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AC133" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="AD133" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -14748,10 +15240,18 @@
       <c r="Z134">
         <v>40</v>
       </c>
-      <c r="AA134" s="5"/>
-      <c r="AB134" s="5"/>
-      <c r="AC134" s="5"/>
-      <c r="AD134" s="5"/>
+      <c r="AA134" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="AB134" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="AC134" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="AD134" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -14820,10 +15320,18 @@
       <c r="Z135">
         <v>50</v>
       </c>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
-      <c r="AD135" s="5"/>
+      <c r="AA135" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="AB135" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="AC135" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="AD135" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -14892,10 +15400,18 @@
       <c r="Z136">
         <v>40</v>
       </c>
-      <c r="AA136" s="5"/>
-      <c r="AB136" s="5"/>
-      <c r="AC136" s="5"/>
-      <c r="AD136" s="5"/>
+      <c r="AA136" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="AB136" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="AC136" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AD136" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -15718,7 +16234,7 @@
         <v>106</v>
       </c>
       <c r="F146" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G146">
         <v>20.8</v>
@@ -15810,7 +16326,7 @@
         <v>106</v>
       </c>
       <c r="F147" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G147">
         <v>30.9</v>
@@ -16320,10 +16836,18 @@
       <c r="Z152">
         <v>50</v>
       </c>
-      <c r="AA152" s="5"/>
-      <c r="AB152" s="5"/>
-      <c r="AC152" s="5"/>
-      <c r="AD152" s="5"/>
+      <c r="AA152" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="AB152" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC152" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="AD152" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -16401,10 +16925,18 @@
       <c r="Z153">
         <v>50</v>
       </c>
-      <c r="AA153" s="5"/>
-      <c r="AB153" s="5"/>
-      <c r="AC153" s="5"/>
-      <c r="AD153" s="5"/>
+      <c r="AA153" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AB153" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="AC153" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AD153" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -16482,10 +17014,18 @@
       <c r="Z154">
         <v>30</v>
       </c>
-      <c r="AA154" s="5"/>
-      <c r="AB154" s="5"/>
-      <c r="AC154" s="5"/>
-      <c r="AD154" s="5"/>
+      <c r="AA154" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="AB154" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AC154" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="AD154" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -16563,10 +17103,18 @@
       <c r="Z155">
         <v>50</v>
       </c>
-      <c r="AA155" s="5"/>
-      <c r="AB155" s="5"/>
-      <c r="AC155" s="5"/>
-      <c r="AD155" s="5"/>
+      <c r="AA155" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="AB155" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="AC155" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="AD155" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -16644,10 +17192,18 @@
       <c r="Z156">
         <v>20</v>
       </c>
-      <c r="AA156" s="5"/>
-      <c r="AB156" s="5"/>
-      <c r="AC156" s="5"/>
-      <c r="AD156" s="5"/>
+      <c r="AA156" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="AB156" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC156" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD156" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -16725,10 +17281,18 @@
       <c r="Z157">
         <v>30</v>
       </c>
-      <c r="AA157" s="5"/>
-      <c r="AB157" s="5"/>
-      <c r="AC157" s="5"/>
-      <c r="AD157" s="5"/>
+      <c r="AA157" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="AB157" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC157" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="AD157" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -16806,10 +17370,18 @@
       <c r="Z158">
         <v>60</v>
       </c>
-      <c r="AA158" s="5"/>
-      <c r="AB158" s="5"/>
-      <c r="AC158" s="5"/>
-      <c r="AD158" s="5"/>
+      <c r="AA158" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AB158" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AC158" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AD158" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -16887,10 +17459,18 @@
       <c r="Z159">
         <v>30</v>
       </c>
-      <c r="AA159" s="5"/>
-      <c r="AB159" s="5"/>
-      <c r="AC159" s="5"/>
-      <c r="AD159" s="5"/>
+      <c r="AA159" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="AB159" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="AC159" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="AD159" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="160" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -16968,10 +17548,18 @@
       <c r="Z160">
         <v>50</v>
       </c>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
-      <c r="AD160" s="5"/>
+      <c r="AA160" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="AB160" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="AC160" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="AD160" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -17049,10 +17637,18 @@
       <c r="Z161">
         <v>30</v>
       </c>
-      <c r="AA161" s="5"/>
-      <c r="AB161" s="5"/>
-      <c r="AC161" s="5"/>
-      <c r="AD161" s="5"/>
+      <c r="AA161" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="AB161" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="AC161" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AD161" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -17130,10 +17726,18 @@
       <c r="Z162">
         <v>60</v>
       </c>
-      <c r="AA162" s="5"/>
-      <c r="AB162" s="5"/>
-      <c r="AC162" s="5"/>
-      <c r="AD162" s="5"/>
+      <c r="AA162" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="AB162" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="AC162" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="AD162" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -17211,10 +17815,18 @@
       <c r="Z163">
         <v>50</v>
       </c>
-      <c r="AA163" s="5"/>
-      <c r="AB163" s="5"/>
-      <c r="AC163" s="5"/>
-      <c r="AD163" s="5"/>
+      <c r="AA163" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="AB163" s="5">
+        <v>14</v>
+      </c>
+      <c r="AC163" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AD163" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -17292,10 +17904,18 @@
       <c r="Z164">
         <v>60</v>
       </c>
-      <c r="AA164" s="5"/>
-      <c r="AB164" s="5"/>
-      <c r="AC164" s="5"/>
-      <c r="AD164" s="5"/>
+      <c r="AA164" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="AB164" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="AC164" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="AD164" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -17373,10 +17993,18 @@
       <c r="Z165">
         <v>50</v>
       </c>
-      <c r="AA165" s="5"/>
-      <c r="AB165" s="5"/>
-      <c r="AC165" s="5"/>
-      <c r="AD165" s="5"/>
+      <c r="AA165" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="AB165" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="AC165" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="AD165" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -17454,10 +18082,18 @@
       <c r="Z166">
         <v>70</v>
       </c>
-      <c r="AA166" s="5"/>
-      <c r="AB166" s="5"/>
-      <c r="AC166" s="5"/>
-      <c r="AD166" s="5"/>
+      <c r="AA166" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="AB166" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="AC166" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="AD166" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -17535,10 +18171,18 @@
       <c r="Z167">
         <v>60</v>
       </c>
-      <c r="AA167" s="5"/>
-      <c r="AB167" s="5"/>
-      <c r="AC167" s="5"/>
-      <c r="AD167" s="5"/>
+      <c r="AA167" s="5">
+        <v>11</v>
+      </c>
+      <c r="AB167" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC167" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD167" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -17616,10 +18260,18 @@
       <c r="Z168">
         <v>60</v>
       </c>
-      <c r="AA168" s="5"/>
-      <c r="AB168" s="5"/>
-      <c r="AC168" s="5"/>
-      <c r="AD168" s="5"/>
+      <c r="AA168" s="5">
+        <v>25.2</v>
+      </c>
+      <c r="AB168" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="AC168" s="5">
+        <v>19</v>
+      </c>
+      <c r="AD168" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -17697,10 +18349,18 @@
       <c r="Z169">
         <v>30</v>
       </c>
-      <c r="AA169" s="5"/>
-      <c r="AB169" s="5"/>
-      <c r="AC169" s="5"/>
-      <c r="AD169" s="5"/>
+      <c r="AA169" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="AB169" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="AC169" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="AD169" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -17778,10 +18438,18 @@
       <c r="Z170">
         <v>60</v>
       </c>
-      <c r="AA170" s="5"/>
-      <c r="AB170" s="5"/>
-      <c r="AC170" s="5"/>
-      <c r="AD170" s="5"/>
+      <c r="AA170" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="AB170" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="AC170" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="AD170" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="171" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -17859,10 +18527,18 @@
       <c r="Z171">
         <v>80</v>
       </c>
-      <c r="AA171" s="5"/>
-      <c r="AB171" s="5"/>
-      <c r="AC171" s="5"/>
-      <c r="AD171" s="5"/>
+      <c r="AA171" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AB171" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="AC171" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="AD171" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -17940,10 +18616,18 @@
       <c r="Z172">
         <v>70</v>
       </c>
-      <c r="AA172" s="5"/>
-      <c r="AB172" s="5"/>
-      <c r="AC172" s="5"/>
-      <c r="AD172" s="5"/>
+      <c r="AA172" s="5">
+        <v>23</v>
+      </c>
+      <c r="AB172" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="AC172" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="AD172" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -18021,10 +18705,18 @@
       <c r="Z173">
         <v>40</v>
       </c>
-      <c r="AA173" s="5"/>
-      <c r="AB173" s="5"/>
-      <c r="AC173" s="5"/>
-      <c r="AD173" s="5"/>
+      <c r="AA173" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AB173" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AC173" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="AD173" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -18102,10 +18794,18 @@
       <c r="Z174">
         <v>40</v>
       </c>
-      <c r="AA174" s="5"/>
-      <c r="AB174" s="5"/>
-      <c r="AC174" s="5"/>
-      <c r="AD174" s="5"/>
+      <c r="AA174" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AB174" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="AC174" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD174" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -18186,10 +18886,18 @@
       <c r="Z175">
         <v>50</v>
       </c>
-      <c r="AA175" s="5"/>
-      <c r="AB175" s="5"/>
-      <c r="AC175" s="5"/>
-      <c r="AD175" s="5"/>
+      <c r="AA175" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="AB175" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="AC175" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="AD175" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -18267,10 +18975,18 @@
       <c r="Z176">
         <v>50</v>
       </c>
-      <c r="AA176" s="5"/>
-      <c r="AB176" s="5"/>
-      <c r="AC176" s="5"/>
-      <c r="AD176" s="5"/>
+      <c r="AA176" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="AB176" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="AC176" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="AD176" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -18348,10 +19064,18 @@
       <c r="Z177">
         <v>60</v>
       </c>
-      <c r="AA177" s="5"/>
-      <c r="AB177" s="5"/>
-      <c r="AC177" s="5"/>
-      <c r="AD177" s="5"/>
+      <c r="AA177" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="AB177" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="AC177" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="AD177" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="178" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -18429,10 +19153,18 @@
       <c r="Z178">
         <v>40</v>
       </c>
-      <c r="AA178" s="5"/>
-      <c r="AB178" s="5"/>
-      <c r="AC178" s="5"/>
-      <c r="AD178" s="5"/>
+      <c r="AA178" s="5">
+        <v>27</v>
+      </c>
+      <c r="AB178" s="5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AC178" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AD178" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -18510,10 +19242,18 @@
       <c r="Z179">
         <v>40</v>
       </c>
-      <c r="AA179" s="5"/>
-      <c r="AB179" s="5"/>
-      <c r="AC179" s="5"/>
-      <c r="AD179" s="5"/>
+      <c r="AA179" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="AB179" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="AC179" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AD179" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -18591,10 +19331,18 @@
       <c r="Z180">
         <v>50</v>
       </c>
-      <c r="AA180" s="5"/>
-      <c r="AB180" s="5"/>
-      <c r="AC180" s="5"/>
-      <c r="AD180" s="5"/>
+      <c r="AA180" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="AB180" s="5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AC180" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="AD180" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -18672,10 +19420,18 @@
       <c r="Z181">
         <v>10</v>
       </c>
-      <c r="AA181" s="5"/>
-      <c r="AB181" s="5"/>
-      <c r="AC181" s="5"/>
-      <c r="AD181" s="5"/>
+      <c r="AA181" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="AB181" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="AC181" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="AD181" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -20646,10 +21402,18 @@
       <c r="Z272">
         <v>60</v>
       </c>
-      <c r="AA272" s="5"/>
-      <c r="AB272" s="5"/>
-      <c r="AC272" s="5"/>
-      <c r="AD272" s="5"/>
+      <c r="AA272" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="AB272" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="AC272" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD272" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -20727,10 +21491,18 @@
       <c r="Z273">
         <v>50</v>
       </c>
-      <c r="AA273" s="5"/>
-      <c r="AB273" s="5"/>
-      <c r="AC273" s="5"/>
-      <c r="AD273" s="5"/>
+      <c r="AA273" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="AB273" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="AC273" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD273" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -20808,10 +21580,18 @@
       <c r="Z274">
         <v>80</v>
       </c>
-      <c r="AA274" s="5"/>
-      <c r="AB274" s="5"/>
-      <c r="AC274" s="5"/>
-      <c r="AD274" s="5"/>
+      <c r="AA274" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AB274" s="5">
+        <v>25</v>
+      </c>
+      <c r="AC274" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="AD274" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -20830,7 +21610,7 @@
         <v>290</v>
       </c>
       <c r="F275" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G275">
         <v>7.8</v>
@@ -20892,10 +21672,18 @@
       <c r="Z275">
         <v>50</v>
       </c>
-      <c r="AA275" s="5"/>
-      <c r="AB275" s="5"/>
-      <c r="AC275" s="5"/>
-      <c r="AD275" s="5"/>
+      <c r="AA275" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="AB275" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="AC275" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="AD275" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -20914,7 +21702,7 @@
         <v>290</v>
       </c>
       <c r="F276" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G276">
         <v>6.2</v>
@@ -20976,10 +21764,18 @@
       <c r="Z276">
         <v>30</v>
       </c>
-      <c r="AA276" s="5"/>
-      <c r="AB276" s="5"/>
-      <c r="AC276" s="5"/>
-      <c r="AD276" s="5"/>
+      <c r="AA276" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="AB276" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="AC276" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="AD276" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -21057,10 +21853,18 @@
       <c r="Z277">
         <v>50</v>
       </c>
-      <c r="AA277" s="5"/>
-      <c r="AB277" s="5"/>
-      <c r="AC277" s="5"/>
-      <c r="AD277" s="5"/>
+      <c r="AA277" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="AB277" s="5">
+        <v>24.2</v>
+      </c>
+      <c r="AC277" s="5">
+        <v>19.3</v>
+      </c>
+      <c r="AD277" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -21138,10 +21942,18 @@
       <c r="Z278">
         <v>50</v>
       </c>
-      <c r="AA278" s="5"/>
-      <c r="AB278" s="5"/>
-      <c r="AC278" s="5"/>
-      <c r="AD278" s="5"/>
+      <c r="AA278" s="5">
+        <v>35</v>
+      </c>
+      <c r="AB278" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AC278" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="AD278" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -21219,10 +22031,18 @@
       <c r="Z279">
         <v>60</v>
       </c>
-      <c r="AA279" s="5"/>
-      <c r="AB279" s="5"/>
-      <c r="AC279" s="5"/>
-      <c r="AD279" s="5"/>
+      <c r="AA279" s="5">
+        <v>31</v>
+      </c>
+      <c r="AB279" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="AC279" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AD279" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -21300,10 +22120,18 @@
       <c r="Z280">
         <v>70</v>
       </c>
-      <c r="AA280" s="5"/>
-      <c r="AB280" s="5"/>
-      <c r="AC280" s="5"/>
-      <c r="AD280" s="5"/>
+      <c r="AA280" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="AB280" s="5">
+        <v>25.8</v>
+      </c>
+      <c r="AC280" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="AD280" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -21381,10 +22209,18 @@
       <c r="Z281">
         <v>50</v>
       </c>
-      <c r="AA281" s="5"/>
-      <c r="AB281" s="5"/>
-      <c r="AC281" s="5"/>
-      <c r="AD281" s="5"/>
+      <c r="AA281" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="AB281" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="AC281" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="AD281" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -21403,7 +22239,7 @@
         <v>290</v>
       </c>
       <c r="F282" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G282">
         <v>5.4</v>
@@ -21873,10 +22709,18 @@
       <c r="Z287">
         <v>70</v>
       </c>
-      <c r="AA287" s="5"/>
-      <c r="AB287" s="5"/>
-      <c r="AC287" s="5"/>
-      <c r="AD287" s="5"/>
+      <c r="AA287" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="AB287" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="AC287" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="AD287" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -21954,10 +22798,18 @@
       <c r="Z288">
         <v>70</v>
       </c>
-      <c r="AA288" s="5"/>
-      <c r="AB288" s="5"/>
-      <c r="AC288" s="5"/>
-      <c r="AD288" s="5"/>
+      <c r="AA288" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="AB288" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AC288" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD288" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -22035,10 +22887,18 @@
       <c r="Z289">
         <v>60</v>
       </c>
-      <c r="AA289" s="5"/>
-      <c r="AB289" s="5"/>
-      <c r="AC289" s="5"/>
-      <c r="AD289" s="5"/>
+      <c r="AA289" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="AB289" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AC289" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="AD289" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -22116,10 +22976,18 @@
       <c r="Z290">
         <v>50</v>
       </c>
-      <c r="AA290" s="5"/>
-      <c r="AB290" s="5"/>
-      <c r="AC290" s="5"/>
-      <c r="AD290" s="5"/>
+      <c r="AA290" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="AB290" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="AC290" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="AD290" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -22197,10 +23065,18 @@
       <c r="Z291">
         <v>50</v>
       </c>
-      <c r="AA291" s="5"/>
-      <c r="AB291" s="5"/>
-      <c r="AC291" s="5"/>
-      <c r="AD291" s="5"/>
+      <c r="AA291" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="AB291" s="5">
+        <v>25.8</v>
+      </c>
+      <c r="AC291" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="AD291" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -22278,10 +23154,18 @@
       <c r="Z292">
         <v>50</v>
       </c>
-      <c r="AA292" s="5"/>
-      <c r="AB292" s="5"/>
-      <c r="AC292" s="5"/>
-      <c r="AD292" s="5"/>
+      <c r="AA292" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB292" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="AC292" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="AD292" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -22359,10 +23243,18 @@
       <c r="Z293">
         <v>80</v>
       </c>
-      <c r="AA293" s="5"/>
-      <c r="AB293" s="5"/>
-      <c r="AC293" s="5"/>
-      <c r="AD293" s="5"/>
+      <c r="AA293" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="AB293" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="AC293" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="AD293" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -22440,10 +23332,18 @@
       <c r="Z294">
         <v>70</v>
       </c>
-      <c r="AA294" s="5"/>
-      <c r="AB294" s="5"/>
-      <c r="AC294" s="5"/>
-      <c r="AD294" s="5"/>
+      <c r="AA294" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="AB294" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="AC294" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="AD294" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -22521,10 +23421,18 @@
       <c r="Z295">
         <v>80</v>
       </c>
-      <c r="AA295" s="5"/>
-      <c r="AB295" s="5"/>
-      <c r="AC295" s="5"/>
-      <c r="AD295" s="5"/>
+      <c r="AA295" s="5">
+        <v>36</v>
+      </c>
+      <c r="AB295" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="AC295" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="AD295" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -22602,10 +23510,18 @@
       <c r="Z296">
         <v>70</v>
       </c>
-      <c r="AA296" s="5"/>
-      <c r="AB296" s="5"/>
-      <c r="AC296" s="5"/>
-      <c r="AD296" s="5"/>
+      <c r="AA296" s="5">
+        <v>37</v>
+      </c>
+      <c r="AB296" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="AC296" s="5">
+        <v>29.1</v>
+      </c>
+      <c r="AD296" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -23079,10 +23995,18 @@
       <c r="Z302">
         <v>60</v>
       </c>
-      <c r="AA302" s="5"/>
-      <c r="AB302" s="5"/>
-      <c r="AC302" s="5"/>
-      <c r="AD302" s="5"/>
+      <c r="AA302" s="5">
+        <v>28</v>
+      </c>
+      <c r="AB302" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="AC302" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="AD302" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -23151,10 +24075,18 @@
       <c r="Z303">
         <v>60</v>
       </c>
-      <c r="AA303" s="5"/>
-      <c r="AB303" s="5"/>
-      <c r="AC303" s="5"/>
-      <c r="AD303" s="5"/>
+      <c r="AA303" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AB303" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="AC303" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="AD303" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="304" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -23223,10 +24155,18 @@
       <c r="Z304">
         <v>70</v>
       </c>
-      <c r="AA304" s="5"/>
-      <c r="AB304" s="5"/>
-      <c r="AC304" s="5"/>
-      <c r="AD304" s="5"/>
+      <c r="AA304" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="AB304" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="AC304" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="AD304" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="305" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -23295,10 +24235,18 @@
       <c r="Z305">
         <v>70</v>
       </c>
-      <c r="AA305" s="5"/>
-      <c r="AB305" s="5"/>
-      <c r="AC305" s="5"/>
-      <c r="AD305" s="5"/>
+      <c r="AA305" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="AB305" s="5">
+        <v>25.8</v>
+      </c>
+      <c r="AC305" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AD305" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="306" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -23367,10 +24315,18 @@
       <c r="Z306">
         <v>80</v>
       </c>
-      <c r="AA306" s="5"/>
-      <c r="AB306" s="5"/>
-      <c r="AC306" s="5"/>
-      <c r="AD306" s="5"/>
+      <c r="AA306" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="AB306" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="AC306" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="AD306" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="307" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -23439,10 +24395,18 @@
       <c r="Z307">
         <v>60</v>
       </c>
-      <c r="AA307" s="5"/>
-      <c r="AB307" s="5"/>
-      <c r="AC307" s="5"/>
-      <c r="AD307" s="5"/>
+      <c r="AA307" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="AB307" s="5">
+        <v>28</v>
+      </c>
+      <c r="AC307" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="AD307" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="308" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -23511,10 +24475,18 @@
       <c r="Z308">
         <v>60</v>
       </c>
-      <c r="AA308" s="5"/>
-      <c r="AB308" s="5"/>
-      <c r="AC308" s="5"/>
-      <c r="AD308" s="5"/>
+      <c r="AA308" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="AB308" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="AC308" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="AD308" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="309" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -23583,10 +24555,18 @@
       <c r="Z309">
         <v>60</v>
       </c>
-      <c r="AA309" s="5"/>
-      <c r="AB309" s="5"/>
-      <c r="AC309" s="5"/>
-      <c r="AD309" s="5"/>
+      <c r="AA309" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="AB309" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="AC309" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="AD309" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="310" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -23655,10 +24635,18 @@
       <c r="Z310">
         <v>70</v>
       </c>
-      <c r="AA310" s="5"/>
-      <c r="AB310" s="5"/>
-      <c r="AC310" s="5"/>
-      <c r="AD310" s="5"/>
+      <c r="AA310" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="AB310" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="AC310" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="AD310" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="311" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -23727,10 +24715,18 @@
       <c r="Z311">
         <v>60</v>
       </c>
-      <c r="AA311" s="5"/>
-      <c r="AB311" s="5"/>
-      <c r="AC311" s="5"/>
-      <c r="AD311" s="5"/>
+      <c r="AA311" s="5">
+        <v>19</v>
+      </c>
+      <c r="AB311" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="AC311" s="5">
+        <v>25.8</v>
+      </c>
+      <c r="AD311" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="312" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -23799,10 +24795,18 @@
       <c r="Z312">
         <v>50</v>
       </c>
-      <c r="AA312" s="5"/>
-      <c r="AB312" s="5"/>
-      <c r="AC312" s="5"/>
-      <c r="AD312" s="5"/>
+      <c r="AA312" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="AB312" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="AC312" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AD312" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="313" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -23871,10 +24875,18 @@
       <c r="Z313">
         <v>60</v>
       </c>
-      <c r="AA313" s="5"/>
-      <c r="AB313" s="5"/>
-      <c r="AC313" s="5"/>
-      <c r="AD313" s="5"/>
+      <c r="AA313" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="AB313" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="AC313" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="AD313" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="314" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -23943,10 +24955,18 @@
       <c r="Z314">
         <v>40</v>
       </c>
-      <c r="AA314" s="5"/>
-      <c r="AB314" s="5"/>
-      <c r="AC314" s="5"/>
-      <c r="AD314" s="5"/>
+      <c r="AA314" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="AB314" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="AC314" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="AD314" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="315" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -24015,10 +25035,18 @@
       <c r="Z315">
         <v>70</v>
       </c>
-      <c r="AA315" s="5"/>
-      <c r="AB315" s="5"/>
-      <c r="AC315" s="5"/>
-      <c r="AD315" s="5"/>
+      <c r="AA315" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="AB315" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="AC315" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="AD315" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="316" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -24087,10 +25115,18 @@
       <c r="Z316">
         <v>70</v>
       </c>
-      <c r="AA316" s="5"/>
-      <c r="AB316" s="5"/>
-      <c r="AC316" s="5"/>
-      <c r="AD316" s="5"/>
+      <c r="AA316" s="5">
+        <v>28.1</v>
+      </c>
+      <c r="AB316" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="AC316" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AD316" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -24168,10 +25204,18 @@
       <c r="Z317">
         <v>60</v>
       </c>
-      <c r="AA317" s="5"/>
-      <c r="AB317" s="5"/>
-      <c r="AC317" s="5"/>
-      <c r="AD317" s="5"/>
+      <c r="AA317" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AB317" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AC317" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AD317" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -24249,10 +25293,18 @@
       <c r="Z318">
         <v>60</v>
       </c>
-      <c r="AA318" s="5"/>
-      <c r="AB318" s="5"/>
-      <c r="AC318" s="5"/>
-      <c r="AD318" s="5"/>
+      <c r="AA318" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="AB318" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AC318" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="AD318" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -24330,10 +25382,18 @@
       <c r="Z319">
         <v>70</v>
       </c>
-      <c r="AA319" s="5"/>
-      <c r="AB319" s="5"/>
-      <c r="AC319" s="5"/>
-      <c r="AD319" s="5"/>
+      <c r="AA319" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="AB319" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="AC319" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD319" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -24411,10 +25471,18 @@
       <c r="Z320">
         <v>80</v>
       </c>
-      <c r="AA320" s="5"/>
-      <c r="AB320" s="5"/>
-      <c r="AC320" s="5"/>
-      <c r="AD320" s="5"/>
+      <c r="AA320" s="5">
+        <v>32</v>
+      </c>
+      <c r="AB320" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC320" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AD320" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -24492,10 +25560,18 @@
       <c r="Z321">
         <v>90</v>
       </c>
-      <c r="AA321" s="5"/>
-      <c r="AB321" s="5"/>
-      <c r="AC321" s="5"/>
-      <c r="AD321" s="5"/>
+      <c r="AA321" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="AB321" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="AC321" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="AD321" s="5">
+        <v>80</v>
+      </c>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -24550,33 +25626,41 @@
         <v>660</v>
       </c>
       <c r="S322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y322" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z322" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA322" s="5"/>
-      <c r="AB322" s="5"/>
-      <c r="AC322" s="5"/>
-      <c r="AD322" s="5"/>
+        <v>692</v>
+      </c>
+      <c r="AA322" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB322" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC322" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD322" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -24654,10 +25738,18 @@
       <c r="Z323">
         <v>60</v>
       </c>
-      <c r="AA323" s="5"/>
-      <c r="AB323" s="5"/>
-      <c r="AC323" s="5"/>
-      <c r="AD323" s="5"/>
+      <c r="AA323" s="5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AB323" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="AC323" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD323" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -24712,33 +25804,41 @@
         <v>660</v>
       </c>
       <c r="S324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y324" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z324" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA324" s="5"/>
-      <c r="AB324" s="5"/>
-      <c r="AC324" s="5"/>
-      <c r="AD324" s="5"/>
+        <v>692</v>
+      </c>
+      <c r="AA324" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB324" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC324" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD324" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -24816,10 +25916,18 @@
       <c r="Z325">
         <v>40</v>
       </c>
-      <c r="AA325" s="5"/>
-      <c r="AB325" s="5"/>
-      <c r="AC325" s="5"/>
-      <c r="AD325" s="5"/>
+      <c r="AA325" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="AB325" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC325" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="AD325" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -24897,10 +26005,18 @@
       <c r="Z326">
         <v>70</v>
       </c>
-      <c r="AA326" s="5"/>
-      <c r="AB326" s="5"/>
-      <c r="AC326" s="5"/>
-      <c r="AD326" s="5"/>
+      <c r="AA326" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="AB326" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AC326" s="5">
+        <v>29.3</v>
+      </c>
+      <c r="AD326" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -25377,10 +26493,18 @@
       <c r="Z332">
         <v>70</v>
       </c>
-      <c r="AA332" s="5"/>
-      <c r="AB332" s="5"/>
-      <c r="AC332" s="5"/>
-      <c r="AD332" s="5"/>
+      <c r="AA332" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="AB332" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="AC332" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="AD332" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="333" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -25449,10 +26573,18 @@
       <c r="Z333">
         <v>70</v>
       </c>
-      <c r="AA333" s="5"/>
-      <c r="AB333" s="5"/>
-      <c r="AC333" s="5"/>
-      <c r="AD333" s="5"/>
+      <c r="AA333" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="AB333" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="AC333" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="AD333" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="334" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -25521,10 +26653,18 @@
       <c r="Z334">
         <v>70</v>
       </c>
-      <c r="AA334" s="5"/>
-      <c r="AB334" s="5"/>
-      <c r="AC334" s="5"/>
-      <c r="AD334" s="5"/>
+      <c r="AA334" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="AB334" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="AC334" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="AD334" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="335" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -25593,10 +26733,18 @@
       <c r="Z335">
         <v>70</v>
       </c>
-      <c r="AA335" s="5"/>
-      <c r="AB335" s="5"/>
-      <c r="AC335" s="5"/>
-      <c r="AD335" s="5"/>
+      <c r="AA335" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="AB335" s="5">
+        <v>25</v>
+      </c>
+      <c r="AC335" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AD335" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="336" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -25665,10 +26813,18 @@
       <c r="Z336">
         <v>60</v>
       </c>
-      <c r="AA336" s="5"/>
-      <c r="AB336" s="5"/>
-      <c r="AC336" s="5"/>
-      <c r="AD336" s="5"/>
+      <c r="AA336" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB336" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="AC336" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AD336" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="337" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -25737,10 +26893,18 @@
       <c r="Z337">
         <v>70</v>
       </c>
-      <c r="AA337" s="5"/>
-      <c r="AB337" s="5"/>
-      <c r="AC337" s="5"/>
-      <c r="AD337" s="5"/>
+      <c r="AA337" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AB337" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="AC337" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AD337" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="338" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -25809,10 +26973,18 @@
       <c r="Z338">
         <v>70</v>
       </c>
-      <c r="AA338" s="5"/>
-      <c r="AB338" s="5"/>
-      <c r="AC338" s="5"/>
-      <c r="AD338" s="5"/>
+      <c r="AA338" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="AB338" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="AC338" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="AD338" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="339" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -25881,10 +27053,18 @@
       <c r="Z339">
         <v>60</v>
       </c>
-      <c r="AA339" s="5"/>
-      <c r="AB339" s="5"/>
-      <c r="AC339" s="5"/>
-      <c r="AD339" s="5"/>
+      <c r="AA339" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="AB339" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="AC339" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="AD339" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="340" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -25953,10 +27133,18 @@
       <c r="Z340">
         <v>40</v>
       </c>
-      <c r="AA340" s="5"/>
-      <c r="AB340" s="5"/>
-      <c r="AC340" s="5"/>
-      <c r="AD340" s="5"/>
+      <c r="AA340" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="AB340" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="AC340" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="AD340" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="341" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -26025,10 +27213,18 @@
       <c r="Z341">
         <v>60</v>
       </c>
-      <c r="AA341" s="5"/>
-      <c r="AB341" s="5"/>
-      <c r="AC341" s="5"/>
-      <c r="AD341" s="5"/>
+      <c r="AA341" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="AB341" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="AC341" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="AD341" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="342" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -26097,10 +27293,18 @@
       <c r="Z342">
         <v>70</v>
       </c>
-      <c r="AA342" s="5"/>
-      <c r="AB342" s="5"/>
-      <c r="AC342" s="5"/>
-      <c r="AD342" s="5"/>
+      <c r="AA342" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="AB342" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="AC342" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="AD342" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="343" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -26172,10 +27376,18 @@
       <c r="Z343">
         <v>5</v>
       </c>
-      <c r="AA343" s="5"/>
-      <c r="AB343" s="5"/>
-      <c r="AC343" s="5"/>
-      <c r="AD343" s="5"/>
+      <c r="AA343" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="AB343" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="AC343" s="5">
+        <v>24.3</v>
+      </c>
+      <c r="AD343" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="344" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -26244,10 +27456,18 @@
       <c r="Z344">
         <v>50</v>
       </c>
-      <c r="AA344" s="5"/>
-      <c r="AB344" s="5"/>
-      <c r="AC344" s="5"/>
-      <c r="AD344" s="5"/>
+      <c r="AA344" s="5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AB344" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="AC344" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="AD344" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="345" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -26316,10 +27536,18 @@
       <c r="Z345">
         <v>60</v>
       </c>
-      <c r="AA345" s="5"/>
-      <c r="AB345" s="5"/>
-      <c r="AC345" s="5"/>
-      <c r="AD345" s="5"/>
+      <c r="AA345" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="AB345" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="AC345" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="AD345" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="346" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -26388,10 +27616,18 @@
       <c r="Z346">
         <v>60</v>
       </c>
-      <c r="AA346" s="5"/>
-      <c r="AB346" s="5"/>
-      <c r="AC346" s="5"/>
-      <c r="AD346" s="5"/>
+      <c r="AA346" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="AB346" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AC346" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="AD346" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="347" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -26460,10 +27696,18 @@
       <c r="Z347">
         <v>70</v>
       </c>
-      <c r="AA347" s="5"/>
-      <c r="AB347" s="5"/>
-      <c r="AC347" s="5"/>
-      <c r="AD347" s="5"/>
+      <c r="AA347" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB347" s="5">
+        <v>32.5</v>
+      </c>
+      <c r="AC347" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="AD347" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="348" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -26532,10 +27776,18 @@
       <c r="Z348">
         <v>70</v>
       </c>
-      <c r="AA348" s="5"/>
-      <c r="AB348" s="5"/>
-      <c r="AC348" s="5"/>
-      <c r="AD348" s="5"/>
+      <c r="AA348" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="AB348" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="AC348" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="AD348" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="349" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -26604,10 +27856,18 @@
       <c r="Z349">
         <v>50</v>
       </c>
-      <c r="AA349" s="5"/>
-      <c r="AB349" s="5"/>
-      <c r="AC349" s="5"/>
-      <c r="AD349" s="5"/>
+      <c r="AA349" s="5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AB349" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="AC349" s="5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AD349" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="350" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -26676,10 +27936,18 @@
       <c r="Z350">
         <v>50</v>
       </c>
-      <c r="AA350" s="5"/>
-      <c r="AB350" s="5"/>
-      <c r="AC350" s="5"/>
-      <c r="AD350" s="5"/>
+      <c r="AA350" s="5">
+        <v>29.3</v>
+      </c>
+      <c r="AB350" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="AC350" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="AD350" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="351" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -26748,10 +28016,18 @@
       <c r="Z351">
         <v>50</v>
       </c>
-      <c r="AA351" s="5"/>
-      <c r="AB351" s="5"/>
-      <c r="AC351" s="5"/>
-      <c r="AD351" s="5"/>
+      <c r="AA351" s="5">
+        <v>16</v>
+      </c>
+      <c r="AB351" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="AC351" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="AD351" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="352" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -26820,10 +28096,18 @@
       <c r="Z352">
         <v>70</v>
       </c>
-      <c r="AA352" s="5"/>
-      <c r="AB352" s="5"/>
-      <c r="AC352" s="5"/>
-      <c r="AD352" s="5"/>
+      <c r="AA352" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="AB352" s="5">
+        <v>30.7</v>
+      </c>
+      <c r="AC352" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="AD352" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="353" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -26892,10 +28176,18 @@
       <c r="Z353">
         <v>70</v>
       </c>
-      <c r="AA353" s="5"/>
-      <c r="AB353" s="5"/>
-      <c r="AC353" s="5"/>
-      <c r="AD353" s="5"/>
+      <c r="AA353" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="AB353" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="AC353" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AD353" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="354" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -26964,10 +28256,18 @@
       <c r="Z354">
         <v>80</v>
       </c>
-      <c r="AA354" s="5"/>
-      <c r="AB354" s="5"/>
-      <c r="AC354" s="5"/>
-      <c r="AD354" s="5"/>
+      <c r="AA354" s="5">
+        <v>39.6</v>
+      </c>
+      <c r="AB354" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="AC354" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="AD354" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="355" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -27036,10 +28336,18 @@
       <c r="Z355" t="s">
         <v>660</v>
       </c>
-      <c r="AA355" s="5"/>
-      <c r="AB355" s="5"/>
-      <c r="AC355" s="5"/>
-      <c r="AD355" s="5"/>
+      <c r="AA355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC355" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD355" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="356" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -27108,10 +28416,18 @@
       <c r="Z356">
         <v>60</v>
       </c>
-      <c r="AA356" s="5"/>
-      <c r="AB356" s="5"/>
-      <c r="AC356" s="5"/>
-      <c r="AD356" s="5"/>
+      <c r="AA356" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="AB356" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="AC356" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD356" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="357" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -27180,10 +28496,18 @@
       <c r="Z357">
         <v>70</v>
       </c>
-      <c r="AA357" s="5"/>
-      <c r="AB357" s="5"/>
-      <c r="AC357" s="5"/>
-      <c r="AD357" s="5"/>
+      <c r="AA357" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="AB357" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="AC357" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="AD357" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="358" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -27252,10 +28576,18 @@
       <c r="Z358">
         <v>70</v>
       </c>
-      <c r="AA358" s="5"/>
-      <c r="AB358" s="5"/>
-      <c r="AC358" s="5"/>
-      <c r="AD358" s="5"/>
+      <c r="AA358" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="AB358" s="5">
+        <v>28</v>
+      </c>
+      <c r="AC358" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="AD358" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="359" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -27324,10 +28656,18 @@
       <c r="Z359">
         <v>70</v>
       </c>
-      <c r="AA359" s="5"/>
-      <c r="AB359" s="5"/>
-      <c r="AC359" s="5"/>
-      <c r="AD359" s="5"/>
+      <c r="AA359" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="AB359" s="5">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AC359" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="AD359" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="360" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -27396,10 +28736,18 @@
       <c r="Z360">
         <v>50</v>
       </c>
-      <c r="AA360" s="5"/>
-      <c r="AB360" s="5"/>
-      <c r="AC360" s="5"/>
-      <c r="AD360" s="5"/>
+      <c r="AA360" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="AB360" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="AC360" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="AD360" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="361" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -27468,10 +28816,18 @@
       <c r="Z361">
         <v>60</v>
       </c>
-      <c r="AA361" s="5"/>
-      <c r="AB361" s="5"/>
-      <c r="AC361" s="5"/>
-      <c r="AD361" s="5"/>
+      <c r="AA361" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="AB361" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="AC361" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="AD361" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -28027,7 +29383,7 @@
         <v>382</v>
       </c>
       <c r="F368" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G368">
         <v>4.5999999999999996</v>
@@ -28297,7 +29653,7 @@
         <v>382</v>
       </c>
       <c r="F371" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G371">
         <v>12.4</v>
@@ -28389,7 +29745,7 @@
         <v>382</v>
       </c>
       <c r="F372" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G372">
         <v>6.8</v>
@@ -28481,7 +29837,7 @@
         <v>382</v>
       </c>
       <c r="F373" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G373">
         <v>2.7</v>
@@ -28757,7 +30113,7 @@
         <v>382</v>
       </c>
       <c r="F376" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G376">
         <v>13.9</v>
@@ -29119,7 +30475,7 @@
         <v>382</v>
       </c>
       <c r="F380" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G380">
         <v>9.3000000000000007</v>
@@ -29211,7 +30567,7 @@
         <v>382</v>
       </c>
       <c r="F381" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G381">
         <v>14.4</v>
@@ -29342,25 +30698,25 @@
         <v>660</v>
       </c>
       <c r="S382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V382">
         <v>0</v>
       </c>
       <c r="W382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y382" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z382">
         <v>0</v>
@@ -29434,25 +30790,25 @@
         <v>660</v>
       </c>
       <c r="S383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V383">
         <v>0</v>
       </c>
       <c r="W383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y383" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z383">
         <v>0</v>
@@ -29487,7 +30843,7 @@
         <v>382</v>
       </c>
       <c r="F384" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G384">
         <v>3.6</v>
@@ -29579,7 +30935,7 @@
         <v>382</v>
       </c>
       <c r="F385" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G385">
         <v>9.1</v>
@@ -29855,7 +31211,7 @@
         <v>382</v>
       </c>
       <c r="F388" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G388">
         <v>9.6999999999999993</v>
@@ -29947,7 +31303,7 @@
         <v>382</v>
       </c>
       <c r="F389" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G389">
         <v>9.3000000000000007</v>
@@ -30039,7 +31395,7 @@
         <v>382</v>
       </c>
       <c r="F390" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G390">
         <v>7.8</v>
@@ -30131,7 +31487,7 @@
         <v>382</v>
       </c>
       <c r="F391" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G391">
         <v>15.1</v>
@@ -30276,7 +31632,9 @@
       <c r="AA392" s="5"/>
       <c r="AB392" s="5"/>
       <c r="AC392" s="5"/>
-      <c r="AD392" s="5"/>
+      <c r="AD392" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="393" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -30348,7 +31706,9 @@
       <c r="AA393" s="5"/>
       <c r="AB393" s="5"/>
       <c r="AC393" s="5"/>
-      <c r="AD393" s="5"/>
+      <c r="AD393" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="394" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
@@ -30420,7 +31780,9 @@
       <c r="AA394" s="5"/>
       <c r="AB394" s="5"/>
       <c r="AC394" s="5"/>
-      <c r="AD394" s="5"/>
+      <c r="AD394" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="395" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -30492,7 +31854,9 @@
       <c r="AA395" s="5"/>
       <c r="AB395" s="5"/>
       <c r="AC395" s="5"/>
-      <c r="AD395" s="5"/>
+      <c r="AD395" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="396" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
@@ -30564,7 +31928,9 @@
       <c r="AA396" s="5"/>
       <c r="AB396" s="5"/>
       <c r="AC396" s="5"/>
-      <c r="AD396" s="5"/>
+      <c r="AD396" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="397" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
@@ -30639,7 +32005,9 @@
       <c r="AA397" s="5"/>
       <c r="AB397" s="5"/>
       <c r="AC397" s="5"/>
-      <c r="AD397" s="5"/>
+      <c r="AD397" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="398" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
@@ -30711,7 +32079,9 @@
       <c r="AA398" s="5"/>
       <c r="AB398" s="5"/>
       <c r="AC398" s="5"/>
-      <c r="AD398" s="5"/>
+      <c r="AD398" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="399" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
@@ -30729,6 +32099,9 @@
       <c r="E399" t="s">
         <v>382</v>
       </c>
+      <c r="F399" t="s">
+        <v>710</v>
+      </c>
       <c r="G399">
         <v>2.7</v>
       </c>
@@ -30783,7 +32156,9 @@
       <c r="AA399" s="5"/>
       <c r="AB399" s="5"/>
       <c r="AC399" s="5"/>
-      <c r="AD399" s="5"/>
+      <c r="AD399" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
@@ -30801,6 +32176,9 @@
       <c r="E400" t="s">
         <v>382</v>
       </c>
+      <c r="F400" t="s">
+        <v>700</v>
+      </c>
       <c r="G400">
         <v>4.8</v>
       </c>
@@ -30855,7 +32233,9 @@
       <c r="AA400" s="5"/>
       <c r="AB400" s="5"/>
       <c r="AC400" s="5"/>
-      <c r="AD400" s="5"/>
+      <c r="AD400" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
@@ -30930,7 +32310,9 @@
       <c r="AA401" s="5"/>
       <c r="AB401" s="5"/>
       <c r="AC401" s="5"/>
-      <c r="AD401" s="5"/>
+      <c r="AD401" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
@@ -30949,7 +32331,7 @@
         <v>382</v>
       </c>
       <c r="F402" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G402">
         <v>7.3</v>
@@ -31005,7 +32387,9 @@
       <c r="AA402" s="5"/>
       <c r="AB402" s="5"/>
       <c r="AC402" s="5"/>
-      <c r="AD402" s="5"/>
+      <c r="AD402" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
@@ -31024,7 +32408,7 @@
         <v>382</v>
       </c>
       <c r="F403" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G403">
         <v>4</v>
@@ -31080,7 +32464,9 @@
       <c r="AA403" s="5"/>
       <c r="AB403" s="5"/>
       <c r="AC403" s="5"/>
-      <c r="AD403" s="5"/>
+      <c r="AD403" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="404" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
@@ -31155,7 +32541,9 @@
       <c r="AA404" s="5"/>
       <c r="AB404" s="5"/>
       <c r="AC404" s="5"/>
-      <c r="AD404" s="5"/>
+      <c r="AD404" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="405" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
@@ -31173,6 +32561,9 @@
       <c r="E405" t="s">
         <v>382</v>
       </c>
+      <c r="F405" t="s">
+        <v>710</v>
+      </c>
       <c r="G405">
         <v>8.1</v>
       </c>
@@ -31227,7 +32618,9 @@
       <c r="AA405" s="5"/>
       <c r="AB405" s="5"/>
       <c r="AC405" s="5"/>
-      <c r="AD405" s="5"/>
+      <c r="AD405" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
@@ -31302,7 +32695,9 @@
       <c r="AA406" s="5"/>
       <c r="AB406" s="5"/>
       <c r="AC406" s="5"/>
-      <c r="AD406" s="5"/>
+      <c r="AD406" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
@@ -31321,7 +32716,7 @@
         <v>382</v>
       </c>
       <c r="F407" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G407">
         <v>3</v>
@@ -31413,7 +32808,7 @@
         <v>382</v>
       </c>
       <c r="F408" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G408">
         <v>7</v>
@@ -31594,7 +32989,7 @@
         <v>382</v>
       </c>
       <c r="F410" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G410">
         <v>6.1</v>
@@ -31775,7 +33170,7 @@
         <v>382</v>
       </c>
       <c r="F412" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G412">
         <v>7.7</v>
@@ -31867,7 +33262,7 @@
         <v>382</v>
       </c>
       <c r="F413" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G413">
         <v>5.2</v>
@@ -31959,7 +33354,7 @@
         <v>382</v>
       </c>
       <c r="F414" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G414">
         <v>12</v>
@@ -32182,28 +33577,28 @@
         <v>660</v>
       </c>
       <c r="S416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="W416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z416" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AA416" t="s">
         <v>660</v>
@@ -32419,7 +33814,7 @@
         <v>382</v>
       </c>
       <c r="F419" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G419">
         <v>6.1</v>
@@ -32511,7 +33906,7 @@
         <v>382</v>
       </c>
       <c r="F420" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G420">
         <v>6.4</v>
@@ -32745,10 +34140,18 @@
       <c r="Z422">
         <v>5</v>
       </c>
-      <c r="AA422" s="5"/>
-      <c r="AB422" s="5"/>
-      <c r="AC422" s="5"/>
-      <c r="AD422" s="5"/>
+      <c r="AA422" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="AB422" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="AC422" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="AD422" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="423" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
@@ -32820,10 +34223,18 @@
       <c r="Z423" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AA423" s="5"/>
-      <c r="AB423" s="5"/>
-      <c r="AC423" s="5"/>
-      <c r="AD423" s="5"/>
+      <c r="AA423" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB423" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC423" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD423" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
@@ -32841,6 +34252,9 @@
       <c r="E424" t="s">
         <v>382</v>
       </c>
+      <c r="F424" t="s">
+        <v>708</v>
+      </c>
       <c r="G424">
         <v>6.6</v>
       </c>
@@ -32892,10 +34306,18 @@
       <c r="Z424">
         <v>10</v>
       </c>
-      <c r="AA424" s="5"/>
-      <c r="AB424" s="5"/>
-      <c r="AC424" s="5"/>
-      <c r="AD424" s="5"/>
+      <c r="AA424" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="AB424" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="AC424" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="AD424" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
@@ -32913,6 +34335,9 @@
       <c r="E425" t="s">
         <v>382</v>
       </c>
+      <c r="F425" t="s">
+        <v>708</v>
+      </c>
       <c r="G425">
         <v>3.6</v>
       </c>
@@ -32964,10 +34389,18 @@
       <c r="Z425">
         <v>5</v>
       </c>
-      <c r="AA425" s="5"/>
-      <c r="AB425" s="5"/>
-      <c r="AC425" s="5"/>
-      <c r="AD425" s="5"/>
+      <c r="AA425" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB425" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC425" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD425" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
@@ -32985,6 +34418,9 @@
       <c r="E426" t="s">
         <v>382</v>
       </c>
+      <c r="F426" t="s">
+        <v>710</v>
+      </c>
       <c r="G426">
         <v>6.5</v>
       </c>
@@ -33036,10 +34472,18 @@
       <c r="Z426">
         <v>5</v>
       </c>
-      <c r="AA426" s="5"/>
-      <c r="AB426" s="5"/>
-      <c r="AC426" s="5"/>
-      <c r="AD426" s="5"/>
+      <c r="AA426" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB426" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC426" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD426" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
@@ -33057,6 +34501,9 @@
       <c r="E427" t="s">
         <v>382</v>
       </c>
+      <c r="F427" t="s">
+        <v>708</v>
+      </c>
       <c r="G427">
         <v>4.3</v>
       </c>
@@ -33108,10 +34555,18 @@
       <c r="Z427">
         <v>10</v>
       </c>
-      <c r="AA427" s="5"/>
-      <c r="AB427" s="5"/>
-      <c r="AC427" s="5"/>
-      <c r="AD427" s="5"/>
+      <c r="AA427" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB427" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC427" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD427" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
@@ -33180,10 +34635,18 @@
       <c r="Z428">
         <v>5</v>
       </c>
-      <c r="AA428" s="5"/>
-      <c r="AB428" s="5"/>
-      <c r="AC428" s="5"/>
-      <c r="AD428" s="5"/>
+      <c r="AA428" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="AB428" s="5">
+        <v>11</v>
+      </c>
+      <c r="AC428" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="AD428" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="429" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
@@ -33252,10 +34715,18 @@
       <c r="Z429">
         <v>10</v>
       </c>
-      <c r="AA429" s="5"/>
-      <c r="AB429" s="5"/>
-      <c r="AC429" s="5"/>
-      <c r="AD429" s="5"/>
+      <c r="AA429" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AB429" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="AC429" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="AD429" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="430" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
@@ -33324,10 +34795,18 @@
       <c r="Z430">
         <v>5</v>
       </c>
-      <c r="AA430" s="5"/>
-      <c r="AB430" s="5"/>
-      <c r="AC430" s="5"/>
-      <c r="AD430" s="5"/>
+      <c r="AA430" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="AB430" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AC430" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD430" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="431" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -33399,10 +34878,18 @@
       <c r="Z431" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="AA431" s="5"/>
-      <c r="AB431" s="5"/>
-      <c r="AC431" s="5"/>
-      <c r="AD431" s="5"/>
+      <c r="AA431" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB431" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC431" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD431" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="432" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
@@ -33474,10 +34961,18 @@
       <c r="Z432" s="1">
         <v>0</v>
       </c>
-      <c r="AA432" s="5"/>
-      <c r="AB432" s="5"/>
-      <c r="AC432" s="5"/>
-      <c r="AD432" s="5"/>
+      <c r="AA432" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB432" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC432" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD432" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
@@ -33549,10 +35044,18 @@
       <c r="Z433" s="1">
         <v>0</v>
       </c>
-      <c r="AA433" s="5"/>
-      <c r="AB433" s="5"/>
-      <c r="AC433" s="5"/>
-      <c r="AD433" s="5"/>
+      <c r="AA433" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB433" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC433" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD433" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
@@ -33570,6 +35073,9 @@
       <c r="E434" t="s">
         <v>382</v>
       </c>
+      <c r="F434" t="s">
+        <v>710</v>
+      </c>
       <c r="G434">
         <v>8.1</v>
       </c>
@@ -33621,10 +35127,18 @@
       <c r="Z434" s="1">
         <v>0</v>
       </c>
-      <c r="AA434" s="5"/>
-      <c r="AB434" s="5"/>
-      <c r="AC434" s="5"/>
-      <c r="AD434" s="5"/>
+      <c r="AA434" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB434" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC434" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD434" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
@@ -33696,10 +35210,18 @@
       <c r="Z435" s="1">
         <v>0</v>
       </c>
-      <c r="AA435" s="5"/>
-      <c r="AB435" s="5"/>
-      <c r="AC435" s="5"/>
-      <c r="AD435" s="5"/>
+      <c r="AA435" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB435" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC435" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD435" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
@@ -33771,10 +35293,18 @@
       <c r="Z436" s="1">
         <v>0</v>
       </c>
-      <c r="AA436" s="5"/>
-      <c r="AB436" s="5"/>
-      <c r="AC436" s="5"/>
-      <c r="AD436" s="5"/>
+      <c r="AA436" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB436" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC436" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD436" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
@@ -33843,10 +35373,18 @@
       <c r="Z437">
         <v>20</v>
       </c>
-      <c r="AA437" s="5"/>
-      <c r="AB437" s="5"/>
-      <c r="AC437" s="5"/>
-      <c r="AD437" s="5"/>
+      <c r="AA437" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="AB437" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="AC437" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AD437" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="438" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
@@ -33915,10 +35453,18 @@
       <c r="Z438">
         <v>10</v>
       </c>
-      <c r="AA438" s="5"/>
-      <c r="AB438" s="5"/>
-      <c r="AC438" s="5"/>
-      <c r="AD438" s="5"/>
+      <c r="AA438" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="AB438" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="AC438" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AD438" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="439" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
@@ -33987,10 +35533,18 @@
       <c r="Z439">
         <v>10</v>
       </c>
-      <c r="AA439" s="5"/>
-      <c r="AB439" s="5"/>
-      <c r="AC439" s="5"/>
-      <c r="AD439" s="5"/>
+      <c r="AA439" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AB439" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="AC439" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="AD439" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="440" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
@@ -34059,10 +35613,18 @@
       <c r="Z440">
         <v>50</v>
       </c>
-      <c r="AA440" s="5"/>
-      <c r="AB440" s="5"/>
-      <c r="AC440" s="5"/>
-      <c r="AD440" s="5"/>
+      <c r="AA440" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="AB440" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="AC440" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AD440" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="441" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
@@ -34131,10 +35693,18 @@
       <c r="Z441">
         <v>40</v>
       </c>
-      <c r="AA441" s="5"/>
-      <c r="AB441" s="5"/>
-      <c r="AC441" s="5"/>
-      <c r="AD441" s="5"/>
+      <c r="AA441" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AB441" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="AC441" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD441" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="442" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
@@ -34203,10 +35773,18 @@
       <c r="Z442">
         <v>20</v>
       </c>
-      <c r="AA442" s="5"/>
-      <c r="AB442" s="5"/>
-      <c r="AC442" s="5"/>
-      <c r="AD442" s="5"/>
+      <c r="AA442" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AB442" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="AC442" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="AD442" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="443" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
@@ -34275,9 +35853,15 @@
       <c r="Z443">
         <v>30</v>
       </c>
-      <c r="AA443" s="5"/>
-      <c r="AB443" s="5"/>
-      <c r="AC443" s="5"/>
+      <c r="AA443" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AB443" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="AC443" s="5">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="AD443" s="5"/>
     </row>
     <row r="444" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
@@ -34344,13 +35928,21 @@
       <c r="Y444" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="Z444" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA444" s="5"/>
-      <c r="AB444" s="5"/>
-      <c r="AC444" s="5"/>
-      <c r="AD444" s="5"/>
+      <c r="Z444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC444" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD444" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="445" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
@@ -34368,6 +35960,9 @@
       <c r="E445" t="s">
         <v>382</v>
       </c>
+      <c r="F445" t="s">
+        <v>710</v>
+      </c>
       <c r="G445">
         <v>6.7</v>
       </c>
@@ -34419,10 +36014,18 @@
       <c r="Z445" s="1">
         <v>0</v>
       </c>
-      <c r="AA445" s="5"/>
-      <c r="AB445" s="5"/>
-      <c r="AC445" s="5"/>
-      <c r="AD445" s="5"/>
+      <c r="AA445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC445" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD445" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
@@ -34494,10 +36097,18 @@
       <c r="Z446" s="1">
         <v>0</v>
       </c>
-      <c r="AA446" s="5"/>
-      <c r="AB446" s="5"/>
-      <c r="AC446" s="5"/>
-      <c r="AD446" s="5"/>
+      <c r="AA446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC446" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD446" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
@@ -34516,7 +36127,7 @@
         <v>382</v>
       </c>
       <c r="F447" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G447">
         <v>5.0999999999999996</v>
@@ -34569,10 +36180,18 @@
       <c r="Z447" s="1">
         <v>0</v>
       </c>
-      <c r="AA447" s="5"/>
-      <c r="AB447" s="5"/>
-      <c r="AC447" s="5"/>
-      <c r="AD447" s="5"/>
+      <c r="AA447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC447" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD447" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
@@ -34590,6 +36209,9 @@
       <c r="E448" t="s">
         <v>382</v>
       </c>
+      <c r="F448" t="s">
+        <v>718</v>
+      </c>
       <c r="G448">
         <v>11.4</v>
       </c>
@@ -34641,10 +36263,18 @@
       <c r="Z448">
         <v>5</v>
       </c>
-      <c r="AA448" s="5"/>
-      <c r="AB448" s="5"/>
-      <c r="AC448" s="5"/>
-      <c r="AD448" s="5"/>
+      <c r="AA448" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB448" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC448" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD448" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="449" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -34713,10 +36343,18 @@
       <c r="Z449">
         <v>10</v>
       </c>
-      <c r="AA449" s="5"/>
-      <c r="AB449" s="5"/>
-      <c r="AC449" s="5"/>
-      <c r="AD449" s="5"/>
+      <c r="AA449" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="AB449" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="AC449" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="AD449" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="450" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -34788,10 +36426,18 @@
       <c r="Z450" s="1">
         <v>0</v>
       </c>
-      <c r="AA450" s="5"/>
-      <c r="AB450" s="5"/>
-      <c r="AC450" s="5"/>
-      <c r="AD450" s="5"/>
+      <c r="AA450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC450" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD450" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -34863,10 +36509,18 @@
       <c r="Z451" s="1">
         <v>0</v>
       </c>
-      <c r="AA451" s="5"/>
-      <c r="AB451" s="5"/>
-      <c r="AC451" s="5"/>
-      <c r="AD451" s="5"/>
+      <c r="AA451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC451" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD451" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -34885,7 +36539,7 @@
         <v>474</v>
       </c>
       <c r="F452" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G452">
         <v>3.9</v>
@@ -34977,7 +36631,7 @@
         <v>474</v>
       </c>
       <c r="F453" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G453">
         <v>10.1</v>
@@ -35069,7 +36723,7 @@
         <v>474</v>
       </c>
       <c r="F454" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G454">
         <v>4.2</v>
@@ -35108,37 +36762,37 @@
         <v>40</v>
       </c>
       <c r="S454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="T454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="V454">
         <v>0</v>
       </c>
       <c r="W454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="X454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z454">
         <v>0</v>
       </c>
       <c r="AA454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AB454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC454" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AD454">
         <v>0</v>
@@ -35250,7 +36904,7 @@
         <v>474</v>
       </c>
       <c r="F456" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G456">
         <v>4.5999999999999996</v>
@@ -35313,13 +36967,13 @@
         <v>0</v>
       </c>
       <c r="AA456" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AB456" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC456" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AD456">
         <v>0</v>
@@ -35342,7 +36996,7 @@
         <v>474</v>
       </c>
       <c r="F457" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G457">
         <v>10.9</v>
@@ -35404,10 +37058,18 @@
       <c r="Z457">
         <v>20</v>
       </c>
-      <c r="AA457" s="5"/>
-      <c r="AB457" s="5"/>
-      <c r="AC457" s="5"/>
-      <c r="AD457" s="5"/>
+      <c r="AA457" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB457" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC457" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD457">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -35485,10 +37147,18 @@
       <c r="Z458">
         <v>50</v>
       </c>
-      <c r="AA458" s="5"/>
-      <c r="AB458" s="5"/>
-      <c r="AC458" s="5"/>
-      <c r="AD458" s="5"/>
+      <c r="AA458" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="AB458" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AC458" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="AD458" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -35506,6 +37176,9 @@
       <c r="E459" t="s">
         <v>474</v>
       </c>
+      <c r="F459" t="s">
+        <v>708</v>
+      </c>
       <c r="G459">
         <v>4.4000000000000004</v>
       </c>
@@ -35566,10 +37239,18 @@
       <c r="Z459">
         <v>10</v>
       </c>
-      <c r="AA459" s="5"/>
-      <c r="AB459" s="5"/>
-      <c r="AC459" s="5"/>
-      <c r="AD459" s="5"/>
+      <c r="AA459" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB459" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC459" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD459" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -35647,10 +37328,18 @@
       <c r="Z460">
         <v>70</v>
       </c>
-      <c r="AA460" s="5"/>
-      <c r="AB460" s="5"/>
-      <c r="AC460" s="5"/>
-      <c r="AD460" s="5"/>
+      <c r="AA460" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AB460" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AC460" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD460" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -35728,10 +37417,18 @@
       <c r="Z461">
         <v>80</v>
       </c>
-      <c r="AA461" s="5"/>
-      <c r="AB461" s="5"/>
-      <c r="AC461" s="5"/>
-      <c r="AD461" s="5"/>
+      <c r="AA461" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="AB461" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="AC461" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="AD461" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -35831,7 +37528,7 @@
         <v>474</v>
       </c>
       <c r="F463" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G463">
         <v>7.5</v>
@@ -36337,7 +38034,7 @@
         <v>474</v>
       </c>
       <c r="F469" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G469">
         <v>7.9</v>
@@ -36606,6 +38303,9 @@
       <c r="E472" t="s">
         <v>474</v>
       </c>
+      <c r="F472" t="s">
+        <v>708</v>
+      </c>
       <c r="G472">
         <v>6.5</v>
       </c>
@@ -36666,10 +38366,18 @@
       <c r="Z472">
         <v>30</v>
       </c>
-      <c r="AA472" s="5"/>
-      <c r="AB472" s="5"/>
-      <c r="AC472" s="5"/>
-      <c r="AD472" s="5"/>
+      <c r="AA472" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB472" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC472" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD472" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
@@ -36687,6 +38395,9 @@
       <c r="E473" t="s">
         <v>474</v>
       </c>
+      <c r="F473" t="s">
+        <v>708</v>
+      </c>
       <c r="G473">
         <v>4.9000000000000004</v>
       </c>
@@ -36747,10 +38458,18 @@
       <c r="Z473">
         <v>20</v>
       </c>
-      <c r="AA473" s="5"/>
-      <c r="AB473" s="5"/>
-      <c r="AC473" s="5"/>
-      <c r="AD473" s="5"/>
+      <c r="AA473" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB473" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC473" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD473" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
@@ -36768,6 +38487,9 @@
       <c r="E474" t="s">
         <v>474</v>
       </c>
+      <c r="F474" t="s">
+        <v>708</v>
+      </c>
       <c r="G474">
         <v>12.7</v>
       </c>
@@ -36828,10 +38550,18 @@
       <c r="Z474">
         <v>40</v>
       </c>
-      <c r="AA474" s="5"/>
-      <c r="AB474" s="5"/>
-      <c r="AC474" s="5"/>
-      <c r="AD474" s="5"/>
+      <c r="AA474" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB474" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC474" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD474" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
@@ -36849,6 +38579,9 @@
       <c r="E475" t="s">
         <v>474</v>
       </c>
+      <c r="F475" t="s">
+        <v>708</v>
+      </c>
       <c r="G475">
         <v>4.2</v>
       </c>
@@ -36909,10 +38642,18 @@
       <c r="Z475">
         <v>20</v>
       </c>
-      <c r="AA475" s="5"/>
-      <c r="AB475" s="5"/>
-      <c r="AC475" s="5"/>
-      <c r="AD475" s="5"/>
+      <c r="AA475" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB475" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC475" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD475" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
@@ -36930,6 +38671,9 @@
       <c r="E476" t="s">
         <v>474</v>
       </c>
+      <c r="F476" t="s">
+        <v>708</v>
+      </c>
       <c r="G476">
         <v>4.5</v>
       </c>
@@ -36990,10 +38734,18 @@
       <c r="Z476">
         <v>20</v>
       </c>
-      <c r="AA476" s="5"/>
-      <c r="AB476" s="5"/>
-      <c r="AC476" s="5"/>
-      <c r="AD476" s="5"/>
+      <c r="AA476" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB476" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC476" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD476" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -37467,10 +39219,18 @@
       <c r="Z482">
         <v>50</v>
       </c>
-      <c r="AA482" s="5"/>
-      <c r="AB482" s="5"/>
-      <c r="AC482" s="5"/>
-      <c r="AD482" s="5"/>
+      <c r="AA482" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="AB482" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="AC482" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="AD482" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="483" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -37489,7 +39249,7 @@
         <v>474</v>
       </c>
       <c r="F483" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G483">
         <v>3</v>
@@ -37542,10 +39302,18 @@
       <c r="Z483">
         <v>0</v>
       </c>
-      <c r="AA483" s="5"/>
-      <c r="AB483" s="5"/>
-      <c r="AC483" s="5"/>
-      <c r="AD483" s="5"/>
+      <c r="AA483" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB483" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC483" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD483" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
@@ -37563,6 +39331,9 @@
       <c r="E484" t="s">
         <v>474</v>
       </c>
+      <c r="F484" t="s">
+        <v>710</v>
+      </c>
       <c r="G484">
         <v>5.3</v>
       </c>
@@ -37614,10 +39385,18 @@
       <c r="Z484">
         <v>5</v>
       </c>
-      <c r="AA484" s="5"/>
-      <c r="AB484" s="5"/>
-      <c r="AC484" s="5"/>
-      <c r="AD484" s="5"/>
+      <c r="AA484" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB484" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC484" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD484" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
@@ -37686,10 +39465,18 @@
       <c r="Z485">
         <v>20</v>
       </c>
-      <c r="AA485" s="5"/>
-      <c r="AB485" s="5"/>
-      <c r="AC485" s="5"/>
-      <c r="AD485" s="5"/>
+      <c r="AA485" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="AB485" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="AC485" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="AD485" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="486" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -37707,6 +39494,9 @@
       <c r="E486" t="s">
         <v>474</v>
       </c>
+      <c r="F486" t="s">
+        <v>708</v>
+      </c>
       <c r="G486">
         <v>4.5999999999999996</v>
       </c>
@@ -37758,10 +39548,18 @@
       <c r="Z486">
         <v>40</v>
       </c>
-      <c r="AA486" s="5"/>
-      <c r="AB486" s="5"/>
-      <c r="AC486" s="5"/>
-      <c r="AD486" s="5"/>
+      <c r="AA486" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB486" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC486" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD486" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -37780,7 +39578,7 @@
         <v>474</v>
       </c>
       <c r="F487" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G487">
         <v>9.9</v>
@@ -37833,10 +39631,18 @@
       <c r="Z487">
         <v>0</v>
       </c>
-      <c r="AA487" s="5"/>
-      <c r="AB487" s="5"/>
-      <c r="AC487" s="5"/>
-      <c r="AD487" s="5"/>
+      <c r="AA487" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB487" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC487" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD487" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
@@ -37905,10 +39711,18 @@
       <c r="Z488">
         <v>60</v>
       </c>
-      <c r="AA488" s="5"/>
-      <c r="AB488" s="5"/>
-      <c r="AC488" s="5"/>
-      <c r="AD488" s="5"/>
+      <c r="AA488" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AB488" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AC488" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD488" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="489" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
@@ -37926,6 +39740,9 @@
       <c r="E489" t="s">
         <v>474</v>
       </c>
+      <c r="F489" s="1" t="s">
+        <v>710</v>
+      </c>
       <c r="G489">
         <v>3.6</v>
       </c>
@@ -37977,10 +39794,18 @@
       <c r="Z489">
         <v>5</v>
       </c>
-      <c r="AA489" s="5"/>
-      <c r="AB489" s="5"/>
-      <c r="AC489" s="5"/>
-      <c r="AD489" s="5"/>
+      <c r="AA489" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB489" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC489" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD489" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
@@ -37998,6 +39823,9 @@
       <c r="E490" t="s">
         <v>474</v>
       </c>
+      <c r="F490" t="s">
+        <v>708</v>
+      </c>
       <c r="G490">
         <v>5.3</v>
       </c>
@@ -38049,10 +39877,18 @@
       <c r="Z490">
         <v>30</v>
       </c>
-      <c r="AA490" s="5"/>
-      <c r="AB490" s="5"/>
-      <c r="AC490" s="5"/>
-      <c r="AD490" s="5"/>
+      <c r="AA490" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="AB490" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="AC490" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="AD490" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="491" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -38070,6 +39906,9 @@
       <c r="E491" t="s">
         <v>474</v>
       </c>
+      <c r="F491" t="s">
+        <v>708</v>
+      </c>
       <c r="G491">
         <v>17.7</v>
       </c>
@@ -38121,10 +39960,18 @@
       <c r="Z491">
         <v>40</v>
       </c>
-      <c r="AA491" s="5"/>
-      <c r="AB491" s="5"/>
-      <c r="AC491" s="5"/>
-      <c r="AD491" s="5"/>
+      <c r="AA491" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB491" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC491" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD491" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -38143,7 +39990,7 @@
         <v>474</v>
       </c>
       <c r="F492" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G492">
         <v>4.4000000000000004</v>
@@ -38196,10 +40043,18 @@
       <c r="Z492">
         <v>0</v>
       </c>
-      <c r="AA492" s="5"/>
-      <c r="AB492" s="5"/>
-      <c r="AC492" s="5"/>
-      <c r="AD492" s="5"/>
+      <c r="AA492" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB492" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC492" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD492" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -38268,10 +40123,18 @@
       <c r="Z493">
         <v>10</v>
       </c>
-      <c r="AA493" s="5"/>
-      <c r="AB493" s="5"/>
-      <c r="AC493" s="5"/>
-      <c r="AD493" s="5"/>
+      <c r="AA493" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="AB493" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="AC493" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="AD493" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="494" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -38290,7 +40153,7 @@
         <v>474</v>
       </c>
       <c r="F494" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G494">
         <v>13.9</v>
@@ -38343,10 +40206,18 @@
       <c r="Z494">
         <v>0</v>
       </c>
-      <c r="AA494" s="5"/>
-      <c r="AB494" s="5"/>
-      <c r="AC494" s="5"/>
-      <c r="AD494" s="5"/>
+      <c r="AA494" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB494" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC494" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD494" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -38418,10 +40289,18 @@
       <c r="Z495" t="s">
         <v>660</v>
       </c>
-      <c r="AA495" s="5"/>
-      <c r="AB495" s="5"/>
-      <c r="AC495" s="5"/>
-      <c r="AD495" s="5"/>
+      <c r="AA495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC495" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD495" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="496" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -38440,7 +40319,7 @@
         <v>474</v>
       </c>
       <c r="F496" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G496">
         <v>7.6</v>
@@ -38493,10 +40372,18 @@
       <c r="Z496">
         <v>0</v>
       </c>
-      <c r="AA496" s="5"/>
-      <c r="AB496" s="5"/>
-      <c r="AC496" s="5"/>
-      <c r="AD496" s="5"/>
+      <c r="AA496" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB496" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC496" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD496" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -38515,7 +40402,7 @@
         <v>474</v>
       </c>
       <c r="F497" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G497">
         <v>5.6</v>
@@ -38607,7 +40494,7 @@
         <v>474</v>
       </c>
       <c r="F498" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G498">
         <v>4</v>
@@ -38699,7 +40586,7 @@
         <v>474</v>
       </c>
       <c r="F499" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G499">
         <v>4</v>
@@ -38791,7 +40678,7 @@
         <v>474</v>
       </c>
       <c r="F500" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G500">
         <v>4.4000000000000004</v>
@@ -38972,7 +40859,7 @@
         <v>474</v>
       </c>
       <c r="F502" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G502">
         <v>4.8</v>
@@ -39034,10 +40921,18 @@
       <c r="Z502">
         <v>0</v>
       </c>
-      <c r="AA502" s="5"/>
-      <c r="AB502" s="5"/>
-      <c r="AC502" s="5"/>
-      <c r="AD502" s="5"/>
+      <c r="AA502" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB502" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC502" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD502" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -39055,6 +40950,9 @@
       <c r="E503" t="s">
         <v>474</v>
       </c>
+      <c r="F503" t="s">
+        <v>708</v>
+      </c>
       <c r="G503">
         <v>5.0999999999999996</v>
       </c>
@@ -39115,10 +41013,18 @@
       <c r="Z503">
         <v>40</v>
       </c>
-      <c r="AA503" s="5"/>
-      <c r="AB503" s="5"/>
-      <c r="AC503" s="5"/>
-      <c r="AD503" s="5"/>
+      <c r="AA503" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="AB503" s="5">
+        <v>6</v>
+      </c>
+      <c r="AC503" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="AD503" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="504" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -39135,6 +41041,9 @@
       </c>
       <c r="E504" t="s">
         <v>474</v>
+      </c>
+      <c r="F504" t="s">
+        <v>708</v>
       </c>
       <c r="G504">
         <v>4.2</v>
@@ -39218,7 +41127,7 @@
         <v>474</v>
       </c>
       <c r="F505" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G505">
         <v>6.2</v>
@@ -39280,10 +41189,18 @@
       <c r="Z505">
         <v>0</v>
       </c>
-      <c r="AA505" s="5"/>
-      <c r="AB505" s="5"/>
-      <c r="AC505" s="5"/>
-      <c r="AD505" s="5"/>
+      <c r="AA505" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB505" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC505" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD505" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -39302,7 +41219,7 @@
         <v>474</v>
       </c>
       <c r="F506" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G506">
         <v>5.0999999999999996</v>
@@ -39364,10 +41281,18 @@
       <c r="Z506">
         <v>0</v>
       </c>
-      <c r="AA506" s="5"/>
-      <c r="AB506" s="5"/>
-      <c r="AC506" s="5"/>
-      <c r="AD506" s="5"/>
+      <c r="AA506" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB506" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC506" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD506" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -39386,7 +41311,7 @@
         <v>474</v>
       </c>
       <c r="F507" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G507">
         <v>1.9</v>
@@ -39448,10 +41373,18 @@
       <c r="Z507">
         <v>0</v>
       </c>
-      <c r="AA507" s="5"/>
-      <c r="AB507" s="5"/>
-      <c r="AC507" s="5"/>
-      <c r="AD507" s="5"/>
+      <c r="AA507" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB507" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC507" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD507" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -39850,10 +41783,18 @@
       <c r="Z512">
         <v>0</v>
       </c>
-      <c r="AA512" s="5"/>
-      <c r="AB512" s="5"/>
-      <c r="AC512" s="5"/>
-      <c r="AD512" s="5"/>
+      <c r="AA512" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB512" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC512" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD512">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -39871,6 +41812,9 @@
       <c r="E513" t="s">
         <v>474</v>
       </c>
+      <c r="F513" t="s">
+        <v>708</v>
+      </c>
       <c r="G513">
         <v>7</v>
       </c>
@@ -39922,10 +41866,18 @@
       <c r="Z513">
         <v>40</v>
       </c>
-      <c r="AA513" s="5"/>
-      <c r="AB513" s="5"/>
-      <c r="AC513" s="5"/>
-      <c r="AD513" s="5"/>
+      <c r="AA513" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="AB513" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="AC513" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="AD513" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
@@ -39944,7 +41896,7 @@
         <v>474</v>
       </c>
       <c r="F514" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G514">
         <v>5.2</v>
@@ -39997,10 +41949,18 @@
       <c r="Z514">
         <v>0</v>
       </c>
-      <c r="AA514" s="5"/>
-      <c r="AB514" s="5"/>
-      <c r="AC514" s="5"/>
-      <c r="AD514" s="5"/>
+      <c r="AA514" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB514" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC514" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD514" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
@@ -40019,7 +41979,7 @@
         <v>474</v>
       </c>
       <c r="F515" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G515">
         <v>3.9</v>
@@ -40072,10 +42032,18 @@
       <c r="Z515">
         <v>0</v>
       </c>
-      <c r="AA515" s="5"/>
-      <c r="AB515" s="5"/>
-      <c r="AC515" s="5"/>
-      <c r="AD515" s="5"/>
+      <c r="AA515" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB515" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC515" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD515" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
@@ -40094,7 +42062,7 @@
         <v>474</v>
       </c>
       <c r="F516" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="G516">
         <v>3.2</v>
@@ -40147,10 +42115,18 @@
       <c r="Z516">
         <v>0</v>
       </c>
-      <c r="AA516" s="5"/>
-      <c r="AB516" s="5"/>
-      <c r="AC516" s="5"/>
-      <c r="AD516" s="5"/>
+      <c r="AA516" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB516" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC516" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD516" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
@@ -40210,10 +42186,18 @@
       <c r="Z517" t="s">
         <v>660</v>
       </c>
-      <c r="AA517" s="5"/>
-      <c r="AB517" s="5"/>
-      <c r="AC517" s="5"/>
-      <c r="AD517" s="5"/>
+      <c r="AA517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC517" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD517" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="518" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
@@ -40282,10 +42266,18 @@
       <c r="Z518">
         <v>60</v>
       </c>
-      <c r="AA518" s="5"/>
-      <c r="AB518" s="5"/>
-      <c r="AC518" s="5"/>
-      <c r="AD518" s="5"/>
+      <c r="AA518" s="5">
+        <v>41</v>
+      </c>
+      <c r="AB518" s="5">
+        <v>34.1</v>
+      </c>
+      <c r="AC518" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="AD518" s="5">
+        <v>69</v>
+      </c>
     </row>
     <row r="519" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
@@ -40303,6 +42295,9 @@
       <c r="E519" t="s">
         <v>474</v>
       </c>
+      <c r="F519" t="s">
+        <v>708</v>
+      </c>
       <c r="G519">
         <v>2.5</v>
       </c>
@@ -40354,10 +42349,18 @@
       <c r="Z519">
         <v>20</v>
       </c>
-      <c r="AA519" s="5"/>
-      <c r="AB519" s="5"/>
-      <c r="AC519" s="5"/>
-      <c r="AD519" s="5"/>
+      <c r="AA519" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="AB519" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="AC519" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="AD519" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="520" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -40426,10 +42429,18 @@
       <c r="Z520">
         <v>50</v>
       </c>
-      <c r="AA520" s="5"/>
-      <c r="AB520" s="5"/>
-      <c r="AC520" s="5"/>
-      <c r="AD520" s="5"/>
+      <c r="AA520" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AB520" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="AC520" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AD520" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="521" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -40447,6 +42458,9 @@
       <c r="E521" t="s">
         <v>474</v>
       </c>
+      <c r="F521" t="s">
+        <v>710</v>
+      </c>
       <c r="G521">
         <v>2.6</v>
       </c>
@@ -40498,10 +42512,18 @@
       <c r="Z521">
         <v>5</v>
       </c>
-      <c r="AA521" s="5"/>
-      <c r="AB521" s="5"/>
-      <c r="AC521" s="5"/>
-      <c r="AD521" s="5"/>
+      <c r="AA521" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB521" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC521" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD521" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -40519,6 +42541,9 @@
       <c r="E522" t="s">
         <v>474</v>
       </c>
+      <c r="F522" t="s">
+        <v>708</v>
+      </c>
       <c r="G522">
         <v>5.3</v>
       </c>
@@ -40570,10 +42595,18 @@
       <c r="Z522">
         <v>10</v>
       </c>
-      <c r="AA522" s="5"/>
-      <c r="AB522" s="5"/>
-      <c r="AC522" s="5"/>
-      <c r="AD522" s="5"/>
+      <c r="AA522" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB522" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC522" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD522" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -40642,10 +42675,18 @@
       <c r="Z523">
         <v>40</v>
       </c>
-      <c r="AA523" s="5"/>
-      <c r="AB523" s="5"/>
-      <c r="AC523" s="5"/>
-      <c r="AD523" s="5"/>
+      <c r="AA523" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AB523" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AC523" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AD523" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="524" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -40714,10 +42755,18 @@
       <c r="Z524">
         <v>70</v>
       </c>
-      <c r="AA524" s="5"/>
-      <c r="AB524" s="5"/>
-      <c r="AC524" s="5"/>
-      <c r="AD524" s="5"/>
+      <c r="AA524" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AB524" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC524" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="AD524" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="525" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -40786,10 +42835,18 @@
       <c r="Z525">
         <v>50</v>
       </c>
-      <c r="AA525" s="5"/>
-      <c r="AB525" s="5"/>
-      <c r="AC525" s="5"/>
-      <c r="AD525" s="5"/>
+      <c r="AA525" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="AB525" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="AC525" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD525" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="526" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -40808,7 +42865,7 @@
         <v>474</v>
       </c>
       <c r="F526" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G526">
         <v>8.4</v>
@@ -40861,10 +42918,18 @@
       <c r="Z526">
         <v>0</v>
       </c>
-      <c r="AA526" s="5"/>
-      <c r="AB526" s="5"/>
-      <c r="AC526" s="5"/>
-      <c r="AD526" s="5"/>
+      <c r="AA526" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB526" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC526" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD526" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -40933,10 +42998,18 @@
       <c r="Z527">
         <v>60</v>
       </c>
-      <c r="AA527" s="5"/>
-      <c r="AB527" s="5"/>
-      <c r="AC527" s="5"/>
-      <c r="AD527" s="5"/>
+      <c r="AA527" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="AB527" s="5">
+        <v>16</v>
+      </c>
+      <c r="AC527" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="AD527" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="528" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -40954,6 +43027,9 @@
       <c r="E528" t="s">
         <v>474</v>
       </c>
+      <c r="F528" t="s">
+        <v>708</v>
+      </c>
       <c r="G528">
         <v>6.9</v>
       </c>
@@ -41005,10 +43081,18 @@
       <c r="Z528">
         <v>30</v>
       </c>
-      <c r="AA528" s="5"/>
-      <c r="AB528" s="5"/>
-      <c r="AC528" s="5"/>
-      <c r="AD528" s="5"/>
+      <c r="AA528" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB528" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC528" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD528" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="529" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
@@ -41077,10 +43161,18 @@
       <c r="Z529">
         <v>40</v>
       </c>
-      <c r="AA529" s="5"/>
-      <c r="AB529" s="5"/>
-      <c r="AC529" s="5"/>
-      <c r="AD529" s="5"/>
+      <c r="AA529" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="AB529" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="AC529" s="5">
+        <v>8</v>
+      </c>
+      <c r="AD529" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="530" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
@@ -41098,6 +43190,9 @@
       <c r="E530" t="s">
         <v>474</v>
       </c>
+      <c r="F530" t="s">
+        <v>710</v>
+      </c>
       <c r="G530">
         <v>5.2</v>
       </c>
@@ -41149,10 +43244,18 @@
       <c r="Z530">
         <v>5</v>
       </c>
-      <c r="AA530" s="5"/>
-      <c r="AB530" s="5"/>
-      <c r="AC530" s="5"/>
-      <c r="AD530" s="5"/>
+      <c r="AA530" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB530" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC530" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD530" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
@@ -41171,7 +43274,7 @@
         <v>474</v>
       </c>
       <c r="F531" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G531">
         <v>3.7</v>
@@ -41224,10 +43327,18 @@
       <c r="Z531">
         <v>0</v>
       </c>
-      <c r="AA531" s="5"/>
-      <c r="AB531" s="5"/>
-      <c r="AC531" s="5"/>
-      <c r="AD531" s="5"/>
+      <c r="AA531" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB531" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC531" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD531" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="532" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
@@ -41296,10 +43407,18 @@
       <c r="Z532">
         <v>60</v>
       </c>
-      <c r="AA532" s="5"/>
-      <c r="AB532" s="5"/>
-      <c r="AC532" s="5"/>
-      <c r="AD532" s="5"/>
+      <c r="AA532" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="AB532" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="AC532" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="AD532" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="533" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
@@ -41317,6 +43436,9 @@
       <c r="E533" t="s">
         <v>474</v>
       </c>
+      <c r="F533" t="s">
+        <v>708</v>
+      </c>
       <c r="G533">
         <v>3.4</v>
       </c>
@@ -41368,10 +43490,18 @@
       <c r="Z533">
         <v>5</v>
       </c>
-      <c r="AA533" s="5"/>
-      <c r="AB533" s="5"/>
-      <c r="AC533" s="5"/>
-      <c r="AD533" s="5"/>
+      <c r="AA533" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB533" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC533" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD533" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
@@ -41390,7 +43520,7 @@
         <v>474</v>
       </c>
       <c r="F534" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G534">
         <v>3</v>
@@ -41443,10 +43573,18 @@
       <c r="Z534">
         <v>0</v>
       </c>
-      <c r="AA534" s="5"/>
-      <c r="AB534" s="5"/>
-      <c r="AC534" s="5"/>
-      <c r="AD534" s="5"/>
+      <c r="AA534" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB534" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC534" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD534" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
@@ -41464,6 +43602,9 @@
       <c r="E535" t="s">
         <v>474</v>
       </c>
+      <c r="F535" t="s">
+        <v>710</v>
+      </c>
       <c r="G535">
         <v>5.6</v>
       </c>
@@ -41515,10 +43656,18 @@
       <c r="Z535">
         <v>10</v>
       </c>
-      <c r="AA535" s="5"/>
-      <c r="AB535" s="5"/>
-      <c r="AC535" s="5"/>
-      <c r="AD535" s="5"/>
+      <c r="AA535" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB535" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC535" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD535" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
@@ -41537,7 +43686,7 @@
         <v>474</v>
       </c>
       <c r="F536" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G536">
         <v>3.1</v>
@@ -41590,10 +43739,18 @@
       <c r="Z536">
         <v>0</v>
       </c>
-      <c r="AA536" s="5"/>
-      <c r="AB536" s="5"/>
-      <c r="AC536" s="5"/>
-      <c r="AD536" s="5"/>
+      <c r="AA536" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB536" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC536" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD536" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
@@ -41612,7 +43769,7 @@
         <v>474</v>
       </c>
       <c r="F537" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G537">
         <v>5</v>
@@ -41665,10 +43822,18 @@
       <c r="Z537">
         <v>0</v>
       </c>
-      <c r="AA537" s="5"/>
-      <c r="AB537" s="5"/>
-      <c r="AC537" s="5"/>
-      <c r="AD537" s="5"/>
+      <c r="AA537" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB537" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC537" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD537" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
@@ -41737,10 +43902,18 @@
       <c r="Z538">
         <v>60</v>
       </c>
-      <c r="AA538" s="5"/>
-      <c r="AB538" s="5"/>
-      <c r="AC538" s="5"/>
-      <c r="AD538" s="5"/>
+      <c r="AA538" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="AB538" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="AC538" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="AD538" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="539" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
@@ -41809,10 +43982,18 @@
       <c r="Z539">
         <v>30</v>
       </c>
-      <c r="AA539" s="5"/>
-      <c r="AB539" s="5"/>
-      <c r="AC539" s="5"/>
-      <c r="AD539" s="5"/>
+      <c r="AA539" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="AB539" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="AC539" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD539" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="540" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
@@ -41830,6 +44011,9 @@
       <c r="E540" t="s">
         <v>474</v>
       </c>
+      <c r="F540" t="s">
+        <v>710</v>
+      </c>
       <c r="G540">
         <v>5.7</v>
       </c>
@@ -41881,10 +44065,18 @@
       <c r="Z540">
         <v>30</v>
       </c>
-      <c r="AA540" s="5"/>
-      <c r="AB540" s="5"/>
-      <c r="AC540" s="5"/>
-      <c r="AD540" s="5"/>
+      <c r="AA540" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB540" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC540" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD540" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
@@ -41902,6 +44094,9 @@
       <c r="E541" t="s">
         <v>474</v>
       </c>
+      <c r="F541" t="s">
+        <v>708</v>
+      </c>
       <c r="G541">
         <v>5.2</v>
       </c>
@@ -41953,10 +44148,18 @@
       <c r="Z541">
         <v>20</v>
       </c>
-      <c r="AA541" s="5"/>
-      <c r="AB541" s="5"/>
-      <c r="AC541" s="5"/>
-      <c r="AD541" s="5"/>
+      <c r="AA541" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="AB541" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AC541" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD541" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A542" t="s">

--- a/data/monitoring_phenology/percent_chlorocontent.xlsx
+++ b/data/monitoring_phenology/percent_chlorocontent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9076261-7DC5-C142-98BA-26ECD0759CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FE168-29FF-3648-857E-DB093AB64A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4045" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="724">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3527,10 +3527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="185" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A493" sqref="A493"/>
-      <selection pane="topRight" activeCell="AC282" sqref="AC282"/>
+      <selection pane="topRight" activeCell="AD331" sqref="AD331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22301,10 +22301,18 @@
       <c r="Z282">
         <v>80</v>
       </c>
-      <c r="AA282" s="5"/>
-      <c r="AB282" s="5"/>
-      <c r="AC282" s="5"/>
-      <c r="AD282" s="5"/>
+      <c r="AA282" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="AB282" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="AC282" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AD282" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -22385,10 +22393,18 @@
       <c r="Z283" t="s">
         <v>660</v>
       </c>
-      <c r="AA283" s="5"/>
-      <c r="AB283" s="5"/>
-      <c r="AC283" s="5"/>
-      <c r="AD283" s="5"/>
+      <c r="AA283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -22466,10 +22482,18 @@
       <c r="Z284">
         <v>60</v>
       </c>
-      <c r="AA284" s="5"/>
-      <c r="AB284" s="5"/>
-      <c r="AC284" s="5"/>
-      <c r="AD284" s="5"/>
+      <c r="AA284" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="AB284" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AC284" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="AD284" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -22547,10 +22571,18 @@
       <c r="Z285">
         <v>70</v>
       </c>
-      <c r="AA285" s="5"/>
-      <c r="AB285" s="5"/>
-      <c r="AC285" s="5"/>
-      <c r="AD285" s="5"/>
+      <c r="AA285" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="AB285" s="5">
+        <v>34</v>
+      </c>
+      <c r="AC285" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="AD285" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -22628,10 +22660,18 @@
       <c r="Z286">
         <v>70</v>
       </c>
-      <c r="AA286" s="5"/>
-      <c r="AB286" s="5"/>
-      <c r="AC286" s="5"/>
-      <c r="AD286" s="5"/>
+      <c r="AA286" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AB286" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="AC286" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="AD286" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -23599,10 +23639,18 @@
       <c r="Z297">
         <v>60</v>
       </c>
-      <c r="AA297" s="5"/>
-      <c r="AB297" s="5"/>
-      <c r="AC297" s="5"/>
-      <c r="AD297" s="5"/>
+      <c r="AA297" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="AB297" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="AC297" s="5">
+        <v>20.5</v>
+      </c>
+      <c r="AD297" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -23680,10 +23728,18 @@
       <c r="Z298">
         <v>70</v>
       </c>
-      <c r="AA298" s="5"/>
-      <c r="AB298" s="5"/>
-      <c r="AC298" s="5"/>
-      <c r="AD298" s="5"/>
+      <c r="AA298" s="5">
+        <v>34.9</v>
+      </c>
+      <c r="AB298" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AC298" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="AD298" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -23761,10 +23817,18 @@
       <c r="Z299">
         <v>70</v>
       </c>
-      <c r="AA299" s="5"/>
-      <c r="AB299" s="5"/>
-      <c r="AC299" s="5"/>
-      <c r="AD299" s="5"/>
+      <c r="AA299" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AB299" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="AC299" s="5">
+        <v>22</v>
+      </c>
+      <c r="AD299" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -23842,10 +23906,18 @@
       <c r="Z300">
         <v>60</v>
       </c>
-      <c r="AA300" s="5"/>
-      <c r="AB300" s="5"/>
-      <c r="AC300" s="5"/>
-      <c r="AD300" s="5"/>
+      <c r="AA300" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AB300" s="5">
+        <v>27.6</v>
+      </c>
+      <c r="AC300" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD300" s="5">
+        <v>40</v>
+      </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -23923,10 +23995,18 @@
       <c r="Z301">
         <v>70</v>
       </c>
-      <c r="AA301" s="5"/>
-      <c r="AB301" s="5"/>
-      <c r="AC301" s="5"/>
-      <c r="AD301" s="5"/>
+      <c r="AA301" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="AB301" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="AC301" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="AD301" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="302" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -26094,10 +26174,18 @@
       <c r="Z327">
         <v>30</v>
       </c>
-      <c r="AA327" s="5"/>
-      <c r="AB327" s="5"/>
-      <c r="AC327" s="5"/>
-      <c r="AD327" s="5"/>
+      <c r="AA327" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="AB327" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="AC327" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="AD327" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -26175,10 +26263,18 @@
       <c r="Z328">
         <v>50</v>
       </c>
-      <c r="AA328" s="5"/>
-      <c r="AB328" s="5"/>
-      <c r="AC328" s="5"/>
-      <c r="AD328" s="5"/>
+      <c r="AA328" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="AB328" s="5">
+        <v>19</v>
+      </c>
+      <c r="AC328" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="AD328" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -26256,10 +26352,18 @@
       <c r="Z329">
         <v>60</v>
       </c>
-      <c r="AA329" s="5"/>
-      <c r="AB329" s="5"/>
-      <c r="AC329" s="5"/>
-      <c r="AD329" s="5"/>
+      <c r="AA329" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="AB329" s="5">
+        <v>31</v>
+      </c>
+      <c r="AC329" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="AD329" s="5">
+        <v>50</v>
+      </c>
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -26337,10 +26441,18 @@
       <c r="Z330">
         <v>60</v>
       </c>
-      <c r="AA330" s="5"/>
-      <c r="AB330" s="5"/>
-      <c r="AC330" s="5"/>
-      <c r="AD330" s="5"/>
+      <c r="AA330" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="AB330" s="5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AC330" s="5">
+        <v>18</v>
+      </c>
+      <c r="AD330" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -26421,10 +26533,18 @@
       <c r="Z331">
         <v>20</v>
       </c>
-      <c r="AA331" s="5"/>
-      <c r="AB331" s="5"/>
-      <c r="AC331" s="5"/>
-      <c r="AD331" s="5"/>
+      <c r="AA331" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB331" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="AC331" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="AD331" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="332" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -37506,10 +37626,18 @@
       <c r="Z462">
         <v>60</v>
       </c>
-      <c r="AA462" s="5"/>
-      <c r="AB462" s="5"/>
-      <c r="AC462" s="5"/>
-      <c r="AD462" s="5"/>
+      <c r="AA462" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB462" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AC462" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="AD462" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -37590,10 +37718,18 @@
       <c r="Z463">
         <v>0</v>
       </c>
-      <c r="AA463" s="5"/>
-      <c r="AB463" s="5"/>
-      <c r="AC463" s="5"/>
-      <c r="AD463" s="5"/>
+      <c r="AA463" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB463" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC463" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD463">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -37611,7 +37747,9 @@
       <c r="E464" t="s">
         <v>474</v>
       </c>
-      <c r="F464" s="3"/>
+      <c r="F464" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="G464">
         <v>5.5</v>
       </c>
@@ -37672,10 +37810,18 @@
       <c r="Z464">
         <v>5</v>
       </c>
-      <c r="AA464" s="5"/>
-      <c r="AB464" s="5"/>
-      <c r="AC464" s="5"/>
-      <c r="AD464" s="5"/>
+      <c r="AA464" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB464" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC464" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD464">
+        <v>0</v>
+      </c>
     </row>
     <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -37693,6 +37839,9 @@
       <c r="E465" t="s">
         <v>474</v>
       </c>
+      <c r="F465" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="G465">
         <v>7.6</v>
       </c>
@@ -37753,10 +37902,18 @@
       <c r="Z465">
         <v>5</v>
       </c>
-      <c r="AA465" s="5"/>
-      <c r="AB465" s="5"/>
-      <c r="AC465" s="5"/>
-      <c r="AD465" s="5"/>
+      <c r="AA465" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB465" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC465" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD465">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -37774,6 +37931,9 @@
       <c r="E466" t="s">
         <v>474</v>
       </c>
+      <c r="F466" t="s">
+        <v>708</v>
+      </c>
       <c r="G466">
         <v>14.8</v>
       </c>
@@ -37834,10 +37994,18 @@
       <c r="Z466">
         <v>20</v>
       </c>
-      <c r="AA466" s="5"/>
-      <c r="AB466" s="5"/>
-      <c r="AC466" s="5"/>
-      <c r="AD466" s="5"/>
+      <c r="AA466" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB466" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC466" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD466">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -38823,10 +38991,18 @@
       <c r="Z477">
         <v>30</v>
       </c>
-      <c r="AA477" s="5"/>
-      <c r="AB477" s="5"/>
-      <c r="AC477" s="5"/>
-      <c r="AD477" s="5"/>
+      <c r="AA477" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="AB477" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AC477" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD477" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -38904,10 +39080,18 @@
       <c r="Z478">
         <v>5</v>
       </c>
-      <c r="AA478" s="5"/>
-      <c r="AB478" s="5"/>
-      <c r="AC478" s="5"/>
-      <c r="AD478" s="5"/>
+      <c r="AA478" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB478" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC478" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD478" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -38925,6 +39109,9 @@
       <c r="E479" t="s">
         <v>474</v>
       </c>
+      <c r="F479" t="s">
+        <v>708</v>
+      </c>
       <c r="G479">
         <v>8.5</v>
       </c>
@@ -38985,10 +39172,18 @@
       <c r="Z479">
         <v>30</v>
       </c>
-      <c r="AA479" s="5"/>
-      <c r="AB479" s="5"/>
-      <c r="AC479" s="5"/>
-      <c r="AD479" s="5"/>
+      <c r="AA479" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AB479" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AC479" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="AD479" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -39006,6 +39201,9 @@
       <c r="E480" t="s">
         <v>474</v>
       </c>
+      <c r="F480" t="s">
+        <v>708</v>
+      </c>
       <c r="G480">
         <v>5.8</v>
       </c>
@@ -39066,10 +39264,18 @@
       <c r="Z480">
         <v>20</v>
       </c>
-      <c r="AA480" s="5"/>
-      <c r="AB480" s="5"/>
-      <c r="AC480" s="5"/>
-      <c r="AD480" s="5"/>
+      <c r="AA480" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB480" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC480" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD480" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -39147,10 +39353,18 @@
       <c r="Z481">
         <v>80</v>
       </c>
-      <c r="AA481" s="5"/>
-      <c r="AB481" s="5"/>
-      <c r="AC481" s="5"/>
-      <c r="AD481" s="5"/>
+      <c r="AA481" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="AB481" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AC481" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AD481" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="482" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -41402,6 +41616,9 @@
       <c r="E508" t="s">
         <v>474</v>
       </c>
+      <c r="F508" t="s">
+        <v>708</v>
+      </c>
       <c r="G508">
         <v>8.5</v>
       </c>
@@ -41462,10 +41679,18 @@
       <c r="Z508">
         <v>40</v>
       </c>
-      <c r="AA508" s="5"/>
-      <c r="AB508" s="5"/>
-      <c r="AC508" s="5"/>
-      <c r="AD508" s="5"/>
+      <c r="AA508" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB508" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC508" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD508" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -41543,10 +41768,18 @@
       <c r="Z509">
         <v>40</v>
       </c>
-      <c r="AA509" s="5"/>
-      <c r="AB509" s="5"/>
-      <c r="AC509" s="5"/>
-      <c r="AD509" s="5"/>
+      <c r="AA509" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="AB509" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="AC509" s="5">
+        <v>7.9</v>
+      </c>
+      <c r="AD509" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="510" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -41564,6 +41797,9 @@
       <c r="E510" t="s">
         <v>474</v>
       </c>
+      <c r="F510" t="s">
+        <v>708</v>
+      </c>
       <c r="G510">
         <v>8.4</v>
       </c>
@@ -41624,10 +41860,18 @@
       <c r="Z510">
         <v>20</v>
       </c>
-      <c r="AA510" s="5"/>
-      <c r="AB510" s="5"/>
-      <c r="AC510" s="5"/>
-      <c r="AD510" s="5"/>
+      <c r="AA510" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB510" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC510" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD510" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -41708,10 +41952,18 @@
       <c r="Z511">
         <v>30</v>
       </c>
-      <c r="AA511" s="5"/>
-      <c r="AB511" s="5"/>
-      <c r="AC511" s="5"/>
-      <c r="AD511" s="5"/>
+      <c r="AA511" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="AB511" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="AC511" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="AD511" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="512" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
